--- a/ICD-10 conversions_3_30_2020.xlsx
+++ b/ICD-10 conversions_3_30_2020.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shutfle1\Desktop\Johns-Hopkins-Overuse-Project-with-Segal\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="495" yWindow="555" windowWidth="20730" windowHeight="5280" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="500" yWindow="560" windowWidth="20730" windowHeight="5280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="4" r:id="rId1"/>
@@ -37,7 +42,7 @@
     <definedName name="OLE_LINK3" localSheetId="1">'Indicator Descriptions'!$B$17</definedName>
     <definedName name="OLE_LINK4" localSheetId="1">'Indicator Descriptions'!$B$18</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +63,7 @@
     <author>Jodi</author>
   </authors>
   <commentList>
-    <comment ref="D19" authorId="0">
+    <comment ref="D19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="591">
   <si>
     <t>Working Number</t>
   </si>
@@ -615,12 +620,6 @@
   </si>
   <si>
     <t>Menisectomy or repair or replacement</t>
-  </si>
-  <si>
-    <t>OSBD4ZZ  Excision of Left Knee Joint, Percutaneous Endoscopic Approach</t>
-  </si>
-  <si>
-    <t>OSBC4ZZ  Excision of Right Knee Joint, Percutaneous Endoscopic Approach</t>
   </si>
   <si>
     <t>Instructions</t>
@@ -2480,16 +2479,33 @@
     <t>people with DIAGNOSES of DJD of knee and no DIAGNOSIS of knee trauma and without a concurrent knee replacement</t>
   </si>
   <si>
-    <t>people WITH the inclusionary  ICD-CM  and WITHOUT exclusionary ICD-CM/ICD_PCS/CPT on  any given day</t>
+    <t>0SBC4ZZ  Excision of Right Knee Joint, Percutaneous Endoscopic Approach
+0=ZERO (not O)</t>
+  </si>
+  <si>
+    <t>0SBD4ZZ  Excision of Left Knee Joint, Percutaneous Endoscopic Approach</t>
+  </si>
+  <si>
+    <t>0SRC069 Replacement of Right Knee Joint with Oxidized Zirconium on Polyethylene Synthetic Substitute, Cemented, Open Approach</t>
+  </si>
+  <si>
+    <t>people WITH the inclusionary  ICD-CM  and WITHOUT exclusionary ICD-CM/ICD_PCS/CPT on  claim with meniscectomy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="46">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="47">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3085,9 +3101,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="328">
+  <cellXfs count="330">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3097,30 +3113,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -3130,240 +3146,240 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3377,166 +3393,166 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3548,10 +3564,10 @@
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3563,73 +3579,73 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3638,25 +3654,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3671,151 +3687,151 @@
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3824,39 +3840,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4181,7 +4201,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4195,19 +4215,19 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="98.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="21">
       <c r="A1" s="16" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="31.5">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="31">
       <c r="A2" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -4215,12 +4235,12 @@
     </row>
     <row r="4" spans="1:1" ht="45" customHeight="1">
       <c r="A4" s="17" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="96.75" customHeight="1">
       <c r="A5" s="223" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="20.25" customHeight="1">
@@ -4228,135 +4248,135 @@
     </row>
     <row r="7" spans="1:1" ht="35.25" customHeight="1">
       <c r="A7" s="17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="17" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="19" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="19" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="17"/>
     </row>
-    <row r="19" spans="1:1" ht="47.25">
+    <row r="19" spans="1:1" ht="46.5">
       <c r="A19" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="17" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="17" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -4370,71 +4390,71 @@
   <dimension ref="A1:Q174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="10.75" style="218" customWidth="1"/>
     <col min="2" max="2" width="29" style="219" customWidth="1"/>
-    <col min="3" max="3" width="32.125" style="220" customWidth="1"/>
-    <col min="4" max="4" width="28.375" style="221" customWidth="1"/>
-    <col min="5" max="5" width="20.125" style="221" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="38.375" style="249" customWidth="1"/>
-    <col min="7" max="7" width="41.375" style="249" customWidth="1"/>
+    <col min="3" max="3" width="32.08203125" style="220" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" style="221" customWidth="1"/>
+    <col min="5" max="5" width="20.08203125" style="221" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="38.33203125" style="249" customWidth="1"/>
+    <col min="7" max="7" width="41.33203125" style="249" customWidth="1"/>
     <col min="8" max="8" width="12.5" style="222" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="13.5" style="222" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="20.875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.625" style="317" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.58203125" style="317" customWidth="1"/>
     <col min="12" max="12" width="7.5" style="317" customWidth="1"/>
-    <col min="13" max="13" width="27.125" style="260" customWidth="1"/>
+    <col min="13" max="13" width="27.08203125" style="260" customWidth="1"/>
     <col min="14" max="14" width="25" style="260" customWidth="1"/>
-    <col min="15" max="15" width="8.875" style="260"/>
+    <col min="15" max="15" width="8.83203125" style="260"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="198" customFormat="1" ht="39" customHeight="1">
       <c r="A1" s="199" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B1" s="200" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C1" s="200" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="200" t="s">
+        <v>438</v>
+      </c>
+      <c r="E1" s="200" t="s">
+        <v>439</v>
+      </c>
+      <c r="F1" s="246" t="s">
+        <v>500</v>
+      </c>
+      <c r="G1" s="246" t="s">
+        <v>518</v>
+      </c>
+      <c r="H1" s="201" t="s">
+        <v>221</v>
+      </c>
+      <c r="I1" s="201" t="s">
         <v>222</v>
       </c>
-      <c r="D1" s="200" t="s">
-        <v>440</v>
-      </c>
-      <c r="E1" s="200" t="s">
-        <v>441</v>
-      </c>
-      <c r="F1" s="246" t="s">
-        <v>502</v>
-      </c>
-      <c r="G1" s="246" t="s">
-        <v>520</v>
-      </c>
-      <c r="H1" s="201" t="s">
-        <v>223</v>
-      </c>
-      <c r="I1" s="201" t="s">
-        <v>224</v>
-      </c>
       <c r="J1" s="201" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K1" s="312" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L1" s="313" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="M1" s="251" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N1" s="251" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="O1" s="251"/>
     </row>
@@ -4443,38 +4463,38 @@
         <v>1</v>
       </c>
       <c r="B2" s="203" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="203" t="s">
+        <v>352</v>
+      </c>
+      <c r="D2" s="200" t="s">
+        <v>370</v>
+      </c>
+      <c r="E2" s="200" t="s">
+        <v>240</v>
+      </c>
+      <c r="F2" s="246" t="s">
+        <v>495</v>
+      </c>
+      <c r="G2" s="246" t="s">
+        <v>543</v>
+      </c>
+      <c r="H2" s="204" t="s">
+        <v>232</v>
+      </c>
+      <c r="I2" s="204" t="s">
         <v>233</v>
-      </c>
-      <c r="C2" s="203" t="s">
-        <v>354</v>
-      </c>
-      <c r="D2" s="200" t="s">
-        <v>372</v>
-      </c>
-      <c r="E2" s="200" t="s">
-        <v>242</v>
-      </c>
-      <c r="F2" s="246" t="s">
-        <v>497</v>
-      </c>
-      <c r="G2" s="246" t="s">
-        <v>545</v>
-      </c>
-      <c r="H2" s="204" t="s">
-        <v>234</v>
-      </c>
-      <c r="I2" s="204" t="s">
-        <v>235</v>
       </c>
       <c r="J2" s="48"/>
       <c r="K2" s="314" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L2" s="314" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="M2" s="252" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="N2" s="252"/>
       <c r="O2" s="252"/>
@@ -4484,127 +4504,127 @@
         <v>2</v>
       </c>
       <c r="B3" s="203" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="203" t="s">
+        <v>353</v>
+      </c>
+      <c r="D3" s="200" t="s">
+        <v>398</v>
+      </c>
+      <c r="E3" s="200" t="s">
+        <v>444</v>
+      </c>
+      <c r="F3" s="246" t="s">
+        <v>522</v>
+      </c>
+      <c r="G3" s="246" t="s">
+        <v>541</v>
+      </c>
+      <c r="H3" s="204" t="s">
+        <v>257</v>
+      </c>
+      <c r="I3" s="204" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="203" t="s">
-        <v>355</v>
-      </c>
-      <c r="D3" s="200" t="s">
-        <v>400</v>
-      </c>
-      <c r="E3" s="200" t="s">
-        <v>446</v>
-      </c>
-      <c r="F3" s="246" t="s">
-        <v>524</v>
-      </c>
-      <c r="G3" s="246" t="s">
-        <v>543</v>
-      </c>
-      <c r="H3" s="204" t="s">
-        <v>259</v>
-      </c>
-      <c r="I3" s="204" t="s">
-        <v>260</v>
-      </c>
       <c r="K3" s="315" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L3" s="315" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="M3" s="253" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="N3" s="254"/>
       <c r="O3" s="254"/>
     </row>
-    <row r="4" spans="1:17" s="48" customFormat="1" ht="178.5">
+    <row r="4" spans="1:17" s="48" customFormat="1" ht="195">
       <c r="A4" s="202">
         <v>3</v>
       </c>
       <c r="B4" s="203" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="203" t="s">
+        <v>354</v>
+      </c>
+      <c r="D4" s="200" t="s">
+        <v>455</v>
+      </c>
+      <c r="E4" s="200" t="s">
+        <v>443</v>
+      </c>
+      <c r="F4" s="246" t="s">
+        <v>501</v>
+      </c>
+      <c r="G4" s="246" t="s">
+        <v>542</v>
+      </c>
+      <c r="H4" s="204" t="s">
+        <v>251</v>
+      </c>
+      <c r="I4" s="204" t="s">
         <v>252</v>
       </c>
-      <c r="C4" s="203" t="s">
-        <v>356</v>
-      </c>
-      <c r="D4" s="200" t="s">
-        <v>457</v>
-      </c>
-      <c r="E4" s="200" t="s">
-        <v>445</v>
-      </c>
-      <c r="F4" s="246" t="s">
-        <v>503</v>
-      </c>
-      <c r="G4" s="246" t="s">
-        <v>544</v>
-      </c>
-      <c r="H4" s="204" t="s">
-        <v>253</v>
-      </c>
-      <c r="I4" s="204" t="s">
-        <v>254</v>
-      </c>
       <c r="K4" s="315" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L4" s="315" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M4" s="253" t="s">
+        <v>471</v>
+      </c>
+      <c r="N4" s="253" t="s">
         <v>473</v>
       </c>
-      <c r="N4" s="253" t="s">
-        <v>475</v>
-      </c>
       <c r="O4" s="253" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="P4" s="245" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="Q4" s="263" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="48" customFormat="1" ht="76.5">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="48" customFormat="1" ht="78">
       <c r="A5" s="202">
         <v>4</v>
       </c>
       <c r="B5" s="203" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="203" t="s">
+        <v>372</v>
+      </c>
+      <c r="D5" s="200" t="s">
+        <v>389</v>
+      </c>
+      <c r="E5" s="200" t="s">
+        <v>440</v>
+      </c>
+      <c r="F5" s="246" t="s">
+        <v>511</v>
+      </c>
+      <c r="G5" s="246" t="s">
+        <v>529</v>
+      </c>
+      <c r="H5" s="204" t="s">
+        <v>235</v>
+      </c>
+      <c r="I5" s="204" t="s">
         <v>236</v>
       </c>
-      <c r="C5" s="203" t="s">
-        <v>374</v>
-      </c>
-      <c r="D5" s="200" t="s">
-        <v>391</v>
-      </c>
-      <c r="E5" s="200" t="s">
-        <v>442</v>
-      </c>
-      <c r="F5" s="246" t="s">
-        <v>513</v>
-      </c>
-      <c r="G5" s="246" t="s">
-        <v>531</v>
-      </c>
-      <c r="H5" s="204" t="s">
-        <v>237</v>
-      </c>
-      <c r="I5" s="204" t="s">
-        <v>238</v>
-      </c>
       <c r="K5" s="315" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L5" s="315" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="M5" s="254" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="N5" s="254"/>
       <c r="O5" s="254"/>
@@ -4614,85 +4634,85 @@
         <v>5</v>
       </c>
       <c r="B6" s="205" t="s">
+        <v>401</v>
+      </c>
+      <c r="C6" s="205" t="s">
+        <v>425</v>
+      </c>
+      <c r="D6" s="206" t="s">
+        <v>519</v>
+      </c>
+      <c r="E6" s="206" t="s">
+        <v>451</v>
+      </c>
+      <c r="F6" s="247" t="s">
+        <v>520</v>
+      </c>
+      <c r="G6" s="247" t="s">
+        <v>538</v>
+      </c>
+      <c r="H6" s="204" t="s">
+        <v>402</v>
+      </c>
+      <c r="I6" s="234" t="s">
         <v>403</v>
       </c>
-      <c r="C6" s="205" t="s">
-        <v>427</v>
-      </c>
-      <c r="D6" s="206" t="s">
-        <v>521</v>
-      </c>
-      <c r="E6" s="206" t="s">
-        <v>453</v>
-      </c>
-      <c r="F6" s="247" t="s">
-        <v>522</v>
-      </c>
-      <c r="G6" s="247" t="s">
-        <v>540</v>
-      </c>
-      <c r="H6" s="204" t="s">
-        <v>404</v>
-      </c>
-      <c r="I6" s="234" t="s">
-        <v>405</v>
-      </c>
       <c r="J6" s="235" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K6" s="316" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L6" s="316" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M6" s="255" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N6" s="256" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O6" s="255"/>
     </row>
-    <row r="7" spans="1:17" s="48" customFormat="1" ht="89.25">
+    <row r="7" spans="1:17" s="48" customFormat="1" ht="91">
       <c r="A7" s="202">
         <v>6</v>
       </c>
       <c r="B7" s="203" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C7" s="203" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D7" s="200" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E7" s="200" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F7" s="246" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G7" s="246" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H7" s="204" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I7" s="204" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K7" s="315" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L7" s="315" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M7" s="253" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="N7" s="254" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="O7" s="254"/>
     </row>
@@ -4701,121 +4721,121 @@
         <v>7</v>
       </c>
       <c r="B8" s="203" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C8" s="203" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D8" s="200" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E8" s="206" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F8" s="247" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G8" s="247" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H8" s="204" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I8" s="204" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K8" s="315" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L8" s="315" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M8" s="254" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N8" s="257" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O8" s="254"/>
     </row>
-    <row r="9" spans="1:17" s="48" customFormat="1" ht="102">
+    <row r="9" spans="1:17" s="48" customFormat="1" ht="104">
       <c r="A9" s="202">
         <v>8</v>
       </c>
       <c r="B9" s="203" t="s">
+        <v>290</v>
+      </c>
+      <c r="C9" s="203" t="s">
+        <v>371</v>
+      </c>
+      <c r="D9" s="200" t="s">
+        <v>390</v>
+      </c>
+      <c r="E9" s="206" t="s">
+        <v>440</v>
+      </c>
+      <c r="F9" s="247" t="s">
+        <v>503</v>
+      </c>
+      <c r="G9" s="247" t="s">
+        <v>539</v>
+      </c>
+      <c r="H9" s="204" t="s">
+        <v>228</v>
+      </c>
+      <c r="I9" s="204" t="s">
         <v>292</v>
       </c>
-      <c r="C9" s="203" t="s">
-        <v>373</v>
-      </c>
-      <c r="D9" s="200" t="s">
-        <v>392</v>
-      </c>
-      <c r="E9" s="206" t="s">
-        <v>442</v>
-      </c>
-      <c r="F9" s="247" t="s">
-        <v>505</v>
-      </c>
-      <c r="G9" s="247" t="s">
-        <v>541</v>
-      </c>
-      <c r="H9" s="204" t="s">
-        <v>230</v>
-      </c>
-      <c r="I9" s="204" t="s">
-        <v>294</v>
-      </c>
       <c r="K9" s="315" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L9" s="315" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M9" s="254" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="N9" s="257" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="O9" s="254"/>
     </row>
-    <row r="10" spans="1:17" s="48" customFormat="1" ht="89.25">
+    <row r="10" spans="1:17" s="48" customFormat="1" ht="91">
       <c r="A10" s="202">
         <v>9</v>
       </c>
       <c r="B10" s="203" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" s="203" t="s">
+        <v>367</v>
+      </c>
+      <c r="D10" s="200" t="s">
+        <v>458</v>
+      </c>
+      <c r="E10" s="200" t="s">
+        <v>440</v>
+      </c>
+      <c r="F10" s="246" t="s">
+        <v>523</v>
+      </c>
+      <c r="G10" s="246" t="s">
+        <v>524</v>
+      </c>
+      <c r="H10" s="204" t="s">
+        <v>265</v>
+      </c>
+      <c r="I10" s="204" t="s">
         <v>266</v>
       </c>
-      <c r="C10" s="203" t="s">
-        <v>369</v>
-      </c>
-      <c r="D10" s="200" t="s">
-        <v>460</v>
-      </c>
-      <c r="E10" s="200" t="s">
-        <v>442</v>
-      </c>
-      <c r="F10" s="246" t="s">
-        <v>525</v>
-      </c>
-      <c r="G10" s="246" t="s">
-        <v>526</v>
-      </c>
-      <c r="H10" s="204" t="s">
-        <v>267</v>
-      </c>
-      <c r="I10" s="204" t="s">
-        <v>268</v>
-      </c>
       <c r="K10" s="315" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L10" s="315" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M10" s="254" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="N10" s="254"/>
       <c r="O10" s="254"/>
@@ -4825,122 +4845,122 @@
         <v>10</v>
       </c>
       <c r="B11" s="205" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" s="205" t="s">
+        <v>368</v>
+      </c>
+      <c r="D11" s="206" t="s">
+        <v>391</v>
+      </c>
+      <c r="E11" s="206" t="s">
+        <v>440</v>
+      </c>
+      <c r="F11" s="247" t="s">
+        <v>504</v>
+      </c>
+      <c r="G11" s="247" t="s">
+        <v>530</v>
+      </c>
+      <c r="H11" s="204" t="s">
+        <v>243</v>
+      </c>
+      <c r="I11" s="204" t="s">
         <v>244</v>
       </c>
-      <c r="C11" s="205" t="s">
-        <v>370</v>
-      </c>
-      <c r="D11" s="206" t="s">
-        <v>393</v>
-      </c>
-      <c r="E11" s="206" t="s">
-        <v>442</v>
-      </c>
-      <c r="F11" s="247" t="s">
-        <v>506</v>
-      </c>
-      <c r="G11" s="247" t="s">
-        <v>532</v>
-      </c>
-      <c r="H11" s="204" t="s">
-        <v>245</v>
-      </c>
-      <c r="I11" s="204" t="s">
-        <v>246</v>
-      </c>
       <c r="K11" s="315" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L11" s="315" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M11" s="254" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="N11" s="254" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="O11" s="254"/>
     </row>
-    <row r="12" spans="1:17" s="48" customFormat="1" ht="114.75">
+    <row r="12" spans="1:17" s="48" customFormat="1" ht="117">
       <c r="A12" s="202">
         <v>11</v>
       </c>
       <c r="B12" s="203" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C12" s="203" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D12" s="200" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E12" s="206" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F12" s="247" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G12" s="247" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H12" s="204" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I12" s="204" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K12" s="315" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L12" s="315" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M12" s="254" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="N12" s="254"/>
       <c r="O12" s="254"/>
     </row>
-    <row r="13" spans="1:17" s="48" customFormat="1" ht="153">
+    <row r="13" spans="1:17" s="48" customFormat="1" ht="156">
       <c r="A13" s="202">
         <v>12</v>
       </c>
       <c r="B13" s="203" t="s">
+        <v>237</v>
+      </c>
+      <c r="C13" s="203" t="s">
+        <v>360</v>
+      </c>
+      <c r="D13" s="200" t="s">
+        <v>393</v>
+      </c>
+      <c r="E13" s="206" t="s">
+        <v>442</v>
+      </c>
+      <c r="F13" s="247" t="s">
+        <v>508</v>
+      </c>
+      <c r="G13" s="247" t="s">
+        <v>532</v>
+      </c>
+      <c r="H13" s="204" t="s">
+        <v>238</v>
+      </c>
+      <c r="I13" s="204" t="s">
         <v>239</v>
       </c>
-      <c r="C13" s="203" t="s">
-        <v>362</v>
-      </c>
-      <c r="D13" s="200" t="s">
-        <v>395</v>
-      </c>
-      <c r="E13" s="206" t="s">
-        <v>444</v>
-      </c>
-      <c r="F13" s="247" t="s">
-        <v>510</v>
-      </c>
-      <c r="G13" s="247" t="s">
-        <v>534</v>
-      </c>
-      <c r="H13" s="204" t="s">
-        <v>240</v>
-      </c>
-      <c r="I13" s="204" t="s">
-        <v>241</v>
-      </c>
       <c r="K13" s="315" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L13" s="315" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M13" s="258" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="N13" s="254" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="O13" s="254"/>
     </row>
@@ -4949,238 +4969,238 @@
         <v>13</v>
       </c>
       <c r="B14" s="203" t="s">
+        <v>247</v>
+      </c>
+      <c r="C14" s="203" t="s">
+        <v>357</v>
+      </c>
+      <c r="D14" s="200" t="s">
+        <v>293</v>
+      </c>
+      <c r="E14" s="206" t="s">
+        <v>443</v>
+      </c>
+      <c r="F14" s="247" t="s">
+        <v>506</v>
+      </c>
+      <c r="G14" s="247" t="s">
+        <v>533</v>
+      </c>
+      <c r="H14" s="204" t="s">
+        <v>248</v>
+      </c>
+      <c r="I14" s="204" t="s">
         <v>249</v>
       </c>
-      <c r="C14" s="203" t="s">
-        <v>359</v>
-      </c>
-      <c r="D14" s="200" t="s">
-        <v>295</v>
-      </c>
-      <c r="E14" s="206" t="s">
-        <v>445</v>
-      </c>
-      <c r="F14" s="247" t="s">
-        <v>508</v>
-      </c>
-      <c r="G14" s="247" t="s">
-        <v>535</v>
-      </c>
-      <c r="H14" s="204" t="s">
-        <v>250</v>
-      </c>
-      <c r="I14" s="204" t="s">
-        <v>251</v>
-      </c>
       <c r="K14" s="315" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L14" s="315" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M14" s="254" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="N14" s="254" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="O14" s="254"/>
     </row>
-    <row r="15" spans="1:17" s="48" customFormat="1" ht="102">
+    <row r="15" spans="1:17" s="48" customFormat="1" ht="104">
       <c r="A15" s="202">
         <v>14</v>
       </c>
       <c r="B15" s="203" t="s">
+        <v>253</v>
+      </c>
+      <c r="C15" s="203" t="s">
+        <v>361</v>
+      </c>
+      <c r="D15" s="206" t="s">
+        <v>348</v>
+      </c>
+      <c r="E15" s="206" t="s">
+        <v>440</v>
+      </c>
+      <c r="F15" s="247" t="s">
+        <v>507</v>
+      </c>
+      <c r="G15" s="247" t="s">
+        <v>534</v>
+      </c>
+      <c r="H15" s="204" t="s">
+        <v>254</v>
+      </c>
+      <c r="I15" s="204" t="s">
         <v>255</v>
       </c>
-      <c r="C15" s="203" t="s">
-        <v>363</v>
-      </c>
-      <c r="D15" s="206" t="s">
-        <v>350</v>
-      </c>
-      <c r="E15" s="206" t="s">
-        <v>442</v>
-      </c>
-      <c r="F15" s="247" t="s">
-        <v>509</v>
-      </c>
-      <c r="G15" s="247" t="s">
-        <v>536</v>
-      </c>
-      <c r="H15" s="204" t="s">
-        <v>256</v>
-      </c>
-      <c r="I15" s="204" t="s">
-        <v>257</v>
-      </c>
       <c r="K15" s="315" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L15" s="315" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M15" s="254"/>
       <c r="N15" s="254"/>
       <c r="O15" s="254"/>
     </row>
-    <row r="16" spans="1:17" s="48" customFormat="1" ht="114.75">
+    <row r="16" spans="1:17" s="48" customFormat="1" ht="117">
       <c r="A16" s="202">
         <v>15</v>
       </c>
       <c r="B16" s="203" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" s="203" t="s">
+        <v>365</v>
+      </c>
+      <c r="D16" s="200" t="s">
+        <v>396</v>
+      </c>
+      <c r="E16" s="200" t="s">
+        <v>440</v>
+      </c>
+      <c r="F16" s="246" t="s">
+        <v>525</v>
+      </c>
+      <c r="G16" s="246" t="s">
+        <v>535</v>
+      </c>
+      <c r="H16" s="204" t="s">
+        <v>224</v>
+      </c>
+      <c r="I16" s="204" t="s">
         <v>225</v>
       </c>
-      <c r="C16" s="203" t="s">
-        <v>367</v>
-      </c>
-      <c r="D16" s="200" t="s">
-        <v>398</v>
-      </c>
-      <c r="E16" s="200" t="s">
-        <v>442</v>
-      </c>
-      <c r="F16" s="246" t="s">
-        <v>527</v>
-      </c>
-      <c r="G16" s="246" t="s">
-        <v>537</v>
-      </c>
-      <c r="H16" s="204" t="s">
-        <v>226</v>
-      </c>
-      <c r="I16" s="204" t="s">
-        <v>227</v>
-      </c>
       <c r="K16" s="315" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L16" s="315" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M16" s="254"/>
       <c r="N16" s="254"/>
       <c r="O16" s="254"/>
     </row>
-    <row r="17" spans="1:15" s="48" customFormat="1" ht="76.5">
+    <row r="17" spans="1:15" s="48" customFormat="1" ht="78">
       <c r="A17" s="202">
         <v>16</v>
       </c>
       <c r="B17" s="203" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C17" s="203" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D17" s="200" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E17" s="200" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F17" s="246" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G17" s="246" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H17" s="204" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I17" s="204" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K17" s="315" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L17" s="315" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M17" s="253" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N17" s="254" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="O17" s="254"/>
     </row>
-    <row r="18" spans="1:15" s="48" customFormat="1" ht="153">
+    <row r="18" spans="1:15" s="48" customFormat="1" ht="156">
       <c r="A18" s="202">
         <v>17</v>
       </c>
       <c r="B18" s="203" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C18" s="203" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D18" s="200" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E18" s="200" t="s">
+        <v>444</v>
+      </c>
+      <c r="F18" s="246" t="s">
+        <v>510</v>
+      </c>
+      <c r="G18" s="246" t="s">
+        <v>537</v>
+      </c>
+      <c r="H18" s="204" t="s">
+        <v>224</v>
+      </c>
+      <c r="I18" s="204" t="s">
+        <v>260</v>
+      </c>
+      <c r="K18" s="315" t="s">
         <v>446</v>
       </c>
-      <c r="F18" s="246" t="s">
-        <v>512</v>
-      </c>
-      <c r="G18" s="246" t="s">
-        <v>539</v>
-      </c>
-      <c r="H18" s="204" t="s">
-        <v>226</v>
-      </c>
-      <c r="I18" s="204" t="s">
-        <v>262</v>
-      </c>
-      <c r="K18" s="315" t="s">
-        <v>448</v>
-      </c>
       <c r="L18" s="315" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M18" s="254"/>
       <c r="N18" s="254"/>
       <c r="O18" s="254"/>
     </row>
-    <row r="19" spans="1:15" s="19" customFormat="1" ht="76.5">
+    <row r="19" spans="1:15" s="19" customFormat="1" ht="78">
       <c r="A19" s="207">
         <v>18</v>
       </c>
       <c r="B19" s="205" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C19" s="205" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D19" s="208" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E19" s="200" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F19" s="246" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G19" s="246" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H19" s="204" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I19" s="204" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K19" s="317" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L19" s="317" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M19" s="259" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="N19" s="260" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="O19" s="260"/>
     </row>
@@ -5189,40 +5209,40 @@
         <v>19</v>
       </c>
       <c r="B20" s="203" t="s">
+        <v>496</v>
+      </c>
+      <c r="C20" s="203" t="s">
+        <v>373</v>
+      </c>
+      <c r="D20" s="200" t="s">
+        <v>339</v>
+      </c>
+      <c r="E20" s="206" t="s">
+        <v>443</v>
+      </c>
+      <c r="F20" s="247" t="s">
         <v>498</v>
       </c>
-      <c r="C20" s="203" t="s">
-        <v>375</v>
-      </c>
-      <c r="D20" s="200" t="s">
-        <v>341</v>
-      </c>
-      <c r="E20" s="206" t="s">
-        <v>445</v>
-      </c>
-      <c r="F20" s="247" t="s">
-        <v>500</v>
-      </c>
       <c r="G20" s="247" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H20" s="204" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I20" s="204" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K20" s="315" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L20" s="317" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="M20" s="260" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="N20" s="259" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="86.25" customHeight="1">
@@ -5230,113 +5250,113 @@
         <v>20</v>
       </c>
       <c r="B21" s="210" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C21" s="210" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D21" s="211" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E21" s="206" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F21" s="248" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G21" s="248" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H21" s="212" t="s">
+        <v>277</v>
+      </c>
+      <c r="I21" s="212" t="s">
         <v>279</v>
       </c>
-      <c r="I21" s="212" t="s">
-        <v>281</v>
-      </c>
       <c r="K21" s="315" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L21" s="317" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="M21" s="260" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="204.75">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="201.5">
       <c r="A22" s="202">
         <v>21</v>
       </c>
       <c r="B22" s="203" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C22" s="203" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D22" s="200" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E22" s="206" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F22" s="247" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G22" s="247" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H22" s="204" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I22" s="204" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K22" s="315" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L22" s="317" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="M22" s="261" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="102">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="104">
       <c r="A23" s="202">
         <v>22</v>
       </c>
       <c r="B23" s="203" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="203" t="s">
+        <v>362</v>
+      </c>
+      <c r="D23" s="200" t="s">
+        <v>347</v>
+      </c>
+      <c r="E23" s="200" t="s">
+        <v>440</v>
+      </c>
+      <c r="F23" s="246" t="s">
+        <v>512</v>
+      </c>
+      <c r="G23" s="246" t="s">
+        <v>524</v>
+      </c>
+      <c r="H23" s="204" t="s">
+        <v>262</v>
+      </c>
+      <c r="I23" s="204" t="s">
         <v>263</v>
       </c>
-      <c r="C23" s="203" t="s">
-        <v>364</v>
-      </c>
-      <c r="D23" s="200" t="s">
-        <v>349</v>
-      </c>
-      <c r="E23" s="200" t="s">
-        <v>442</v>
-      </c>
-      <c r="F23" s="246" t="s">
-        <v>514</v>
-      </c>
-      <c r="G23" s="246" t="s">
-        <v>526</v>
-      </c>
-      <c r="H23" s="204" t="s">
-        <v>264</v>
-      </c>
-      <c r="I23" s="204" t="s">
-        <v>265</v>
-      </c>
       <c r="K23" s="315" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L23" s="317" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M23" s="260" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="180" customFormat="1">
@@ -7768,21 +7788,21 @@
   <dimension ref="A1:CP128"/>
   <sheetViews>
     <sheetView topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G112" sqref="G112:H112"/>
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.58203125" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="70.875" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="264"/>
-    <col min="6" max="15" width="8.875" style="3"/>
-    <col min="16" max="16" width="8.875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="8.875" style="3"/>
-    <col min="18" max="18" width="8.875" style="3" customWidth="1"/>
-    <col min="19" max="94" width="8.875" style="3"/>
+    <col min="4" max="4" width="70.83203125" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="264"/>
+    <col min="6" max="15" width="8.83203125" style="3"/>
+    <col min="16" max="16" width="8.83203125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="8.83203125" style="3"/>
+    <col min="18" max="18" width="8.83203125" style="3" customWidth="1"/>
+    <col min="19" max="94" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94">
@@ -7807,7 +7827,7 @@
         <v>82</v>
       </c>
       <c r="C2" s="181" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D2" s="185"/>
     </row>
@@ -8235,7 +8255,7 @@
         <v>124</v>
       </c>
       <c r="C7" s="153" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D7" s="152" t="s">
         <v>125</v>
@@ -8444,12 +8464,12 @@
         <v>3</v>
       </c>
       <c r="B9" s="152" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C9" s="153"/>
       <c r="D9" s="152"/>
       <c r="E9" s="265" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
@@ -8650,13 +8670,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="114" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C11" s="135">
         <v>73700</v>
       </c>
       <c r="D11" s="114" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E11" s="264"/>
       <c r="F11" s="3"/>
@@ -8679,13 +8699,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="114" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C12" s="135">
         <v>73701</v>
       </c>
       <c r="D12" s="114" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E12" s="264"/>
       <c r="F12" s="3"/>
@@ -8708,13 +8728,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="114" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C13" s="135">
         <v>73702</v>
       </c>
       <c r="D13" s="114" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E13" s="264"/>
       <c r="F13" s="3"/>
@@ -8737,13 +8757,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="114" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C14" s="135">
         <v>73718</v>
       </c>
       <c r="D14" s="114" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E14" s="264"/>
       <c r="F14" s="3"/>
@@ -14902,7 +14922,7 @@
         <v>14</v>
       </c>
       <c r="B74" s="119" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C74" s="126">
         <v>82378</v>
@@ -14917,7 +14937,7 @@
         <v>14</v>
       </c>
       <c r="B75" s="119" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C75" s="126">
         <v>86300</v>
@@ -14932,13 +14952,13 @@
         <v>15</v>
       </c>
       <c r="B76" s="166" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C76" s="129">
         <v>22558</v>
       </c>
       <c r="D76" s="130" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E76" s="264"/>
     </row>
@@ -14947,13 +14967,13 @@
         <v>15</v>
       </c>
       <c r="B77" s="166" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C77" s="129">
         <v>22585</v>
       </c>
       <c r="D77" s="130" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E77" s="264"/>
       <c r="F77" s="3"/>
@@ -15051,13 +15071,13 @@
         <v>15</v>
       </c>
       <c r="B78" s="166" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C78" s="129">
         <v>22612</v>
       </c>
       <c r="D78" s="130" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E78" s="264"/>
       <c r="F78" s="3"/>
@@ -15155,13 +15175,13 @@
         <v>15</v>
       </c>
       <c r="B79" s="166" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C79" s="129">
         <v>22614</v>
       </c>
       <c r="D79" s="130" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E79" s="264"/>
       <c r="F79" s="3"/>
@@ -15259,13 +15279,13 @@
         <v>15</v>
       </c>
       <c r="B80" s="166" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C80" s="129">
         <v>22630</v>
       </c>
       <c r="D80" s="130" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E80" s="264"/>
       <c r="F80" s="3"/>
@@ -15363,13 +15383,13 @@
         <v>15</v>
       </c>
       <c r="B81" s="166" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C81" s="129">
         <v>22632</v>
       </c>
       <c r="D81" s="130" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E81" s="264"/>
       <c r="F81" s="3"/>
@@ -15467,13 +15487,13 @@
         <v>15</v>
       </c>
       <c r="B82" s="166" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C82" s="129">
         <v>22633</v>
       </c>
       <c r="D82" s="130" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E82" s="264"/>
       <c r="F82" s="3"/>
@@ -15571,13 +15591,13 @@
         <v>15</v>
       </c>
       <c r="B83" s="166" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C83" s="129">
         <v>22634</v>
       </c>
       <c r="D83" s="130" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E83" s="264"/>
       <c r="F83" s="3"/>
@@ -15675,13 +15695,13 @@
         <v>15</v>
       </c>
       <c r="B84" s="166" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C84" s="129">
         <v>22699</v>
       </c>
       <c r="D84" s="130" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E84" s="264"/>
       <c r="F84" s="3"/>
@@ -15779,13 +15799,13 @@
         <v>15</v>
       </c>
       <c r="B85" s="166" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C85" s="129">
         <v>63005</v>
       </c>
       <c r="D85" s="130" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E85" s="264"/>
       <c r="F85" s="3"/>
@@ -15883,13 +15903,13 @@
         <v>15</v>
       </c>
       <c r="B86" s="166" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C86" s="129">
         <v>63017</v>
       </c>
       <c r="D86" s="130" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E86" s="264"/>
       <c r="F86" s="3"/>
@@ -15987,13 +16007,13 @@
         <v>15</v>
       </c>
       <c r="B87" s="166" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C87" s="129">
         <v>63030</v>
       </c>
       <c r="D87" s="130" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E87" s="264"/>
       <c r="F87" s="3"/>
@@ -16091,13 +16111,13 @@
         <v>15</v>
       </c>
       <c r="B88" s="166" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C88" s="129" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D88" s="130" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E88" s="264"/>
       <c r="F88" s="3"/>
@@ -16308,7 +16328,7 @@
         <v>117</v>
       </c>
       <c r="E90" s="264" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
@@ -16414,7 +16434,7 @@
         <v>119</v>
       </c>
       <c r="E91" s="264" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
@@ -16679,13 +16699,13 @@
         <v>18</v>
       </c>
       <c r="B104" s="114" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C104" s="327">
         <v>27447</v>
       </c>
       <c r="D104" s="114" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="105" spans="1:93" s="21" customFormat="1">
@@ -16693,13 +16713,13 @@
         <v>19</v>
       </c>
       <c r="B105" s="159" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C105" s="156" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D105" s="159" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E105" s="264"/>
       <c r="F105" s="3"/>
@@ -16796,13 +16816,13 @@
         <v>19</v>
       </c>
       <c r="B106" s="159" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C106" s="156" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D106" s="159" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E106" s="264"/>
       <c r="F106" s="3"/>
@@ -16899,13 +16919,13 @@
         <v>19</v>
       </c>
       <c r="B107" s="159" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C107" s="156" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D107" s="159" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E107" s="264"/>
       <c r="F107" s="3"/>
@@ -16997,18 +17017,18 @@
       <c r="CN107" s="3"/>
       <c r="CO107" s="3"/>
     </row>
-    <row r="108" spans="1:93" s="58" customFormat="1" ht="12.75">
+    <row r="108" spans="1:93" s="58" customFormat="1" ht="13">
       <c r="A108" s="156">
         <v>19</v>
       </c>
       <c r="B108" s="159" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C108" s="156" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D108" s="171" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E108" s="266"/>
       <c r="F108" s="59"/>
@@ -17105,13 +17125,13 @@
         <v>20</v>
       </c>
       <c r="B109" s="98" t="s">
+        <v>318</v>
+      </c>
+      <c r="C109" s="173" t="s">
         <v>320</v>
       </c>
-      <c r="C109" s="173" t="s">
-        <v>322</v>
-      </c>
       <c r="D109" s="98" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="110" spans="1:93">
@@ -17119,13 +17139,13 @@
         <v>20</v>
       </c>
       <c r="B110" s="98" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C110" s="172">
         <v>77067</v>
       </c>
       <c r="D110" s="98" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E110" s="250"/>
       <c r="F110" s="180"/>
@@ -17173,13 +17193,13 @@
         <v>20</v>
       </c>
       <c r="B111" s="98" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C111" s="172">
         <v>77063</v>
       </c>
       <c r="D111" s="98" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E111" s="250"/>
       <c r="F111" s="180"/>
@@ -17227,13 +17247,13 @@
         <v>21</v>
       </c>
       <c r="B112" s="174" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C112" s="162" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D112" s="137" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E112" s="267"/>
       <c r="F112" s="182"/>
@@ -17330,13 +17350,13 @@
         <v>21</v>
       </c>
       <c r="B113" s="137" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C113" s="162" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D113" s="137" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E113" s="267"/>
       <c r="F113" s="182"/>
@@ -17433,13 +17453,13 @@
         <v>21</v>
       </c>
       <c r="B114" s="137" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C114" s="162" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D114" s="137" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E114" s="250"/>
       <c r="F114" s="180"/>
@@ -17487,13 +17507,13 @@
         <v>21</v>
       </c>
       <c r="B115" s="137" t="s">
+        <v>333</v>
+      </c>
+      <c r="C115" s="162" t="s">
+        <v>344</v>
+      </c>
+      <c r="D115" s="137" t="s">
         <v>335</v>
-      </c>
-      <c r="C115" s="162" t="s">
-        <v>346</v>
-      </c>
-      <c r="D115" s="137" t="s">
-        <v>337</v>
       </c>
       <c r="E115" s="250"/>
       <c r="F115" s="180"/>
@@ -17541,13 +17561,13 @@
         <v>21</v>
       </c>
       <c r="B116" s="137" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C116" s="162">
         <v>88305</v>
       </c>
       <c r="D116" s="137" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E116" s="250"/>
       <c r="F116" s="180"/>
@@ -17595,13 +17615,13 @@
         <v>21</v>
       </c>
       <c r="B117" s="137" t="s">
+        <v>333</v>
+      </c>
+      <c r="C117" s="162" t="s">
+        <v>334</v>
+      </c>
+      <c r="D117" s="137" t="s">
         <v>335</v>
-      </c>
-      <c r="C117" s="162" t="s">
-        <v>336</v>
-      </c>
-      <c r="D117" s="137" t="s">
-        <v>337</v>
       </c>
       <c r="E117" s="250"/>
       <c r="F117" s="180"/>
@@ -17811,10 +17831,10 @@
         <v>12</v>
       </c>
       <c r="C121" s="240" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E121" s="250" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F121" s="180"/>
       <c r="G121" s="180"/>
@@ -17861,10 +17881,10 @@
         <v>3</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E122" s="250" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F122" s="180"/>
       <c r="G122" s="180"/>
@@ -18175,17 +18195,17 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="33.08203125" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.08203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="50.5" customWidth="1"/>
-    <col min="7" max="22" width="33.125" style="3"/>
+    <col min="7" max="22" width="33.08203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" s="48" customFormat="1" ht="12.75">
+    <row r="1" spans="1:96" s="48" customFormat="1" ht="13.5">
       <c r="A1" s="138" t="s">
         <v>0</v>
       </c>
@@ -18193,10 +18213,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="140" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D1" s="140" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E1" s="141" t="s">
         <v>50</v>
@@ -18295,7 +18315,7 @@
       <c r="CQ1" s="44"/>
       <c r="CR1" s="44"/>
     </row>
-    <row r="2" spans="1:96" s="24" customFormat="1" ht="31.5">
+    <row r="2" spans="1:96" s="24" customFormat="1" ht="31">
       <c r="A2" s="143">
         <v>10</v>
       </c>
@@ -18304,7 +18324,7 @@
       </c>
       <c r="C2" s="145"/>
       <c r="D2" s="145" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E2" s="145" t="s">
         <v>111</v>
@@ -18412,7 +18432,7 @@
       </c>
       <c r="C3" s="145"/>
       <c r="D3" s="145" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E3" s="145" t="s">
         <v>113</v>
@@ -18516,17 +18536,17 @@
         <v>14</v>
       </c>
       <c r="B4" s="148" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C4" s="147" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="147"/>
       <c r="E4" s="147" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F4" s="148" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -18550,17 +18570,17 @@
         <v>14</v>
       </c>
       <c r="B5" s="148" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C5" s="147" t="s">
         <v>48</v>
       </c>
       <c r="D5" s="147"/>
       <c r="E5" s="147" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F5" s="148" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -18584,7 +18604,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="148" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C6" s="147" t="s">
         <v>48</v>
@@ -18594,7 +18614,7 @@
         <v>19200</v>
       </c>
       <c r="F6" s="148" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -18618,7 +18638,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="148" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C7" s="147" t="s">
         <v>48</v>
@@ -18628,7 +18648,7 @@
         <v>19220</v>
       </c>
       <c r="F7" s="148" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -18652,7 +18672,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="148" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C8" s="147" t="s">
         <v>48</v>
@@ -18662,7 +18682,7 @@
         <v>19240</v>
       </c>
       <c r="F8" s="148" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -18686,17 +18706,17 @@
         <v>14</v>
       </c>
       <c r="B9" s="148" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C9" s="147" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="147"/>
       <c r="E9" s="147" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F9" s="148" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -18720,17 +18740,17 @@
         <v>14</v>
       </c>
       <c r="B10" s="148" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C10" s="147" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="147"/>
       <c r="E10" s="147" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F10" s="148" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -18754,7 +18774,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="148" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C11" s="147" t="s">
         <v>48</v>
@@ -18764,7 +18784,7 @@
         <v>19357</v>
       </c>
       <c r="F11" s="148" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -18788,7 +18808,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="148" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C12" s="147" t="s">
         <v>48</v>
@@ -18798,7 +18818,7 @@
         <v>19361</v>
       </c>
       <c r="F12" s="148" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -18822,17 +18842,17 @@
         <v>14</v>
       </c>
       <c r="B13" s="148" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C13" s="147" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="147"/>
       <c r="E13" s="147" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F13" s="148" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -18860,15 +18880,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DQ167"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="A151" sqref="A151"/>
+    <sheetView topLeftCell="B134" workbookViewId="0">
+      <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.875" style="48" customWidth="1"/>
-    <col min="3" max="3" width="88.875" style="48" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" style="48" customWidth="1"/>
+    <col min="3" max="3" width="88.83203125" style="48" customWidth="1"/>
     <col min="4" max="4" width="13" style="44" customWidth="1"/>
     <col min="5" max="121" width="11" style="44"/>
     <col min="122" max="16384" width="11" style="48"/>
@@ -18882,10 +18902,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="101" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E1" s="42"/>
       <c r="F1" s="42"/>
@@ -19013,7 +19033,7 @@
         <v>124</v>
       </c>
       <c r="C2" s="226" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D2" s="44" t="str">
         <f>LEFT(C2,7)</f>
@@ -19142,10 +19162,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="228" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C3" s="229" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D3" s="44" t="str">
         <f>LEFT(C3,4)</f>
@@ -19157,10 +19177,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="228" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C4" s="229" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D4" s="44" t="str">
         <f t="shared" ref="D4:D16" si="0">LEFT(C4,4)</f>
@@ -19172,10 +19192,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="228" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C5" s="229" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D5" s="44" t="str">
         <f t="shared" si="0"/>
@@ -19187,10 +19207,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="228" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C6" s="229" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D6" s="44" t="str">
         <f t="shared" si="0"/>
@@ -19202,10 +19222,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="228" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C7" s="229" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D7" s="44" t="str">
         <f t="shared" si="0"/>
@@ -19217,10 +19237,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="228" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C8" s="229" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D8" s="44" t="str">
         <f t="shared" si="0"/>
@@ -19232,10 +19252,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="231" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C9" s="229" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D9" s="44" t="str">
         <f t="shared" si="0"/>
@@ -19247,10 +19267,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="228" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C10" s="229" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D10" s="44" t="str">
         <f t="shared" si="0"/>
@@ -19265,7 +19285,7 @@
         <v>94</v>
       </c>
       <c r="C11" s="229" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D11" s="44" t="str">
         <f t="shared" si="0"/>
@@ -19280,7 +19300,7 @@
         <v>94</v>
       </c>
       <c r="C12" s="229" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D12" s="44" t="str">
         <f t="shared" si="0"/>
@@ -19295,7 +19315,7 @@
         <v>94</v>
       </c>
       <c r="C13" s="229" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D13" s="44" t="str">
         <f t="shared" si="0"/>
@@ -19310,7 +19330,7 @@
         <v>94</v>
       </c>
       <c r="C14" s="229" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D14" s="44" t="str">
         <f t="shared" si="0"/>
@@ -19325,7 +19345,7 @@
         <v>94</v>
       </c>
       <c r="C15" s="229" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D15" s="44" t="str">
         <f t="shared" si="0"/>
@@ -19340,7 +19360,7 @@
         <v>94</v>
       </c>
       <c r="C16" s="229" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D16" s="44" t="str">
         <f t="shared" si="0"/>
@@ -19355,7 +19375,7 @@
         <v>94</v>
       </c>
       <c r="C17" s="104" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D17" s="44" t="str">
         <f t="shared" ref="D17:D80" si="1">LEFT(C17,7)</f>
@@ -19487,7 +19507,7 @@
         <v>94</v>
       </c>
       <c r="C18" s="104" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D18" s="44" t="str">
         <f t="shared" si="1"/>
@@ -19619,7 +19639,7 @@
         <v>94</v>
       </c>
       <c r="C19" s="104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D19" s="44" t="str">
         <f t="shared" si="1"/>
@@ -19751,7 +19771,7 @@
         <v>79</v>
       </c>
       <c r="C20" s="107" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D20" s="44" t="str">
         <f t="shared" si="1"/>
@@ -19883,7 +19903,7 @@
         <v>79</v>
       </c>
       <c r="C21" s="107" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D21" s="44" t="str">
         <f t="shared" si="1"/>
@@ -20015,7 +20035,7 @@
         <v>79</v>
       </c>
       <c r="C22" s="107" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D22" s="44" t="str">
         <f t="shared" si="1"/>
@@ -20147,7 +20167,7 @@
         <v>79</v>
       </c>
       <c r="C23" s="107" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D23" s="44" t="str">
         <f t="shared" si="1"/>
@@ -20279,7 +20299,7 @@
         <v>79</v>
       </c>
       <c r="C24" s="107" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D24" s="44" t="str">
         <f t="shared" si="1"/>
@@ -20411,7 +20431,7 @@
         <v>79</v>
       </c>
       <c r="C25" s="107" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D25" s="44" t="str">
         <f t="shared" si="1"/>
@@ -20543,7 +20563,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="107" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D26" s="44" t="str">
         <f t="shared" si="1"/>
@@ -20675,7 +20695,7 @@
         <v>79</v>
       </c>
       <c r="C27" s="107" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D27" s="44" t="str">
         <f t="shared" si="1"/>
@@ -20807,7 +20827,7 @@
         <v>79</v>
       </c>
       <c r="C28" s="107" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D28" s="44" t="str">
         <f t="shared" si="1"/>
@@ -20939,7 +20959,7 @@
         <v>79</v>
       </c>
       <c r="C29" s="107" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D29" s="44" t="str">
         <f t="shared" si="1"/>
@@ -21071,7 +21091,7 @@
         <v>144</v>
       </c>
       <c r="C30" s="109" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D30" s="44" t="str">
         <f t="shared" si="1"/>
@@ -21203,7 +21223,7 @@
         <v>144</v>
       </c>
       <c r="C31" s="109" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D31" s="44" t="str">
         <f t="shared" si="1"/>
@@ -21335,7 +21355,7 @@
         <v>144</v>
       </c>
       <c r="C32" s="109" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D32" s="44" t="str">
         <f t="shared" si="1"/>
@@ -21467,7 +21487,7 @@
         <v>144</v>
       </c>
       <c r="C33" s="109" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D33" s="44" t="str">
         <f t="shared" si="1"/>
@@ -21599,7 +21619,7 @@
         <v>140</v>
       </c>
       <c r="C34" s="111" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D34" s="44" t="str">
         <f t="shared" si="1"/>
@@ -21731,7 +21751,7 @@
         <v>140</v>
       </c>
       <c r="C35" s="111" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D35" s="44" t="str">
         <f t="shared" si="1"/>
@@ -21863,7 +21883,7 @@
         <v>140</v>
       </c>
       <c r="C36" s="111" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D36" s="44" t="str">
         <f t="shared" si="1"/>
@@ -21995,7 +22015,7 @@
         <v>98</v>
       </c>
       <c r="C37" s="114" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D37" s="44" t="str">
         <f t="shared" si="1"/>
@@ -22127,7 +22147,7 @@
         <v>101</v>
       </c>
       <c r="C38" s="114" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D38" s="44" t="str">
         <f t="shared" si="1"/>
@@ -22259,7 +22279,7 @@
         <v>101</v>
       </c>
       <c r="C39" s="114" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D39" s="44" t="str">
         <f t="shared" si="1"/>
@@ -22391,7 +22411,7 @@
         <v>101</v>
       </c>
       <c r="C40" s="114" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D40" s="44" t="str">
         <f t="shared" si="1"/>
@@ -22523,7 +22543,7 @@
         <v>101</v>
       </c>
       <c r="C41" s="114" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D41" s="44" t="str">
         <f t="shared" si="1"/>
@@ -22655,7 +22675,7 @@
         <v>101</v>
       </c>
       <c r="C42" s="114" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D42" s="44" t="str">
         <f t="shared" si="1"/>
@@ -22787,7 +22807,7 @@
         <v>101</v>
       </c>
       <c r="C43" s="114" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D43" s="44" t="str">
         <f t="shared" si="1"/>
@@ -22919,7 +22939,7 @@
         <v>101</v>
       </c>
       <c r="C44" s="114" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D44" s="44" t="str">
         <f t="shared" si="1"/>
@@ -23051,7 +23071,7 @@
         <v>105</v>
       </c>
       <c r="C45" s="114" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D45" s="44" t="str">
         <f t="shared" si="1"/>
@@ -25073,7 +25093,7 @@
         <v>120</v>
       </c>
       <c r="C94" s="125" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D94" s="44" t="str">
         <f t="shared" si="2"/>
@@ -25088,7 +25108,7 @@
         <v>120</v>
       </c>
       <c r="C95" s="125" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D95" s="44" t="str">
         <f t="shared" si="2"/>
@@ -25103,7 +25123,7 @@
         <v>120</v>
       </c>
       <c r="C96" s="125" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D96" s="44" t="str">
         <f t="shared" si="2"/>
@@ -25118,7 +25138,7 @@
         <v>120</v>
       </c>
       <c r="C97" s="125" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D97" s="44" t="str">
         <f t="shared" si="2"/>
@@ -25130,10 +25150,10 @@
         <v>14</v>
       </c>
       <c r="B98" s="127" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C98" s="119" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D98" s="44" t="str">
         <f>LEFT(C98,4)</f>
@@ -25262,10 +25282,10 @@
         <v>14</v>
       </c>
       <c r="B99" s="127" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C99" s="119" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D99" s="44" t="str">
         <f>LEFT(C99,4)</f>
@@ -25394,7 +25414,7 @@
         <v>14</v>
       </c>
       <c r="B100" s="119" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C100" s="128"/>
       <c r="D100" s="44" t="str">
@@ -25524,10 +25544,10 @@
         <v>15</v>
       </c>
       <c r="B101" s="130" t="s">
+        <v>309</v>
+      </c>
+      <c r="C101" s="131" t="s">
         <v>311</v>
-      </c>
-      <c r="C101" s="131" t="s">
-        <v>313</v>
       </c>
       <c r="D101" s="44" t="str">
         <f t="shared" si="2"/>
@@ -25539,10 +25559,10 @@
         <v>15</v>
       </c>
       <c r="B102" s="130" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C102" s="132" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D102" s="44" t="str">
         <f>LEFT(C102,4)</f>
@@ -25630,7 +25650,7 @@
         <v>115</v>
       </c>
       <c r="C103" s="111" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D103" s="44" t="str">
         <f t="shared" si="2"/>
@@ -25762,7 +25782,7 @@
         <v>115</v>
       </c>
       <c r="C104" s="111" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D104" s="44" t="str">
         <f t="shared" si="2"/>
@@ -25894,7 +25914,7 @@
         <v>132</v>
       </c>
       <c r="C105" s="134" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D105" s="44" t="str">
         <f t="shared" si="2"/>
@@ -26026,7 +26046,7 @@
         <v>132</v>
       </c>
       <c r="C106" s="134" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D106" s="44" t="str">
         <f t="shared" si="2"/>
@@ -26158,7 +26178,7 @@
         <v>132</v>
       </c>
       <c r="C107" s="134" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D107" s="44" t="str">
         <f t="shared" si="2"/>
@@ -26282,19 +26302,19 @@
       <c r="DP107" s="44"/>
       <c r="DQ107" s="44"/>
     </row>
-    <row r="108" spans="1:121" s="56" customFormat="1" ht="20.25" customHeight="1">
+    <row r="108" spans="1:121" s="56" customFormat="1" ht="30.5" customHeight="1">
       <c r="A108" s="135">
         <v>18</v>
       </c>
       <c r="B108" s="136" t="s">
         <v>174</v>
       </c>
-      <c r="C108" s="325" t="s">
-        <v>177</v>
+      <c r="C108" s="329" t="s">
+        <v>587</v>
       </c>
       <c r="D108" s="44" t="str">
         <f t="shared" si="2"/>
-        <v>OSBC4ZZ</v>
+        <v>0SBC4ZZ</v>
       </c>
       <c r="E108" s="44"/>
       <c r="F108" s="44"/>
@@ -26422,11 +26442,11 @@
         <v>174</v>
       </c>
       <c r="C109" s="325" t="s">
-        <v>176</v>
+        <v>588</v>
       </c>
       <c r="D109" s="44" t="str">
         <f t="shared" si="2"/>
-        <v>OSBD4ZZ</v>
+        <v>0SBD4ZZ</v>
       </c>
       <c r="E109" s="179"/>
       <c r="F109" s="179"/>
@@ -26551,14 +26571,14 @@
         <v>18</v>
       </c>
       <c r="B110" s="136" t="s">
-        <v>584</v>
-      </c>
-      <c r="C110" s="326" t="s">
-        <v>554</v>
+        <v>582</v>
+      </c>
+      <c r="C110" s="328" t="s">
+        <v>589</v>
       </c>
       <c r="D110" s="44" t="str">
         <f t="shared" si="2"/>
-        <v> 0SRC06</v>
+        <v>0SRC069</v>
       </c>
       <c r="E110" s="179"/>
       <c r="F110" s="179"/>
@@ -26683,10 +26703,10 @@
         <v>18</v>
       </c>
       <c r="B111" s="136" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C111" s="326" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D111" s="44" t="str">
         <f t="shared" si="2"/>
@@ -26815,10 +26835,10 @@
         <v>18</v>
       </c>
       <c r="B112" s="136" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C112" s="326" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D112" s="44" t="str">
         <f t="shared" si="2"/>
@@ -26947,10 +26967,10 @@
         <v>18</v>
       </c>
       <c r="B113" s="136" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C113" s="326" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D113" s="44" t="str">
         <f t="shared" si="2"/>
@@ -27079,10 +27099,10 @@
         <v>18</v>
       </c>
       <c r="B114" s="136" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C114" s="326" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D114" s="44" t="str">
         <f t="shared" si="2"/>
@@ -27211,10 +27231,10 @@
         <v>18</v>
       </c>
       <c r="B115" s="136" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C115" s="326" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D115" s="44" t="str">
         <f t="shared" si="2"/>
@@ -27343,10 +27363,10 @@
         <v>18</v>
       </c>
       <c r="B116" s="136" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C116" s="326" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D116" s="44" t="str">
         <f t="shared" si="2"/>
@@ -27475,10 +27495,10 @@
         <v>18</v>
       </c>
       <c r="B117" s="136" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C117" s="326" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D117" s="44" t="str">
         <f t="shared" si="2"/>
@@ -27607,10 +27627,10 @@
         <v>18</v>
       </c>
       <c r="B118" s="136" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C118" s="326" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D118" s="44" t="str">
         <f t="shared" si="2"/>
@@ -27739,10 +27759,10 @@
         <v>18</v>
       </c>
       <c r="B119" s="136" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C119" s="326" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D119" s="44" t="str">
         <f t="shared" si="2"/>
@@ -27871,10 +27891,10 @@
         <v>18</v>
       </c>
       <c r="B120" s="136" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C120" s="326" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D120" s="44" t="str">
         <f t="shared" si="2"/>
@@ -28003,10 +28023,10 @@
         <v>18</v>
       </c>
       <c r="B121" s="136" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C121" s="326" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D121" s="44" t="str">
         <f t="shared" si="2"/>
@@ -28135,10 +28155,10 @@
         <v>18</v>
       </c>
       <c r="B122" s="136" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C122" s="326" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D122" s="44" t="str">
         <f t="shared" si="2"/>
@@ -28267,10 +28287,10 @@
         <v>18</v>
       </c>
       <c r="B123" s="136" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C123" s="326" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D123" s="44" t="str">
         <f t="shared" si="2"/>
@@ -28399,10 +28419,10 @@
         <v>18</v>
       </c>
       <c r="B124" s="136" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C124" s="326" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D124" s="44" t="str">
         <f t="shared" si="2"/>
@@ -28531,10 +28551,10 @@
         <v>18</v>
       </c>
       <c r="B125" s="136" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C125" s="326" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D125" s="44" t="str">
         <f t="shared" si="2"/>
@@ -28663,10 +28683,10 @@
         <v>18</v>
       </c>
       <c r="B126" s="136" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C126" s="326" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D126" s="44" t="str">
         <f t="shared" si="2"/>
@@ -28795,10 +28815,10 @@
         <v>18</v>
       </c>
       <c r="B127" s="136" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C127" s="326" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D127" s="44" t="str">
         <f t="shared" si="2"/>
@@ -28927,10 +28947,10 @@
         <v>18</v>
       </c>
       <c r="B128" s="136" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C128" s="326" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D128" s="44" t="str">
         <f t="shared" si="2"/>
@@ -29059,10 +29079,10 @@
         <v>18</v>
       </c>
       <c r="B129" s="136" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C129" s="326" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D129" s="44" t="str">
         <f t="shared" si="2"/>
@@ -29191,10 +29211,10 @@
         <v>18</v>
       </c>
       <c r="B130" s="136" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C130" s="326" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D130" s="44" t="str">
         <f t="shared" si="2"/>
@@ -29323,10 +29343,10 @@
         <v>18</v>
       </c>
       <c r="B131" s="136" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C131" s="326" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D131" s="44" t="str">
         <f t="shared" si="2"/>
@@ -29455,10 +29475,10 @@
         <v>18</v>
       </c>
       <c r="B132" s="136" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C132" s="326" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D132" s="44" t="str">
         <f t="shared" si="2"/>
@@ -29587,10 +29607,10 @@
         <v>18</v>
       </c>
       <c r="B133" s="136" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C133" s="326" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D133" s="44" t="str">
         <f t="shared" si="2"/>
@@ -29719,10 +29739,10 @@
         <v>18</v>
       </c>
       <c r="B134" s="136" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C134" s="326" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D134" s="44" t="str">
         <f t="shared" si="2"/>
@@ -29851,10 +29871,10 @@
         <v>18</v>
       </c>
       <c r="B135" s="136" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C135" s="326" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D135" s="44" t="str">
         <f t="shared" si="2"/>
@@ -29983,10 +30003,10 @@
         <v>18</v>
       </c>
       <c r="B136" s="136" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C136" s="326" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D136" s="44" t="str">
         <f t="shared" si="2"/>
@@ -30115,10 +30135,10 @@
         <v>18</v>
       </c>
       <c r="B137" s="136" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C137" s="326" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D137" s="44" t="str">
         <f t="shared" si="2"/>
@@ -30247,10 +30267,10 @@
         <v>18</v>
       </c>
       <c r="B138" s="136" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C138" s="326" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D138" s="44" t="str">
         <f t="shared" si="2"/>
@@ -30379,10 +30399,10 @@
         <v>18</v>
       </c>
       <c r="B139" s="136" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C139" s="326" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D139" s="44" t="str">
         <f t="shared" si="2"/>
@@ -30511,10 +30531,10 @@
         <v>18</v>
       </c>
       <c r="B140" s="136" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C140" s="326" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D140" s="44" t="str">
         <f t="shared" si="2"/>
@@ -30643,10 +30663,10 @@
         <v>18</v>
       </c>
       <c r="B141" s="136" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C141" s="326" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D141" s="44" t="str">
         <f t="shared" si="2"/>
@@ -30775,10 +30795,10 @@
         <v>18</v>
       </c>
       <c r="B142" s="136" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C142" s="326" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D142" s="44" t="str">
         <f t="shared" si="2"/>
@@ -30907,10 +30927,10 @@
         <v>18</v>
       </c>
       <c r="B143" s="136" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C143" s="326" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D143" s="44" t="str">
         <f t="shared" si="2"/>
@@ -31039,10 +31059,10 @@
         <v>18</v>
       </c>
       <c r="B144" s="136" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C144" s="326" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D144" s="44" t="str">
         <f t="shared" si="2"/>
@@ -31171,10 +31191,10 @@
         <v>18</v>
       </c>
       <c r="B145" s="136" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C145" s="326" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D145" s="44" t="str">
         <f t="shared" ref="D145" si="3">LEFT(C145,7)</f>
@@ -31306,7 +31326,7 @@
         <v>136</v>
       </c>
       <c r="C146" s="111" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D146" s="44" t="str">
         <f>LEFT(C146,7)</f>
@@ -31438,7 +31458,7 @@
         <v>136</v>
       </c>
       <c r="C147" s="111" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D147" s="44" t="str">
         <f>LEFT(C147,7)</f>
@@ -31570,7 +31590,7 @@
         <v>136</v>
       </c>
       <c r="C148" s="111" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D148" s="44" t="str">
         <f>LEFT(C148,7)</f>
@@ -31702,7 +31722,7 @@
         <v>136</v>
       </c>
       <c r="C149" s="50" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D149" s="179"/>
       <c r="E149" s="179"/>
@@ -33583,20 +33603,20 @@
   <dimension ref="A1:AG193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.625" style="286" customWidth="1"/>
-    <col min="2" max="2" width="28.375" style="37" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="36" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="23.58203125" style="286" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="37" customWidth="1"/>
+    <col min="3" max="3" width="11.08203125" style="36" customWidth="1"/>
+    <col min="4" max="4" width="16.58203125" style="36" customWidth="1"/>
     <col min="5" max="5" width="47.75" style="311" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="39"/>
-    <col min="7" max="33" width="10.875" style="40"/>
-    <col min="34" max="16384" width="10.875" style="5"/>
+    <col min="6" max="6" width="10.83203125" style="39"/>
+    <col min="7" max="33" width="10.83203125" style="40"/>
+    <col min="34" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="6" customFormat="1" ht="20.25" customHeight="1">
@@ -33607,10 +33627,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="63" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D1" s="65" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E1" s="287" t="s">
         <v>148</v>
@@ -33655,7 +33675,7 @@
       </c>
       <c r="D2" s="66"/>
       <c r="E2" s="288" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F2" s="39"/>
       <c r="G2" s="40"/>
@@ -33698,7 +33718,7 @@
       </c>
       <c r="D3" s="66"/>
       <c r="E3" s="288" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F3" s="39"/>
       <c r="G3" s="40"/>
@@ -33741,7 +33761,7 @@
       </c>
       <c r="D4" s="66"/>
       <c r="E4" s="289" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="40"/>
@@ -33784,7 +33804,7 @@
       </c>
       <c r="D5" s="66"/>
       <c r="E5" s="289" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F5" s="39"/>
       <c r="G5" s="40"/>
@@ -33827,7 +33847,7 @@
       </c>
       <c r="D6" s="66"/>
       <c r="E6" s="289" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F6" s="39"/>
       <c r="G6" s="40"/>
@@ -33870,7 +33890,7 @@
       </c>
       <c r="D7" s="66"/>
       <c r="E7" s="289" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="40"/>
@@ -33913,7 +33933,7 @@
       </c>
       <c r="D8" s="66"/>
       <c r="E8" s="289" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F8" s="39"/>
       <c r="G8" s="40"/>
@@ -33956,7 +33976,7 @@
       </c>
       <c r="D9" s="66"/>
       <c r="E9" s="289" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F9" s="39"/>
       <c r="G9" s="40"/>
@@ -33999,7 +34019,7 @@
       </c>
       <c r="D10" s="66"/>
       <c r="E10" s="289" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F10" s="39"/>
       <c r="G10" s="40"/>
@@ -34042,7 +34062,7 @@
       </c>
       <c r="D11" s="66"/>
       <c r="E11" s="289" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F11" s="39"/>
       <c r="G11" s="40"/>
@@ -34085,7 +34105,7 @@
       </c>
       <c r="D12" s="66"/>
       <c r="E12" s="289" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="40"/>
@@ -34508,17 +34528,17 @@
         <v>3</v>
       </c>
       <c r="B22" s="237" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C22" s="238" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="239"/>
       <c r="E22" s="291" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G22" s="40"/>
       <c r="H22" s="40"/>
@@ -34596,14 +34616,14 @@
         <v>4</v>
       </c>
       <c r="B24" s="72" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C24" s="73"/>
       <c r="D24" s="71" t="s">
         <v>48</v>
       </c>
       <c r="E24" s="292" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F24" s="39"/>
       <c r="G24" s="40"/>
@@ -34634,19 +34654,19 @@
       <c r="AF24" s="40"/>
       <c r="AG24" s="40"/>
     </row>
-    <row r="25" spans="1:33" s="9" customFormat="1" ht="32.1" customHeight="1">
+    <row r="25" spans="1:33" s="9" customFormat="1" ht="32.15" customHeight="1">
       <c r="A25" s="273">
         <v>5</v>
       </c>
       <c r="B25" s="74" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C25" s="75" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D25" s="75"/>
       <c r="E25" s="293" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F25" s="39"/>
       <c r="G25" s="40"/>
@@ -34735,7 +34755,7 @@
         <v>150</v>
       </c>
       <c r="F27" s="39" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="28" spans="1:33" s="40" customFormat="1" ht="20.25" customHeight="1">
@@ -34753,12 +34773,12 @@
         <v>151</v>
       </c>
       <c r="F28" s="41" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="29" spans="1:33" s="13" customFormat="1" ht="20.25" customHeight="1">
       <c r="A29" s="276" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B29" s="68" t="s">
         <v>153</v>
@@ -34801,7 +34821,7 @@
     </row>
     <row r="30" spans="1:33" s="11" customFormat="1" ht="20.25" customHeight="1">
       <c r="A30" s="276" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B30" s="68" t="s">
         <v>153</v>
@@ -34844,7 +34864,7 @@
     </row>
     <row r="31" spans="1:33" s="12" customFormat="1" ht="20.25" customHeight="1">
       <c r="A31" s="276" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B31" s="68" t="s">
         <v>153</v>
@@ -34887,7 +34907,7 @@
     </row>
     <row r="32" spans="1:33" s="12" customFormat="1" ht="20.25" customHeight="1">
       <c r="A32" s="276" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B32" s="68" t="s">
         <v>153</v>
@@ -34930,7 +34950,7 @@
     </row>
     <row r="33" spans="1:33" s="12" customFormat="1" ht="20.25" customHeight="1">
       <c r="A33" s="276" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B33" s="68" t="s">
         <v>153</v>
@@ -34973,7 +34993,7 @@
     </row>
     <row r="34" spans="1:33" s="15" customFormat="1" ht="20.25" customHeight="1">
       <c r="A34" s="276" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B34" s="68" t="s">
         <v>153</v>
@@ -35016,7 +35036,7 @@
     </row>
     <row r="35" spans="1:33" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A35" s="276" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B35" s="68" t="s">
         <v>154</v>
@@ -35059,7 +35079,7 @@
     </row>
     <row r="36" spans="1:33" s="7" customFormat="1" ht="32.25" customHeight="1">
       <c r="A36" s="276" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B36" s="68" t="s">
         <v>154</v>
@@ -35102,7 +35122,7 @@
     </row>
     <row r="37" spans="1:33" s="7" customFormat="1" ht="33" customHeight="1">
       <c r="A37" s="276" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B37" s="68" t="s">
         <v>154</v>
@@ -35145,7 +35165,7 @@
     </row>
     <row r="38" spans="1:33" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A38" s="276" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B38" s="68" t="s">
         <v>154</v>
@@ -35188,7 +35208,7 @@
     </row>
     <row r="39" spans="1:33" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A39" s="276" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B39" s="68" t="s">
         <v>154</v>
@@ -35231,7 +35251,7 @@
     </row>
     <row r="40" spans="1:33" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A40" s="276" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B40" s="68" t="s">
         <v>154</v>
@@ -35274,7 +35294,7 @@
     </row>
     <row r="41" spans="1:33" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A41" s="276" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B41" s="68" t="s">
         <v>154</v>
@@ -35535,14 +35555,14 @@
         <v>15</v>
       </c>
       <c r="B47" s="319" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C47" s="320"/>
       <c r="D47" s="320" t="s">
         <v>48</v>
       </c>
       <c r="E47" s="321" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F47" s="41"/>
       <c r="G47" s="40"/>
@@ -35578,14 +35598,14 @@
         <v>15</v>
       </c>
       <c r="B48" s="319" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C48" s="320"/>
       <c r="D48" s="320" t="s">
         <v>48</v>
       </c>
       <c r="E48" s="321" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F48" s="41"/>
       <c r="G48" s="40"/>
@@ -35618,7 +35638,7 @@
     </row>
     <row r="49" spans="1:33" s="10" customFormat="1" ht="20.25" customHeight="1">
       <c r="A49" s="281" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B49" s="90" t="s">
         <v>45</v>
@@ -35793,14 +35813,14 @@
         <v>18</v>
       </c>
       <c r="B53" s="93" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C53" s="92" t="s">
         <v>48</v>
       </c>
       <c r="D53" s="92"/>
       <c r="E53" s="304" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F53" s="41"/>
       <c r="G53" s="40"/>
@@ -35828,14 +35848,14 @@
         <v>18</v>
       </c>
       <c r="B54" s="93" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C54" s="92"/>
       <c r="D54" s="92" t="s">
         <v>48</v>
       </c>
       <c r="E54" s="304" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F54" s="39"/>
       <c r="G54" s="40"/>
@@ -35863,14 +35883,14 @@
         <v>19</v>
       </c>
       <c r="B55" s="95" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C55" s="94" t="s">
         <v>48</v>
       </c>
       <c r="D55" s="94"/>
       <c r="E55" s="305" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F55" s="41"/>
       <c r="G55" s="40"/>
@@ -35898,14 +35918,14 @@
         <v>19</v>
       </c>
       <c r="B56" s="95" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C56" s="94" t="s">
         <v>48</v>
       </c>
       <c r="D56" s="94"/>
       <c r="E56" s="305" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F56" s="41"/>
       <c r="G56" s="40"/>
@@ -35933,14 +35953,14 @@
         <v>19</v>
       </c>
       <c r="B57" s="95" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C57" s="94"/>
       <c r="D57" s="94" t="s">
         <v>48</v>
       </c>
       <c r="E57" s="306" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F57" s="41"/>
       <c r="G57" s="40"/>
@@ -35968,14 +35988,14 @@
         <v>19</v>
       </c>
       <c r="B58" s="95" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C58" s="94"/>
       <c r="D58" s="94" t="s">
         <v>48</v>
       </c>
       <c r="E58" s="306" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F58" s="41"/>
       <c r="G58" s="40"/>
@@ -36003,14 +36023,14 @@
         <v>20</v>
       </c>
       <c r="B59" s="97" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C59" s="96" t="s">
         <v>48</v>
       </c>
       <c r="D59" s="96"/>
       <c r="E59" s="307" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F59" s="41"/>
       <c r="G59" s="40"/>
@@ -36038,14 +36058,14 @@
         <v>21</v>
       </c>
       <c r="B60" s="99" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C60" s="71" t="s">
         <v>48</v>
       </c>
       <c r="D60" s="71"/>
       <c r="E60" s="308" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F60" s="41"/>
       <c r="G60" s="40"/>
@@ -36078,10 +36098,10 @@
         <v>48</v>
       </c>
       <c r="E61" s="309" t="s">
+        <v>461</v>
+      </c>
+      <c r="F61" s="41" t="s">
         <v>463</v>
-      </c>
-      <c r="F61" s="41" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="62" spans="1:33" ht="20.25" customHeight="1">
@@ -37182,182 +37202,182 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1">
       <c r="A1" s="324" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" customHeight="1">
       <c r="A2" s="324" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" customHeight="1">
       <c r="A3" s="324" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" customHeight="1">
       <c r="A4" s="324" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" customHeight="1">
       <c r="A5" s="324" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" customHeight="1">
       <c r="A6" s="324" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15" customHeight="1">
       <c r="A7" s="324" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15" customHeight="1">
       <c r="A8" s="324" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15" customHeight="1">
       <c r="A9" s="324" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15" customHeight="1">
       <c r="A10" s="324" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15" customHeight="1">
       <c r="A11" s="324" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" customHeight="1">
       <c r="A12" s="324" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15" customHeight="1">
       <c r="A13" s="324" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15" customHeight="1">
       <c r="A14" s="324" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" customHeight="1">
       <c r="A15" s="324" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15" customHeight="1">
       <c r="A16" s="324" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" customHeight="1">
       <c r="A17" s="324" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" customHeight="1">
       <c r="A18" s="324" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" customHeight="1">
       <c r="A19" s="324" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" customHeight="1">
       <c r="A20" s="324" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1">
       <c r="A21" s="324" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" customHeight="1">
       <c r="A22" s="324" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" customHeight="1">
       <c r="A23" s="324" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" customHeight="1">
       <c r="A24" s="324" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" customHeight="1">
       <c r="A25" s="324" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" customHeight="1">
       <c r="A26" s="324" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" customHeight="1">
       <c r="A27" s="324" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" customHeight="1">
       <c r="A28" s="324" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" customHeight="1">
       <c r="A29" s="324" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15" customHeight="1">
       <c r="A30" s="324" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15" customHeight="1">
       <c r="A31" s="324" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15" customHeight="1">
       <c r="A32" s="324" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" customHeight="1">
       <c r="A33" s="324" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15" customHeight="1">
       <c r="A34" s="324" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15" customHeight="1">
       <c r="A35" s="324" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15" customHeight="1">
       <c r="A36" s="324" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>

--- a/ICD-10 conversions_3_30_2020.xlsx
+++ b/ICD-10 conversions_3_30_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shutfle1\Desktop\Johns-Hopkins-Overuse-Project-with-Segal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shutfle1\Documents\GitHub\Johns-Hopkins-Overuse-Project-with-Segal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="593">
   <si>
     <t>Working Number</t>
   </si>
@@ -2280,9 +2280,6 @@
     <t xml:space="preserve">eligible are people WITH the inclusionary ICD-CM  </t>
   </si>
   <si>
-    <t>eligible are people  WITH the inclusionary ICD-10 CM and WITHOUT exclusionary ICD-10 CM in previous 180 days  (although Susie blacked this row on the ICD 10 diagnosis - I think we need it back)</t>
-  </si>
-  <si>
     <t>eligible are people who died</t>
   </si>
   <si>
@@ -2490,6 +2487,32 @@
   </si>
   <si>
     <t>people WITH the inclusionary  ICD-CM  and WITHOUT exclusionary ICD-CM/ICD_PCS/CPT on  claim with meniscectomy</t>
+  </si>
+  <si>
+    <t>Inclsuion</t>
+  </si>
+  <si>
+    <t>ICD only
+ICD+HCPCS
+HCPCS
+Age</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">eligible are people  WITH the inclusionary ICD-10 CM and WITHOUT exclusionary ICD-10 CM in previous 180 days
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if HAVE LUNG DIAGNOSIS on day of pre-op visit or day of procedure then exclude</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3103,7 +3126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="330">
+  <cellXfs count="333">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3616,13 +3639,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3709,9 +3726,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3877,6 +3891,24 @@
     <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="43" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4387,11 +4419,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q174"/>
+  <dimension ref="A1:R174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
@@ -4401,19 +4433,20 @@
     <col min="3" max="3" width="32.08203125" style="220" customWidth="1"/>
     <col min="4" max="4" width="28.33203125" style="221" customWidth="1"/>
     <col min="5" max="5" width="20.08203125" style="221" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="38.33203125" style="249" customWidth="1"/>
-    <col min="7" max="7" width="41.33203125" style="249" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="222" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="222" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="20.83203125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.58203125" style="317" customWidth="1"/>
-    <col min="12" max="12" width="7.5" style="317" customWidth="1"/>
-    <col min="13" max="13" width="27.08203125" style="260" customWidth="1"/>
-    <col min="14" max="14" width="25" style="260" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" style="260"/>
+    <col min="6" max="6" width="38.33203125" style="247" customWidth="1"/>
+    <col min="7" max="7" width="41.33203125" style="247" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="222" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="222" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" customWidth="1"/>
+    <col min="11" max="11" width="9.58203125" style="314" customWidth="1"/>
+    <col min="12" max="12" width="7.5" style="314" customWidth="1"/>
+    <col min="13" max="13" width="10.75" style="314" customWidth="1"/>
+    <col min="14" max="14" width="27.08203125" style="258" customWidth="1"/>
+    <col min="15" max="15" width="25" style="258" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" style="258"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="198" customFormat="1" ht="39" customHeight="1">
+    <row r="1" spans="1:18" s="198" customFormat="1" ht="39" customHeight="1">
       <c r="A1" s="199" t="s">
         <v>351</v>
       </c>
@@ -4429,10 +4462,10 @@
       <c r="E1" s="200" t="s">
         <v>439</v>
       </c>
-      <c r="F1" s="246" t="s">
+      <c r="F1" s="244" t="s">
         <v>500</v>
       </c>
-      <c r="G1" s="246" t="s">
+      <c r="G1" s="244" t="s">
         <v>518</v>
       </c>
       <c r="H1" s="201" t="s">
@@ -4444,21 +4477,24 @@
       <c r="J1" s="201" t="s">
         <v>426</v>
       </c>
-      <c r="K1" s="312" t="s">
+      <c r="K1" s="309" t="s">
         <v>445</v>
       </c>
-      <c r="L1" s="313" t="s">
+      <c r="L1" s="310" t="s">
         <v>448</v>
       </c>
-      <c r="M1" s="251" t="s">
+      <c r="M1" s="310" t="s">
+        <v>590</v>
+      </c>
+      <c r="N1" s="249" t="s">
         <v>449</v>
       </c>
-      <c r="N1" s="251" t="s">
+      <c r="O1" s="249" t="s">
         <v>452</v>
       </c>
-      <c r="O1" s="251"/>
-    </row>
-    <row r="2" spans="1:17" s="53" customFormat="1" ht="39" customHeight="1">
+      <c r="P1" s="249"/>
+    </row>
+    <row r="2" spans="1:18" s="53" customFormat="1" ht="95.5" customHeight="1">
       <c r="A2" s="202">
         <v>1</v>
       </c>
@@ -4474,11 +4510,11 @@
       <c r="E2" s="200" t="s">
         <v>240</v>
       </c>
-      <c r="F2" s="246" t="s">
+      <c r="F2" s="244" t="s">
         <v>495</v>
       </c>
-      <c r="G2" s="246" t="s">
-        <v>543</v>
+      <c r="G2" s="244" t="s">
+        <v>542</v>
       </c>
       <c r="H2" s="204" t="s">
         <v>232</v>
@@ -4487,19 +4523,22 @@
         <v>233</v>
       </c>
       <c r="J2" s="48"/>
-      <c r="K2" s="314" t="s">
+      <c r="K2" s="311" t="s">
         <v>446</v>
       </c>
-      <c r="L2" s="314" t="s">
+      <c r="L2" s="311" t="s">
         <v>447</v>
       </c>
-      <c r="M2" s="252" t="s">
+      <c r="M2" s="327" t="s">
+        <v>591</v>
+      </c>
+      <c r="N2" s="250" t="s">
         <v>478</v>
       </c>
-      <c r="N2" s="252"/>
-      <c r="O2" s="252"/>
-    </row>
-    <row r="3" spans="1:17" s="48" customFormat="1" ht="84" customHeight="1">
+      <c r="O2" s="250"/>
+      <c r="P2" s="250"/>
+    </row>
+    <row r="3" spans="1:18" s="48" customFormat="1" ht="84" customHeight="1">
       <c r="A3" s="202">
         <v>2</v>
       </c>
@@ -4515,10 +4554,10 @@
       <c r="E3" s="200" t="s">
         <v>444</v>
       </c>
-      <c r="F3" s="246" t="s">
+      <c r="F3" s="244" t="s">
         <v>522</v>
       </c>
-      <c r="G3" s="246" t="s">
+      <c r="G3" s="244" t="s">
         <v>541</v>
       </c>
       <c r="H3" s="204" t="s">
@@ -4527,19 +4566,20 @@
       <c r="I3" s="204" t="s">
         <v>258</v>
       </c>
-      <c r="K3" s="315" t="s">
+      <c r="K3" s="312" t="s">
         <v>447</v>
       </c>
-      <c r="L3" s="315" t="s">
+      <c r="L3" s="312" t="s">
         <v>447</v>
       </c>
-      <c r="M3" s="253" t="s">
+      <c r="M3" s="312"/>
+      <c r="N3" s="251" t="s">
         <v>460</v>
       </c>
-      <c r="N3" s="254"/>
-      <c r="O3" s="254"/>
-    </row>
-    <row r="4" spans="1:17" s="48" customFormat="1" ht="195">
+      <c r="O3" s="252"/>
+      <c r="P3" s="252"/>
+    </row>
+    <row r="4" spans="1:18" s="48" customFormat="1" ht="195">
       <c r="A4" s="202">
         <v>3</v>
       </c>
@@ -4555,11 +4595,11 @@
       <c r="E4" s="200" t="s">
         <v>443</v>
       </c>
-      <c r="F4" s="246" t="s">
+      <c r="F4" s="244" t="s">
         <v>501</v>
       </c>
-      <c r="G4" s="246" t="s">
-        <v>542</v>
+      <c r="G4" s="244" t="s">
+        <v>592</v>
       </c>
       <c r="H4" s="204" t="s">
         <v>251</v>
@@ -4567,29 +4607,30 @@
       <c r="I4" s="204" t="s">
         <v>252</v>
       </c>
-      <c r="K4" s="315" t="s">
+      <c r="K4" s="312" t="s">
         <v>446</v>
       </c>
-      <c r="L4" s="315" t="s">
+      <c r="L4" s="312" t="s">
         <v>446</v>
       </c>
-      <c r="M4" s="253" t="s">
+      <c r="M4" s="312"/>
+      <c r="N4" s="251" t="s">
         <v>471</v>
       </c>
-      <c r="N4" s="253" t="s">
+      <c r="O4" s="251" t="s">
         <v>473</v>
       </c>
-      <c r="O4" s="253" t="s">
+      <c r="P4" s="251" t="s">
         <v>472</v>
       </c>
-      <c r="P4" s="245" t="s">
+      <c r="Q4" s="243" t="s">
         <v>477</v>
       </c>
-      <c r="Q4" s="263" t="s">
+      <c r="R4" s="261" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="48" customFormat="1" ht="78">
+    <row r="5" spans="1:18" s="48" customFormat="1" ht="78">
       <c r="A5" s="202">
         <v>4</v>
       </c>
@@ -4605,10 +4646,10 @@
       <c r="E5" s="200" t="s">
         <v>440</v>
       </c>
-      <c r="F5" s="246" t="s">
+      <c r="F5" s="244" t="s">
         <v>511</v>
       </c>
-      <c r="G5" s="246" t="s">
+      <c r="G5" s="244" t="s">
         <v>529</v>
       </c>
       <c r="H5" s="204" t="s">
@@ -4617,19 +4658,20 @@
       <c r="I5" s="204" t="s">
         <v>236</v>
       </c>
-      <c r="K5" s="315" t="s">
+      <c r="K5" s="312" t="s">
         <v>447</v>
       </c>
-      <c r="L5" s="315" t="s">
+      <c r="L5" s="312" t="s">
         <v>447</v>
       </c>
-      <c r="M5" s="254" t="s">
+      <c r="M5" s="312"/>
+      <c r="N5" s="252" t="s">
         <v>453</v>
       </c>
-      <c r="N5" s="254"/>
-      <c r="O5" s="254"/>
-    </row>
-    <row r="6" spans="1:17" s="233" customFormat="1" ht="102.75" customHeight="1">
+      <c r="O5" s="252"/>
+      <c r="P5" s="252"/>
+    </row>
+    <row r="6" spans="1:18" s="233" customFormat="1" ht="102.75" customHeight="1">
       <c r="A6" s="232">
         <v>5</v>
       </c>
@@ -4645,10 +4687,10 @@
       <c r="E6" s="206" t="s">
         <v>451</v>
       </c>
-      <c r="F6" s="247" t="s">
+      <c r="F6" s="245" t="s">
         <v>520</v>
       </c>
-      <c r="G6" s="247" t="s">
+      <c r="G6" s="245" t="s">
         <v>538</v>
       </c>
       <c r="H6" s="204" t="s">
@@ -4660,21 +4702,22 @@
       <c r="J6" s="235" t="s">
         <v>400</v>
       </c>
-      <c r="K6" s="316" t="s">
+      <c r="K6" s="313" t="s">
         <v>446</v>
       </c>
-      <c r="L6" s="316" t="s">
+      <c r="L6" s="313" t="s">
         <v>446</v>
       </c>
-      <c r="M6" s="255" t="s">
+      <c r="M6" s="313"/>
+      <c r="N6" s="253" t="s">
         <v>454</v>
       </c>
-      <c r="N6" s="256" t="s">
+      <c r="O6" s="254" t="s">
         <v>479</v>
       </c>
-      <c r="O6" s="255"/>
-    </row>
-    <row r="7" spans="1:17" s="48" customFormat="1" ht="91">
+      <c r="P6" s="253"/>
+    </row>
+    <row r="7" spans="1:18" s="48" customFormat="1" ht="91">
       <c r="A7" s="202">
         <v>6</v>
       </c>
@@ -4690,10 +4733,10 @@
       <c r="E7" s="200" t="s">
         <v>441</v>
       </c>
-      <c r="F7" s="246" t="s">
+      <c r="F7" s="244" t="s">
         <v>502</v>
       </c>
-      <c r="G7" s="246" t="s">
+      <c r="G7" s="244" t="s">
         <v>540</v>
       </c>
       <c r="H7" s="204" t="s">
@@ -4702,21 +4745,22 @@
       <c r="I7" s="204" t="s">
         <v>241</v>
       </c>
-      <c r="K7" s="315" t="s">
+      <c r="K7" s="312" t="s">
         <v>447</v>
       </c>
-      <c r="L7" s="315" t="s">
+      <c r="L7" s="312" t="s">
         <v>446</v>
       </c>
-      <c r="M7" s="253" t="s">
+      <c r="M7" s="312"/>
+      <c r="N7" s="251" t="s">
         <v>462</v>
       </c>
-      <c r="N7" s="254" t="s">
+      <c r="O7" s="252" t="s">
         <v>494</v>
       </c>
-      <c r="O7" s="254"/>
-    </row>
-    <row r="8" spans="1:17" s="48" customFormat="1" ht="108.75" customHeight="1">
+      <c r="P7" s="252"/>
+    </row>
+    <row r="8" spans="1:18" s="48" customFormat="1" ht="108.75" customHeight="1">
       <c r="A8" s="202">
         <v>7</v>
       </c>
@@ -4732,11 +4776,11 @@
       <c r="E8" s="206" t="s">
         <v>464</v>
       </c>
-      <c r="F8" s="247" t="s">
+      <c r="F8" s="245" t="s">
         <v>503</v>
       </c>
-      <c r="G8" s="247" t="s">
-        <v>544</v>
+      <c r="G8" s="245" t="s">
+        <v>543</v>
       </c>
       <c r="H8" s="204" t="s">
         <v>228</v>
@@ -4744,21 +4788,22 @@
       <c r="I8" s="204" t="s">
         <v>229</v>
       </c>
-      <c r="K8" s="315" t="s">
+      <c r="K8" s="312" t="s">
         <v>446</v>
       </c>
-      <c r="L8" s="315" t="s">
+      <c r="L8" s="312" t="s">
         <v>446</v>
       </c>
-      <c r="M8" s="254" t="s">
+      <c r="M8" s="312"/>
+      <c r="N8" s="252" t="s">
         <v>465</v>
       </c>
-      <c r="N8" s="257" t="s">
+      <c r="O8" s="255" t="s">
         <v>480</v>
       </c>
-      <c r="O8" s="254"/>
-    </row>
-    <row r="9" spans="1:17" s="48" customFormat="1" ht="104">
+      <c r="P8" s="252"/>
+    </row>
+    <row r="9" spans="1:18" s="48" customFormat="1" ht="104">
       <c r="A9" s="202">
         <v>8</v>
       </c>
@@ -4774,10 +4819,10 @@
       <c r="E9" s="206" t="s">
         <v>440</v>
       </c>
-      <c r="F9" s="247" t="s">
+      <c r="F9" s="245" t="s">
         <v>503</v>
       </c>
-      <c r="G9" s="247" t="s">
+      <c r="G9" s="245" t="s">
         <v>539</v>
       </c>
       <c r="H9" s="204" t="s">
@@ -4786,21 +4831,22 @@
       <c r="I9" s="204" t="s">
         <v>292</v>
       </c>
-      <c r="K9" s="315" t="s">
+      <c r="K9" s="312" t="s">
         <v>446</v>
       </c>
-      <c r="L9" s="315" t="s">
+      <c r="L9" s="312" t="s">
         <v>446</v>
       </c>
-      <c r="M9" s="254" t="s">
+      <c r="M9" s="312"/>
+      <c r="N9" s="252" t="s">
         <v>481</v>
       </c>
-      <c r="N9" s="257" t="s">
+      <c r="O9" s="255" t="s">
         <v>493</v>
       </c>
-      <c r="O9" s="254"/>
-    </row>
-    <row r="10" spans="1:17" s="48" customFormat="1" ht="91">
+      <c r="P9" s="252"/>
+    </row>
+    <row r="10" spans="1:18" s="48" customFormat="1" ht="91">
       <c r="A10" s="202">
         <v>9</v>
       </c>
@@ -4816,10 +4862,10 @@
       <c r="E10" s="200" t="s">
         <v>440</v>
       </c>
-      <c r="F10" s="246" t="s">
+      <c r="F10" s="244" t="s">
         <v>523</v>
       </c>
-      <c r="G10" s="246" t="s">
+      <c r="G10" s="244" t="s">
         <v>524</v>
       </c>
       <c r="H10" s="204" t="s">
@@ -4828,19 +4874,20 @@
       <c r="I10" s="204" t="s">
         <v>266</v>
       </c>
-      <c r="K10" s="315" t="s">
+      <c r="K10" s="312" t="s">
         <v>447</v>
       </c>
-      <c r="L10" s="315" t="s">
+      <c r="L10" s="312" t="s">
         <v>446</v>
       </c>
-      <c r="M10" s="254" t="s">
+      <c r="M10" s="312"/>
+      <c r="N10" s="252" t="s">
         <v>492</v>
       </c>
-      <c r="N10" s="254"/>
-      <c r="O10" s="254"/>
-    </row>
-    <row r="11" spans="1:17" s="48" customFormat="1" ht="97.5" customHeight="1">
+      <c r="O10" s="252"/>
+      <c r="P10" s="252"/>
+    </row>
+    <row r="11" spans="1:18" s="48" customFormat="1" ht="97.5" customHeight="1">
       <c r="A11" s="202">
         <v>10</v>
       </c>
@@ -4856,10 +4903,10 @@
       <c r="E11" s="206" t="s">
         <v>440</v>
       </c>
-      <c r="F11" s="247" t="s">
+      <c r="F11" s="245" t="s">
         <v>504</v>
       </c>
-      <c r="G11" s="247" t="s">
+      <c r="G11" s="245" t="s">
         <v>530</v>
       </c>
       <c r="H11" s="204" t="s">
@@ -4868,21 +4915,22 @@
       <c r="I11" s="204" t="s">
         <v>244</v>
       </c>
-      <c r="K11" s="315" t="s">
+      <c r="K11" s="312" t="s">
         <v>446</v>
       </c>
-      <c r="L11" s="315" t="s">
+      <c r="L11" s="312" t="s">
         <v>446</v>
       </c>
-      <c r="M11" s="254" t="s">
+      <c r="M11" s="312"/>
+      <c r="N11" s="252" t="s">
         <v>491</v>
       </c>
-      <c r="N11" s="254" t="s">
+      <c r="O11" s="252" t="s">
         <v>474</v>
       </c>
-      <c r="O11" s="254"/>
-    </row>
-    <row r="12" spans="1:17" s="48" customFormat="1" ht="117">
+      <c r="P11" s="252"/>
+    </row>
+    <row r="12" spans="1:18" s="48" customFormat="1" ht="117">
       <c r="A12" s="202">
         <v>11</v>
       </c>
@@ -4898,10 +4946,10 @@
       <c r="E12" s="206" t="s">
         <v>440</v>
       </c>
-      <c r="F12" s="247" t="s">
+      <c r="F12" s="245" t="s">
         <v>505</v>
       </c>
-      <c r="G12" s="247" t="s">
+      <c r="G12" s="245" t="s">
         <v>531</v>
       </c>
       <c r="H12" s="204" t="s">
@@ -4910,19 +4958,20 @@
       <c r="I12" s="204" t="s">
         <v>227</v>
       </c>
-      <c r="K12" s="315" t="s">
+      <c r="K12" s="312" t="s">
         <v>447</v>
       </c>
-      <c r="L12" s="315" t="s">
+      <c r="L12" s="312" t="s">
         <v>446</v>
       </c>
-      <c r="M12" s="254" t="s">
+      <c r="M12" s="312"/>
+      <c r="N12" s="252" t="s">
         <v>490</v>
       </c>
-      <c r="N12" s="254"/>
-      <c r="O12" s="254"/>
-    </row>
-    <row r="13" spans="1:17" s="48" customFormat="1" ht="156">
+      <c r="O12" s="252"/>
+      <c r="P12" s="252"/>
+    </row>
+    <row r="13" spans="1:18" s="48" customFormat="1" ht="156">
       <c r="A13" s="202">
         <v>12</v>
       </c>
@@ -4938,10 +4987,10 @@
       <c r="E13" s="206" t="s">
         <v>442</v>
       </c>
-      <c r="F13" s="247" t="s">
+      <c r="F13" s="245" t="s">
         <v>508</v>
       </c>
-      <c r="G13" s="247" t="s">
+      <c r="G13" s="245" t="s">
         <v>532</v>
       </c>
       <c r="H13" s="204" t="s">
@@ -4950,21 +4999,22 @@
       <c r="I13" s="204" t="s">
         <v>239</v>
       </c>
-      <c r="K13" s="315" t="s">
+      <c r="K13" s="312" t="s">
         <v>447</v>
       </c>
-      <c r="L13" s="315" t="s">
+      <c r="L13" s="312" t="s">
         <v>446</v>
       </c>
-      <c r="M13" s="258" t="s">
+      <c r="M13" s="312"/>
+      <c r="N13" s="256" t="s">
         <v>482</v>
       </c>
-      <c r="N13" s="254" t="s">
+      <c r="O13" s="252" t="s">
         <v>475</v>
       </c>
-      <c r="O13" s="254"/>
-    </row>
-    <row r="14" spans="1:17" s="48" customFormat="1" ht="108.75" customHeight="1">
+      <c r="P13" s="252"/>
+    </row>
+    <row r="14" spans="1:18" s="48" customFormat="1" ht="108.75" customHeight="1">
       <c r="A14" s="202">
         <v>13</v>
       </c>
@@ -4980,10 +5030,10 @@
       <c r="E14" s="206" t="s">
         <v>443</v>
       </c>
-      <c r="F14" s="247" t="s">
+      <c r="F14" s="245" t="s">
         <v>506</v>
       </c>
-      <c r="G14" s="247" t="s">
+      <c r="G14" s="245" t="s">
         <v>533</v>
       </c>
       <c r="H14" s="204" t="s">
@@ -4992,21 +5042,22 @@
       <c r="I14" s="204" t="s">
         <v>249</v>
       </c>
-      <c r="K14" s="315" t="s">
+      <c r="K14" s="312" t="s">
         <v>446</v>
       </c>
-      <c r="L14" s="315" t="s">
+      <c r="L14" s="312" t="s">
         <v>446</v>
       </c>
-      <c r="M14" s="254" t="s">
+      <c r="M14" s="312"/>
+      <c r="N14" s="252" t="s">
         <v>489</v>
       </c>
-      <c r="N14" s="254" t="s">
+      <c r="O14" s="252" t="s">
         <v>488</v>
       </c>
-      <c r="O14" s="254"/>
-    </row>
-    <row r="15" spans="1:17" s="48" customFormat="1" ht="104">
+      <c r="P14" s="252"/>
+    </row>
+    <row r="15" spans="1:18" s="48" customFormat="1" ht="104">
       <c r="A15" s="202">
         <v>14</v>
       </c>
@@ -5022,10 +5073,10 @@
       <c r="E15" s="206" t="s">
         <v>440</v>
       </c>
-      <c r="F15" s="247" t="s">
+      <c r="F15" s="245" t="s">
         <v>507</v>
       </c>
-      <c r="G15" s="247" t="s">
+      <c r="G15" s="245" t="s">
         <v>534</v>
       </c>
       <c r="H15" s="204" t="s">
@@ -5034,17 +5085,18 @@
       <c r="I15" s="204" t="s">
         <v>255</v>
       </c>
-      <c r="K15" s="315" t="s">
+      <c r="K15" s="312" t="s">
         <v>446</v>
       </c>
-      <c r="L15" s="315" t="s">
+      <c r="L15" s="312" t="s">
         <v>446</v>
       </c>
-      <c r="M15" s="254"/>
-      <c r="N15" s="254"/>
-      <c r="O15" s="254"/>
-    </row>
-    <row r="16" spans="1:17" s="48" customFormat="1" ht="117">
+      <c r="M15" s="312"/>
+      <c r="N15" s="252"/>
+      <c r="O15" s="252"/>
+      <c r="P15" s="252"/>
+    </row>
+    <row r="16" spans="1:18" s="48" customFormat="1" ht="117">
       <c r="A16" s="202">
         <v>15</v>
       </c>
@@ -5060,10 +5112,10 @@
       <c r="E16" s="200" t="s">
         <v>440</v>
       </c>
-      <c r="F16" s="246" t="s">
+      <c r="F16" s="244" t="s">
         <v>525</v>
       </c>
-      <c r="G16" s="246" t="s">
+      <c r="G16" s="244" t="s">
         <v>535</v>
       </c>
       <c r="H16" s="204" t="s">
@@ -5072,17 +5124,18 @@
       <c r="I16" s="204" t="s">
         <v>225</v>
       </c>
-      <c r="K16" s="315" t="s">
+      <c r="K16" s="312" t="s">
         <v>446</v>
       </c>
-      <c r="L16" s="315" t="s">
+      <c r="L16" s="312" t="s">
         <v>446</v>
       </c>
-      <c r="M16" s="254"/>
-      <c r="N16" s="254"/>
-      <c r="O16" s="254"/>
-    </row>
-    <row r="17" spans="1:15" s="48" customFormat="1" ht="78">
+      <c r="M16" s="312"/>
+      <c r="N16" s="252"/>
+      <c r="O16" s="252"/>
+      <c r="P16" s="252"/>
+    </row>
+    <row r="17" spans="1:16" s="48" customFormat="1" ht="78">
       <c r="A17" s="202">
         <v>16</v>
       </c>
@@ -5098,10 +5151,10 @@
       <c r="E17" s="200" t="s">
         <v>440</v>
       </c>
-      <c r="F17" s="246" t="s">
+      <c r="F17" s="244" t="s">
         <v>509</v>
       </c>
-      <c r="G17" s="246" t="s">
+      <c r="G17" s="244" t="s">
         <v>536</v>
       </c>
       <c r="H17" s="204" t="s">
@@ -5110,21 +5163,22 @@
       <c r="I17" s="204" t="s">
         <v>246</v>
       </c>
-      <c r="K17" s="315" t="s">
+      <c r="K17" s="312" t="s">
         <v>447</v>
       </c>
-      <c r="L17" s="315" t="s">
+      <c r="L17" s="312" t="s">
         <v>446</v>
       </c>
-      <c r="M17" s="253" t="s">
+      <c r="M17" s="312"/>
+      <c r="N17" s="251" t="s">
         <v>467</v>
       </c>
-      <c r="N17" s="254" t="s">
+      <c r="O17" s="252" t="s">
         <v>488</v>
       </c>
-      <c r="O17" s="254"/>
-    </row>
-    <row r="18" spans="1:15" s="48" customFormat="1" ht="156">
+      <c r="P17" s="252"/>
+    </row>
+    <row r="18" spans="1:16" s="48" customFormat="1" ht="156">
       <c r="A18" s="202">
         <v>17</v>
       </c>
@@ -5140,10 +5194,10 @@
       <c r="E18" s="200" t="s">
         <v>444</v>
       </c>
-      <c r="F18" s="246" t="s">
+      <c r="F18" s="244" t="s">
         <v>510</v>
       </c>
-      <c r="G18" s="246" t="s">
+      <c r="G18" s="244" t="s">
         <v>537</v>
       </c>
       <c r="H18" s="204" t="s">
@@ -5152,17 +5206,18 @@
       <c r="I18" s="204" t="s">
         <v>260</v>
       </c>
-      <c r="K18" s="315" t="s">
+      <c r="K18" s="312" t="s">
         <v>446</v>
       </c>
-      <c r="L18" s="315" t="s">
+      <c r="L18" s="312" t="s">
         <v>446</v>
       </c>
-      <c r="M18" s="254"/>
-      <c r="N18" s="254"/>
-      <c r="O18" s="254"/>
-    </row>
-    <row r="19" spans="1:15" s="19" customFormat="1" ht="78">
+      <c r="M18" s="312"/>
+      <c r="N18" s="252"/>
+      <c r="O18" s="252"/>
+      <c r="P18" s="252"/>
+    </row>
+    <row r="19" spans="1:16" s="19" customFormat="1" ht="78">
       <c r="A19" s="207">
         <v>18</v>
       </c>
@@ -5173,16 +5228,16 @@
         <v>359</v>
       </c>
       <c r="D19" s="208" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E19" s="200" t="s">
         <v>440</v>
       </c>
-      <c r="F19" s="246" t="s">
-        <v>586</v>
-      </c>
-      <c r="G19" s="246" t="s">
-        <v>590</v>
+      <c r="F19" s="244" t="s">
+        <v>585</v>
+      </c>
+      <c r="G19" s="244" t="s">
+        <v>589</v>
       </c>
       <c r="H19" s="204" t="s">
         <v>224</v>
@@ -5190,21 +5245,22 @@
       <c r="I19" s="204" t="s">
         <v>283</v>
       </c>
-      <c r="K19" s="317" t="s">
+      <c r="K19" s="314" t="s">
         <v>446</v>
       </c>
-      <c r="L19" s="317" t="s">
+      <c r="L19" s="314" t="s">
         <v>446</v>
       </c>
-      <c r="M19" s="259" t="s">
+      <c r="M19" s="314"/>
+      <c r="N19" s="257" t="s">
         <v>483</v>
       </c>
-      <c r="N19" s="260" t="s">
+      <c r="O19" s="258" t="s">
         <v>488</v>
       </c>
-      <c r="O19" s="260"/>
-    </row>
-    <row r="20" spans="1:15" ht="132" customHeight="1">
+      <c r="P19" s="258"/>
+    </row>
+    <row r="20" spans="1:16" ht="132" customHeight="1">
       <c r="A20" s="202">
         <v>19</v>
       </c>
@@ -5220,10 +5276,10 @@
       <c r="E20" s="206" t="s">
         <v>443</v>
       </c>
-      <c r="F20" s="247" t="s">
+      <c r="F20" s="245" t="s">
         <v>498</v>
       </c>
-      <c r="G20" s="247" t="s">
+      <c r="G20" s="245" t="s">
         <v>526</v>
       </c>
       <c r="H20" s="204" t="s">
@@ -5232,20 +5288,20 @@
       <c r="I20" s="204" t="s">
         <v>278</v>
       </c>
-      <c r="K20" s="315" t="s">
+      <c r="K20" s="312" t="s">
         <v>447</v>
       </c>
-      <c r="L20" s="317" t="s">
+      <c r="L20" s="314" t="s">
         <v>447</v>
       </c>
-      <c r="M20" s="260" t="s">
+      <c r="N20" s="258" t="s">
         <v>476</v>
       </c>
-      <c r="N20" s="259" t="s">
+      <c r="O20" s="257" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="86.25" customHeight="1">
+    <row r="21" spans="1:16" ht="86.25" customHeight="1">
       <c r="A21" s="209">
         <v>20</v>
       </c>
@@ -5261,10 +5317,10 @@
       <c r="E21" s="206" t="s">
         <v>443</v>
       </c>
-      <c r="F21" s="248" t="s">
+      <c r="F21" s="246" t="s">
         <v>497</v>
       </c>
-      <c r="G21" s="248" t="s">
+      <c r="G21" s="246" t="s">
         <v>527</v>
       </c>
       <c r="H21" s="212" t="s">
@@ -5273,17 +5329,17 @@
       <c r="I21" s="212" t="s">
         <v>279</v>
       </c>
-      <c r="K21" s="315" t="s">
+      <c r="K21" s="312" t="s">
         <v>447</v>
       </c>
-      <c r="L21" s="317" t="s">
+      <c r="L21" s="314" t="s">
         <v>447</v>
       </c>
-      <c r="M21" s="260" t="s">
+      <c r="N21" s="258" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="201.5">
+    <row r="22" spans="1:16" ht="201.5">
       <c r="A22" s="202">
         <v>21</v>
       </c>
@@ -5299,10 +5355,10 @@
       <c r="E22" s="206" t="s">
         <v>443</v>
       </c>
-      <c r="F22" s="247" t="s">
+      <c r="F22" s="245" t="s">
         <v>499</v>
       </c>
-      <c r="G22" s="247" t="s">
+      <c r="G22" s="245" t="s">
         <v>528</v>
       </c>
       <c r="H22" s="204" t="s">
@@ -5311,17 +5367,17 @@
       <c r="I22" s="204" t="s">
         <v>281</v>
       </c>
-      <c r="K22" s="315" t="s">
+      <c r="K22" s="312" t="s">
         <v>447</v>
       </c>
-      <c r="L22" s="317" t="s">
+      <c r="L22" s="314" t="s">
         <v>447</v>
       </c>
-      <c r="M22" s="261" t="s">
+      <c r="N22" s="259" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="104">
+    <row r="23" spans="1:16" ht="104">
       <c r="A23" s="202">
         <v>22</v>
       </c>
@@ -5337,10 +5393,10 @@
       <c r="E23" s="200" t="s">
         <v>440</v>
       </c>
-      <c r="F23" s="246" t="s">
+      <c r="F23" s="244" t="s">
         <v>512</v>
       </c>
-      <c r="G23" s="246" t="s">
+      <c r="G23" s="244" t="s">
         <v>524</v>
       </c>
       <c r="H23" s="204" t="s">
@@ -5349,17 +5405,17 @@
       <c r="I23" s="204" t="s">
         <v>263</v>
       </c>
-      <c r="K23" s="315" t="s">
+      <c r="K23" s="312" t="s">
         <v>447</v>
       </c>
-      <c r="L23" s="317" t="s">
+      <c r="L23" s="314" t="s">
         <v>446</v>
       </c>
-      <c r="M23" s="260" t="s">
+      <c r="N23" s="258" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="180" customFormat="1">
+    <row r="24" spans="1:16" s="180" customFormat="1">
       <c r="A24" s="213"/>
       <c r="B24" s="214"/>
       <c r="C24" s="215"/>
@@ -5369,11 +5425,12 @@
       <c r="I24" s="217"/>
       <c r="K24" s="214"/>
       <c r="L24" s="214"/>
-      <c r="M24" s="262"/>
-      <c r="N24" s="262"/>
-      <c r="O24" s="262"/>
-    </row>
-    <row r="25" spans="1:15" s="180" customFormat="1">
+      <c r="M24" s="214"/>
+      <c r="N24" s="260"/>
+      <c r="O24" s="260"/>
+      <c r="P24" s="260"/>
+    </row>
+    <row r="25" spans="1:16" s="180" customFormat="1">
       <c r="A25" s="213"/>
       <c r="B25" s="214"/>
       <c r="C25" s="215"/>
@@ -5383,11 +5440,12 @@
       <c r="I25" s="217"/>
       <c r="K25" s="214"/>
       <c r="L25" s="214"/>
-      <c r="M25" s="262"/>
-      <c r="N25" s="262"/>
-      <c r="O25" s="262"/>
-    </row>
-    <row r="26" spans="1:15" s="180" customFormat="1">
+      <c r="M25" s="214"/>
+      <c r="N25" s="260"/>
+      <c r="O25" s="260"/>
+      <c r="P25" s="260"/>
+    </row>
+    <row r="26" spans="1:16" s="180" customFormat="1">
       <c r="A26" s="213"/>
       <c r="B26" s="214"/>
       <c r="C26" s="215"/>
@@ -5397,11 +5455,12 @@
       <c r="I26" s="217"/>
       <c r="K26" s="214"/>
       <c r="L26" s="214"/>
-      <c r="M26" s="262"/>
-      <c r="N26" s="262"/>
-      <c r="O26" s="262"/>
-    </row>
-    <row r="27" spans="1:15" s="180" customFormat="1">
+      <c r="M26" s="214"/>
+      <c r="N26" s="260"/>
+      <c r="O26" s="260"/>
+      <c r="P26" s="260"/>
+    </row>
+    <row r="27" spans="1:16" s="180" customFormat="1">
       <c r="A27" s="213"/>
       <c r="B27" s="214"/>
       <c r="C27" s="215"/>
@@ -5413,11 +5472,12 @@
       <c r="I27" s="217"/>
       <c r="K27" s="214"/>
       <c r="L27" s="214"/>
-      <c r="M27" s="262"/>
-      <c r="N27" s="262"/>
-      <c r="O27" s="262"/>
-    </row>
-    <row r="28" spans="1:15" s="180" customFormat="1">
+      <c r="M27" s="214"/>
+      <c r="N27" s="260"/>
+      <c r="O27" s="260"/>
+      <c r="P27" s="260"/>
+    </row>
+    <row r="28" spans="1:16" s="180" customFormat="1">
       <c r="A28" s="213"/>
       <c r="B28" s="214"/>
       <c r="C28" s="215"/>
@@ -5427,11 +5487,12 @@
       <c r="I28" s="217"/>
       <c r="K28" s="214"/>
       <c r="L28" s="214"/>
-      <c r="M28" s="262"/>
-      <c r="N28" s="262"/>
-      <c r="O28" s="262"/>
-    </row>
-    <row r="29" spans="1:15" s="180" customFormat="1">
+      <c r="M28" s="214"/>
+      <c r="N28" s="260"/>
+      <c r="O28" s="260"/>
+      <c r="P28" s="260"/>
+    </row>
+    <row r="29" spans="1:16" s="180" customFormat="1">
       <c r="A29" s="213"/>
       <c r="B29" s="214"/>
       <c r="C29" s="215"/>
@@ -5443,11 +5504,12 @@
       <c r="I29" s="217"/>
       <c r="K29" s="214"/>
       <c r="L29" s="214"/>
-      <c r="M29" s="262"/>
-      <c r="N29" s="262"/>
-      <c r="O29" s="262"/>
-    </row>
-    <row r="30" spans="1:15" s="180" customFormat="1">
+      <c r="M29" s="214"/>
+      <c r="N29" s="260"/>
+      <c r="O29" s="260"/>
+      <c r="P29" s="260"/>
+    </row>
+    <row r="30" spans="1:16" s="180" customFormat="1">
       <c r="A30" s="213"/>
       <c r="B30" s="214"/>
       <c r="C30" s="215"/>
@@ -5459,11 +5521,12 @@
       <c r="I30" s="217"/>
       <c r="K30" s="214"/>
       <c r="L30" s="214"/>
-      <c r="M30" s="262"/>
-      <c r="N30" s="262"/>
-      <c r="O30" s="262"/>
-    </row>
-    <row r="31" spans="1:15" s="180" customFormat="1">
+      <c r="M30" s="214"/>
+      <c r="N30" s="260"/>
+      <c r="O30" s="260"/>
+      <c r="P30" s="260"/>
+    </row>
+    <row r="31" spans="1:16" s="180" customFormat="1">
       <c r="A31" s="213"/>
       <c r="B31" s="214"/>
       <c r="C31" s="215"/>
@@ -5475,11 +5538,12 @@
       <c r="I31" s="217"/>
       <c r="K31" s="214"/>
       <c r="L31" s="214"/>
-      <c r="M31" s="262"/>
-      <c r="N31" s="262"/>
-      <c r="O31" s="262"/>
-    </row>
-    <row r="32" spans="1:15" s="180" customFormat="1">
+      <c r="M31" s="214"/>
+      <c r="N31" s="260"/>
+      <c r="O31" s="260"/>
+      <c r="P31" s="260"/>
+    </row>
+    <row r="32" spans="1:16" s="180" customFormat="1">
       <c r="A32" s="213"/>
       <c r="B32" s="214"/>
       <c r="C32" s="215"/>
@@ -5491,11 +5555,12 @@
       <c r="I32" s="217"/>
       <c r="K32" s="214"/>
       <c r="L32" s="214"/>
-      <c r="M32" s="262"/>
-      <c r="N32" s="262"/>
-      <c r="O32" s="262"/>
-    </row>
-    <row r="33" spans="1:15" s="180" customFormat="1">
+      <c r="M32" s="214"/>
+      <c r="N32" s="260"/>
+      <c r="O32" s="260"/>
+      <c r="P32" s="260"/>
+    </row>
+    <row r="33" spans="1:16" s="180" customFormat="1">
       <c r="A33" s="213"/>
       <c r="B33" s="214"/>
       <c r="C33" s="215"/>
@@ -5507,11 +5572,12 @@
       <c r="I33" s="217"/>
       <c r="K33" s="214"/>
       <c r="L33" s="214"/>
-      <c r="M33" s="262"/>
-      <c r="N33" s="262"/>
-      <c r="O33" s="262"/>
-    </row>
-    <row r="34" spans="1:15" s="180" customFormat="1">
+      <c r="M33" s="214"/>
+      <c r="N33" s="260"/>
+      <c r="O33" s="260"/>
+      <c r="P33" s="260"/>
+    </row>
+    <row r="34" spans="1:16" s="180" customFormat="1">
       <c r="A34" s="213"/>
       <c r="B34" s="214"/>
       <c r="C34" s="215"/>
@@ -5523,11 +5589,12 @@
       <c r="I34" s="217"/>
       <c r="K34" s="214"/>
       <c r="L34" s="214"/>
-      <c r="M34" s="262"/>
-      <c r="N34" s="262"/>
-      <c r="O34" s="262"/>
-    </row>
-    <row r="35" spans="1:15" s="180" customFormat="1">
+      <c r="M34" s="214"/>
+      <c r="N34" s="260"/>
+      <c r="O34" s="260"/>
+      <c r="P34" s="260"/>
+    </row>
+    <row r="35" spans="1:16" s="180" customFormat="1">
       <c r="A35" s="213"/>
       <c r="B35" s="214"/>
       <c r="C35" s="215"/>
@@ -5539,11 +5606,12 @@
       <c r="I35" s="217"/>
       <c r="K35" s="214"/>
       <c r="L35" s="214"/>
-      <c r="M35" s="262"/>
-      <c r="N35" s="262"/>
-      <c r="O35" s="262"/>
-    </row>
-    <row r="36" spans="1:15" s="180" customFormat="1">
+      <c r="M35" s="214"/>
+      <c r="N35" s="260"/>
+      <c r="O35" s="260"/>
+      <c r="P35" s="260"/>
+    </row>
+    <row r="36" spans="1:16" s="180" customFormat="1">
       <c r="A36" s="213"/>
       <c r="B36" s="214"/>
       <c r="C36" s="215"/>
@@ -5555,11 +5623,12 @@
       <c r="I36" s="217"/>
       <c r="K36" s="214"/>
       <c r="L36" s="214"/>
-      <c r="M36" s="262"/>
-      <c r="N36" s="262"/>
-      <c r="O36" s="262"/>
-    </row>
-    <row r="37" spans="1:15" s="180" customFormat="1">
+      <c r="M36" s="214"/>
+      <c r="N36" s="260"/>
+      <c r="O36" s="260"/>
+      <c r="P36" s="260"/>
+    </row>
+    <row r="37" spans="1:16" s="180" customFormat="1">
       <c r="A37" s="213"/>
       <c r="B37" s="214"/>
       <c r="C37" s="215"/>
@@ -5571,11 +5640,12 @@
       <c r="I37" s="217"/>
       <c r="K37" s="214"/>
       <c r="L37" s="214"/>
-      <c r="M37" s="262"/>
-      <c r="N37" s="262"/>
-      <c r="O37" s="262"/>
-    </row>
-    <row r="38" spans="1:15" s="180" customFormat="1">
+      <c r="M37" s="214"/>
+      <c r="N37" s="260"/>
+      <c r="O37" s="260"/>
+      <c r="P37" s="260"/>
+    </row>
+    <row r="38" spans="1:16" s="180" customFormat="1">
       <c r="A38" s="213"/>
       <c r="B38" s="214"/>
       <c r="C38" s="215"/>
@@ -5587,11 +5657,12 @@
       <c r="I38" s="217"/>
       <c r="K38" s="214"/>
       <c r="L38" s="214"/>
-      <c r="M38" s="262"/>
-      <c r="N38" s="262"/>
-      <c r="O38" s="262"/>
-    </row>
-    <row r="39" spans="1:15" s="180" customFormat="1">
+      <c r="M38" s="214"/>
+      <c r="N38" s="260"/>
+      <c r="O38" s="260"/>
+      <c r="P38" s="260"/>
+    </row>
+    <row r="39" spans="1:16" s="180" customFormat="1">
       <c r="A39" s="213"/>
       <c r="B39" s="214"/>
       <c r="C39" s="215"/>
@@ -5603,11 +5674,12 @@
       <c r="I39" s="217"/>
       <c r="K39" s="214"/>
       <c r="L39" s="214"/>
-      <c r="M39" s="262"/>
-      <c r="N39" s="262"/>
-      <c r="O39" s="262"/>
-    </row>
-    <row r="40" spans="1:15" s="180" customFormat="1">
+      <c r="M39" s="214"/>
+      <c r="N39" s="260"/>
+      <c r="O39" s="260"/>
+      <c r="P39" s="260"/>
+    </row>
+    <row r="40" spans="1:16" s="180" customFormat="1">
       <c r="A40" s="213"/>
       <c r="B40" s="214"/>
       <c r="C40" s="215"/>
@@ -5619,11 +5691,12 @@
       <c r="I40" s="217"/>
       <c r="K40" s="214"/>
       <c r="L40" s="214"/>
-      <c r="M40" s="262"/>
-      <c r="N40" s="262"/>
-      <c r="O40" s="262"/>
-    </row>
-    <row r="41" spans="1:15" s="180" customFormat="1">
+      <c r="M40" s="214"/>
+      <c r="N40" s="260"/>
+      <c r="O40" s="260"/>
+      <c r="P40" s="260"/>
+    </row>
+    <row r="41" spans="1:16" s="180" customFormat="1">
       <c r="A41" s="213"/>
       <c r="B41" s="214"/>
       <c r="C41" s="215"/>
@@ -5635,123 +5708,131 @@
       <c r="I41" s="217"/>
       <c r="K41" s="214"/>
       <c r="L41" s="214"/>
-      <c r="M41" s="262"/>
-      <c r="N41" s="262"/>
-      <c r="O41" s="262"/>
-    </row>
-    <row r="42" spans="1:15" s="180" customFormat="1">
+      <c r="M41" s="214"/>
+      <c r="N41" s="260"/>
+      <c r="O41" s="260"/>
+      <c r="P41" s="260"/>
+    </row>
+    <row r="42" spans="1:16" s="180" customFormat="1">
       <c r="A42" s="213"/>
       <c r="B42" s="214"/>
       <c r="C42" s="215"/>
       <c r="D42" s="216"/>
       <c r="E42" s="216"/>
       <c r="F42" s="216"/>
-      <c r="G42" s="322"/>
+      <c r="G42" s="319"/>
       <c r="H42" s="217"/>
       <c r="I42" s="217"/>
       <c r="K42" s="214"/>
       <c r="L42" s="214"/>
-      <c r="M42" s="262"/>
-      <c r="N42" s="262"/>
-      <c r="O42" s="262"/>
-    </row>
-    <row r="43" spans="1:15" s="180" customFormat="1">
+      <c r="M42" s="214"/>
+      <c r="N42" s="260"/>
+      <c r="O42" s="260"/>
+      <c r="P42" s="260"/>
+    </row>
+    <row r="43" spans="1:16" s="180" customFormat="1">
       <c r="A43" s="213"/>
       <c r="B43" s="214"/>
       <c r="C43" s="215"/>
       <c r="D43" s="216"/>
       <c r="E43" s="216"/>
       <c r="F43" s="216"/>
-      <c r="G43" s="322"/>
+      <c r="G43" s="319"/>
       <c r="H43" s="217"/>
       <c r="I43" s="217"/>
       <c r="K43" s="214"/>
       <c r="L43" s="214"/>
-      <c r="M43" s="262"/>
-      <c r="N43" s="262"/>
-      <c r="O43" s="262"/>
-    </row>
-    <row r="44" spans="1:15" s="180" customFormat="1">
+      <c r="M43" s="214"/>
+      <c r="N43" s="260"/>
+      <c r="O43" s="260"/>
+      <c r="P43" s="260"/>
+    </row>
+    <row r="44" spans="1:16" s="180" customFormat="1">
       <c r="A44" s="213"/>
       <c r="B44" s="214"/>
       <c r="C44" s="215"/>
       <c r="D44" s="216"/>
       <c r="E44" s="216"/>
       <c r="F44" s="216"/>
-      <c r="G44" s="322"/>
+      <c r="G44" s="319"/>
       <c r="H44" s="217"/>
       <c r="I44" s="217"/>
       <c r="K44" s="214"/>
       <c r="L44" s="214"/>
-      <c r="M44" s="262"/>
-      <c r="N44" s="262"/>
-      <c r="O44" s="262"/>
-    </row>
-    <row r="45" spans="1:15" s="180" customFormat="1">
+      <c r="M44" s="214"/>
+      <c r="N44" s="260"/>
+      <c r="O44" s="260"/>
+      <c r="P44" s="260"/>
+    </row>
+    <row r="45" spans="1:16" s="180" customFormat="1">
       <c r="A45" s="213"/>
       <c r="B45" s="214"/>
       <c r="C45" s="215"/>
       <c r="D45" s="216"/>
       <c r="E45" s="216"/>
       <c r="F45" s="216"/>
-      <c r="G45" s="322"/>
+      <c r="G45" s="319"/>
       <c r="H45" s="217"/>
       <c r="I45" s="217"/>
       <c r="K45" s="214"/>
       <c r="L45" s="214"/>
-      <c r="M45" s="262"/>
-      <c r="N45" s="262"/>
-      <c r="O45" s="262"/>
-    </row>
-    <row r="46" spans="1:15" s="180" customFormat="1">
+      <c r="M45" s="214"/>
+      <c r="N45" s="260"/>
+      <c r="O45" s="260"/>
+      <c r="P45" s="260"/>
+    </row>
+    <row r="46" spans="1:16" s="180" customFormat="1">
       <c r="A46" s="213"/>
       <c r="B46" s="214"/>
       <c r="C46" s="215"/>
       <c r="D46" s="216"/>
       <c r="E46" s="216"/>
       <c r="F46" s="216"/>
-      <c r="G46" s="323"/>
+      <c r="G46" s="320"/>
       <c r="H46" s="217"/>
       <c r="I46" s="217"/>
       <c r="K46" s="214"/>
       <c r="L46" s="214"/>
-      <c r="M46" s="262"/>
-      <c r="N46" s="262"/>
-      <c r="O46" s="262"/>
-    </row>
-    <row r="47" spans="1:15" s="180" customFormat="1">
+      <c r="M46" s="214"/>
+      <c r="N46" s="260"/>
+      <c r="O46" s="260"/>
+      <c r="P46" s="260"/>
+    </row>
+    <row r="47" spans="1:16" s="180" customFormat="1">
       <c r="A47" s="213"/>
       <c r="B47" s="214"/>
       <c r="C47" s="215"/>
       <c r="D47" s="216"/>
       <c r="E47" s="216"/>
       <c r="F47" s="216"/>
-      <c r="G47" s="323"/>
+      <c r="G47" s="320"/>
       <c r="H47" s="217"/>
       <c r="I47" s="217"/>
       <c r="K47" s="214"/>
       <c r="L47" s="214"/>
-      <c r="M47" s="262"/>
-      <c r="N47" s="262"/>
-      <c r="O47" s="262"/>
-    </row>
-    <row r="48" spans="1:15" s="180" customFormat="1">
+      <c r="M47" s="214"/>
+      <c r="N47" s="260"/>
+      <c r="O47" s="260"/>
+      <c r="P47" s="260"/>
+    </row>
+    <row r="48" spans="1:16" s="180" customFormat="1">
       <c r="A48" s="213"/>
       <c r="B48" s="214"/>
       <c r="C48" s="215"/>
       <c r="D48" s="216"/>
       <c r="E48" s="216"/>
       <c r="F48" s="216"/>
-      <c r="G48" s="323"/>
+      <c r="G48" s="320"/>
       <c r="H48" s="217"/>
       <c r="I48" s="217"/>
       <c r="K48" s="214"/>
       <c r="L48" s="214"/>
-      <c r="M48" s="262"/>
-      <c r="N48" s="262"/>
-      <c r="O48" s="262"/>
-    </row>
-    <row r="49" spans="1:15" s="180" customFormat="1">
+      <c r="M48" s="214"/>
+      <c r="N48" s="260"/>
+      <c r="O48" s="260"/>
+      <c r="P48" s="260"/>
+    </row>
+    <row r="49" spans="1:16" s="180" customFormat="1">
       <c r="A49" s="213"/>
       <c r="B49" s="214"/>
       <c r="C49" s="215"/>
@@ -5763,11 +5844,12 @@
       <c r="I49" s="217"/>
       <c r="K49" s="214"/>
       <c r="L49" s="214"/>
-      <c r="M49" s="262"/>
-      <c r="N49" s="262"/>
-      <c r="O49" s="262"/>
-    </row>
-    <row r="50" spans="1:15" s="180" customFormat="1">
+      <c r="M49" s="214"/>
+      <c r="N49" s="260"/>
+      <c r="O49" s="260"/>
+      <c r="P49" s="260"/>
+    </row>
+    <row r="50" spans="1:16" s="180" customFormat="1">
       <c r="A50" s="213"/>
       <c r="B50" s="214"/>
       <c r="C50" s="215"/>
@@ -5779,11 +5861,12 @@
       <c r="I50" s="217"/>
       <c r="K50" s="214"/>
       <c r="L50" s="214"/>
-      <c r="M50" s="262"/>
-      <c r="N50" s="262"/>
-      <c r="O50" s="262"/>
-    </row>
-    <row r="51" spans="1:15" s="180" customFormat="1">
+      <c r="M50" s="214"/>
+      <c r="N50" s="260"/>
+      <c r="O50" s="260"/>
+      <c r="P50" s="260"/>
+    </row>
+    <row r="51" spans="1:16" s="180" customFormat="1">
       <c r="A51" s="213"/>
       <c r="B51" s="214"/>
       <c r="C51" s="215"/>
@@ -5795,11 +5878,12 @@
       <c r="I51" s="217"/>
       <c r="K51" s="214"/>
       <c r="L51" s="214"/>
-      <c r="M51" s="262"/>
-      <c r="N51" s="262"/>
-      <c r="O51" s="262"/>
-    </row>
-    <row r="52" spans="1:15" s="180" customFormat="1">
+      <c r="M51" s="214"/>
+      <c r="N51" s="260"/>
+      <c r="O51" s="260"/>
+      <c r="P51" s="260"/>
+    </row>
+    <row r="52" spans="1:16" s="180" customFormat="1">
       <c r="A52" s="213"/>
       <c r="B52" s="214"/>
       <c r="C52" s="215"/>
@@ -5811,11 +5895,12 @@
       <c r="I52" s="217"/>
       <c r="K52" s="214"/>
       <c r="L52" s="214"/>
-      <c r="M52" s="262"/>
-      <c r="N52" s="262"/>
-      <c r="O52" s="262"/>
-    </row>
-    <row r="53" spans="1:15" s="180" customFormat="1">
+      <c r="M52" s="214"/>
+      <c r="N52" s="260"/>
+      <c r="O52" s="260"/>
+      <c r="P52" s="260"/>
+    </row>
+    <row r="53" spans="1:16" s="180" customFormat="1">
       <c r="A53" s="213"/>
       <c r="B53" s="214"/>
       <c r="C53" s="215"/>
@@ -5827,11 +5912,12 @@
       <c r="I53" s="217"/>
       <c r="K53" s="214"/>
       <c r="L53" s="214"/>
-      <c r="M53" s="262"/>
-      <c r="N53" s="262"/>
-      <c r="O53" s="262"/>
-    </row>
-    <row r="54" spans="1:15" s="180" customFormat="1">
+      <c r="M53" s="214"/>
+      <c r="N53" s="260"/>
+      <c r="O53" s="260"/>
+      <c r="P53" s="260"/>
+    </row>
+    <row r="54" spans="1:16" s="180" customFormat="1">
       <c r="A54" s="213"/>
       <c r="B54" s="214"/>
       <c r="C54" s="215"/>
@@ -5843,11 +5929,12 @@
       <c r="I54" s="217"/>
       <c r="K54" s="214"/>
       <c r="L54" s="214"/>
-      <c r="M54" s="262"/>
-      <c r="N54" s="262"/>
-      <c r="O54" s="262"/>
-    </row>
-    <row r="55" spans="1:15" s="180" customFormat="1">
+      <c r="M54" s="214"/>
+      <c r="N54" s="260"/>
+      <c r="O54" s="260"/>
+      <c r="P54" s="260"/>
+    </row>
+    <row r="55" spans="1:16" s="180" customFormat="1">
       <c r="A55" s="213"/>
       <c r="B55" s="214"/>
       <c r="C55" s="215"/>
@@ -5859,11 +5946,12 @@
       <c r="I55" s="217"/>
       <c r="K55" s="214"/>
       <c r="L55" s="214"/>
-      <c r="M55" s="262"/>
-      <c r="N55" s="262"/>
-      <c r="O55" s="262"/>
-    </row>
-    <row r="56" spans="1:15" s="180" customFormat="1">
+      <c r="M55" s="214"/>
+      <c r="N55" s="260"/>
+      <c r="O55" s="260"/>
+      <c r="P55" s="260"/>
+    </row>
+    <row r="56" spans="1:16" s="180" customFormat="1">
       <c r="A56" s="213"/>
       <c r="B56" s="214"/>
       <c r="C56" s="215"/>
@@ -5875,11 +5963,12 @@
       <c r="I56" s="217"/>
       <c r="K56" s="214"/>
       <c r="L56" s="214"/>
-      <c r="M56" s="262"/>
-      <c r="N56" s="262"/>
-      <c r="O56" s="262"/>
-    </row>
-    <row r="57" spans="1:15" s="180" customFormat="1">
+      <c r="M56" s="214"/>
+      <c r="N56" s="260"/>
+      <c r="O56" s="260"/>
+      <c r="P56" s="260"/>
+    </row>
+    <row r="57" spans="1:16" s="180" customFormat="1">
       <c r="A57" s="213"/>
       <c r="B57" s="214"/>
       <c r="C57" s="215"/>
@@ -5891,11 +5980,12 @@
       <c r="I57" s="217"/>
       <c r="K57" s="214"/>
       <c r="L57" s="214"/>
-      <c r="M57" s="262"/>
-      <c r="N57" s="262"/>
-      <c r="O57" s="262"/>
-    </row>
-    <row r="58" spans="1:15" s="180" customFormat="1">
+      <c r="M57" s="214"/>
+      <c r="N57" s="260"/>
+      <c r="O57" s="260"/>
+      <c r="P57" s="260"/>
+    </row>
+    <row r="58" spans="1:16" s="180" customFormat="1">
       <c r="A58" s="213"/>
       <c r="B58" s="214"/>
       <c r="C58" s="215"/>
@@ -5907,11 +5997,12 @@
       <c r="I58" s="217"/>
       <c r="K58" s="214"/>
       <c r="L58" s="214"/>
-      <c r="M58" s="262"/>
-      <c r="N58" s="262"/>
-      <c r="O58" s="262"/>
-    </row>
-    <row r="59" spans="1:15" s="180" customFormat="1">
+      <c r="M58" s="214"/>
+      <c r="N58" s="260"/>
+      <c r="O58" s="260"/>
+      <c r="P58" s="260"/>
+    </row>
+    <row r="59" spans="1:16" s="180" customFormat="1">
       <c r="A59" s="213"/>
       <c r="B59" s="214"/>
       <c r="C59" s="215"/>
@@ -5923,11 +6014,12 @@
       <c r="I59" s="217"/>
       <c r="K59" s="214"/>
       <c r="L59" s="214"/>
-      <c r="M59" s="262"/>
-      <c r="N59" s="262"/>
-      <c r="O59" s="262"/>
-    </row>
-    <row r="60" spans="1:15" s="180" customFormat="1">
+      <c r="M59" s="214"/>
+      <c r="N59" s="260"/>
+      <c r="O59" s="260"/>
+      <c r="P59" s="260"/>
+    </row>
+    <row r="60" spans="1:16" s="180" customFormat="1">
       <c r="A60" s="213"/>
       <c r="B60" s="214"/>
       <c r="C60" s="215"/>
@@ -5939,11 +6031,12 @@
       <c r="I60" s="217"/>
       <c r="K60" s="214"/>
       <c r="L60" s="214"/>
-      <c r="M60" s="262"/>
-      <c r="N60" s="262"/>
-      <c r="O60" s="262"/>
-    </row>
-    <row r="61" spans="1:15" s="180" customFormat="1">
+      <c r="M60" s="214"/>
+      <c r="N60" s="260"/>
+      <c r="O60" s="260"/>
+      <c r="P60" s="260"/>
+    </row>
+    <row r="61" spans="1:16" s="180" customFormat="1">
       <c r="A61" s="213"/>
       <c r="B61" s="214"/>
       <c r="C61" s="215"/>
@@ -5955,11 +6048,12 @@
       <c r="I61" s="217"/>
       <c r="K61" s="214"/>
       <c r="L61" s="214"/>
-      <c r="M61" s="262"/>
-      <c r="N61" s="262"/>
-      <c r="O61" s="262"/>
-    </row>
-    <row r="62" spans="1:15" s="180" customFormat="1">
+      <c r="M61" s="214"/>
+      <c r="N61" s="260"/>
+      <c r="O61" s="260"/>
+      <c r="P61" s="260"/>
+    </row>
+    <row r="62" spans="1:16" s="180" customFormat="1">
       <c r="A62" s="213"/>
       <c r="B62" s="214"/>
       <c r="C62" s="215"/>
@@ -5971,11 +6065,12 @@
       <c r="I62" s="217"/>
       <c r="K62" s="214"/>
       <c r="L62" s="214"/>
-      <c r="M62" s="262"/>
-      <c r="N62" s="262"/>
-      <c r="O62" s="262"/>
-    </row>
-    <row r="63" spans="1:15" s="180" customFormat="1">
+      <c r="M62" s="214"/>
+      <c r="N62" s="260"/>
+      <c r="O62" s="260"/>
+      <c r="P62" s="260"/>
+    </row>
+    <row r="63" spans="1:16" s="180" customFormat="1">
       <c r="A63" s="213"/>
       <c r="B63" s="214"/>
       <c r="C63" s="215"/>
@@ -5987,11 +6082,12 @@
       <c r="I63" s="217"/>
       <c r="K63" s="214"/>
       <c r="L63" s="214"/>
-      <c r="M63" s="262"/>
-      <c r="N63" s="262"/>
-      <c r="O63" s="262"/>
-    </row>
-    <row r="64" spans="1:15" s="180" customFormat="1">
+      <c r="M63" s="214"/>
+      <c r="N63" s="260"/>
+      <c r="O63" s="260"/>
+      <c r="P63" s="260"/>
+    </row>
+    <row r="64" spans="1:16" s="180" customFormat="1">
       <c r="A64" s="213"/>
       <c r="B64" s="214"/>
       <c r="C64" s="215"/>
@@ -6003,11 +6099,12 @@
       <c r="I64" s="217"/>
       <c r="K64" s="214"/>
       <c r="L64" s="214"/>
-      <c r="M64" s="262"/>
-      <c r="N64" s="262"/>
-      <c r="O64" s="262"/>
-    </row>
-    <row r="65" spans="1:15" s="180" customFormat="1">
+      <c r="M64" s="214"/>
+      <c r="N64" s="260"/>
+      <c r="O64" s="260"/>
+      <c r="P64" s="260"/>
+    </row>
+    <row r="65" spans="1:16" s="180" customFormat="1">
       <c r="A65" s="213"/>
       <c r="B65" s="214"/>
       <c r="C65" s="215"/>
@@ -6019,11 +6116,12 @@
       <c r="I65" s="217"/>
       <c r="K65" s="214"/>
       <c r="L65" s="214"/>
-      <c r="M65" s="262"/>
-      <c r="N65" s="262"/>
-      <c r="O65" s="262"/>
-    </row>
-    <row r="66" spans="1:15" s="180" customFormat="1">
+      <c r="M65" s="214"/>
+      <c r="N65" s="260"/>
+      <c r="O65" s="260"/>
+      <c r="P65" s="260"/>
+    </row>
+    <row r="66" spans="1:16" s="180" customFormat="1">
       <c r="A66" s="213"/>
       <c r="B66" s="214"/>
       <c r="C66" s="215"/>
@@ -6035,11 +6133,12 @@
       <c r="I66" s="217"/>
       <c r="K66" s="214"/>
       <c r="L66" s="214"/>
-      <c r="M66" s="262"/>
-      <c r="N66" s="262"/>
-      <c r="O66" s="262"/>
-    </row>
-    <row r="67" spans="1:15" s="180" customFormat="1">
+      <c r="M66" s="214"/>
+      <c r="N66" s="260"/>
+      <c r="O66" s="260"/>
+      <c r="P66" s="260"/>
+    </row>
+    <row r="67" spans="1:16" s="180" customFormat="1">
       <c r="A67" s="213"/>
       <c r="B67" s="214"/>
       <c r="C67" s="215"/>
@@ -6051,11 +6150,12 @@
       <c r="I67" s="217"/>
       <c r="K67" s="214"/>
       <c r="L67" s="214"/>
-      <c r="M67" s="262"/>
-      <c r="N67" s="262"/>
-      <c r="O67" s="262"/>
-    </row>
-    <row r="68" spans="1:15" s="180" customFormat="1">
+      <c r="M67" s="214"/>
+      <c r="N67" s="260"/>
+      <c r="O67" s="260"/>
+      <c r="P67" s="260"/>
+    </row>
+    <row r="68" spans="1:16" s="180" customFormat="1">
       <c r="A68" s="213"/>
       <c r="B68" s="214"/>
       <c r="C68" s="215"/>
@@ -6067,11 +6167,12 @@
       <c r="I68" s="217"/>
       <c r="K68" s="214"/>
       <c r="L68" s="214"/>
-      <c r="M68" s="262"/>
-      <c r="N68" s="262"/>
-      <c r="O68" s="262"/>
-    </row>
-    <row r="69" spans="1:15" s="180" customFormat="1">
+      <c r="M68" s="214"/>
+      <c r="N68" s="260"/>
+      <c r="O68" s="260"/>
+      <c r="P68" s="260"/>
+    </row>
+    <row r="69" spans="1:16" s="180" customFormat="1">
       <c r="A69" s="213"/>
       <c r="B69" s="214"/>
       <c r="C69" s="215"/>
@@ -6083,11 +6184,12 @@
       <c r="I69" s="217"/>
       <c r="K69" s="214"/>
       <c r="L69" s="214"/>
-      <c r="M69" s="262"/>
-      <c r="N69" s="262"/>
-      <c r="O69" s="262"/>
-    </row>
-    <row r="70" spans="1:15" s="180" customFormat="1">
+      <c r="M69" s="214"/>
+      <c r="N69" s="260"/>
+      <c r="O69" s="260"/>
+      <c r="P69" s="260"/>
+    </row>
+    <row r="70" spans="1:16" s="180" customFormat="1">
       <c r="A70" s="213"/>
       <c r="B70" s="214"/>
       <c r="C70" s="215"/>
@@ -6099,11 +6201,12 @@
       <c r="I70" s="217"/>
       <c r="K70" s="214"/>
       <c r="L70" s="214"/>
-      <c r="M70" s="262"/>
-      <c r="N70" s="262"/>
-      <c r="O70" s="262"/>
-    </row>
-    <row r="71" spans="1:15" s="180" customFormat="1">
+      <c r="M70" s="214"/>
+      <c r="N70" s="260"/>
+      <c r="O70" s="260"/>
+      <c r="P70" s="260"/>
+    </row>
+    <row r="71" spans="1:16" s="180" customFormat="1">
       <c r="A71" s="213"/>
       <c r="B71" s="214"/>
       <c r="C71" s="215"/>
@@ -6115,11 +6218,12 @@
       <c r="I71" s="217"/>
       <c r="K71" s="214"/>
       <c r="L71" s="214"/>
-      <c r="M71" s="262"/>
-      <c r="N71" s="262"/>
-      <c r="O71" s="262"/>
-    </row>
-    <row r="72" spans="1:15" s="180" customFormat="1">
+      <c r="M71" s="214"/>
+      <c r="N71" s="260"/>
+      <c r="O71" s="260"/>
+      <c r="P71" s="260"/>
+    </row>
+    <row r="72" spans="1:16" s="180" customFormat="1">
       <c r="A72" s="213"/>
       <c r="B72" s="214"/>
       <c r="C72" s="215"/>
@@ -6131,11 +6235,12 @@
       <c r="I72" s="217"/>
       <c r="K72" s="214"/>
       <c r="L72" s="214"/>
-      <c r="M72" s="262"/>
-      <c r="N72" s="262"/>
-      <c r="O72" s="262"/>
-    </row>
-    <row r="73" spans="1:15" s="180" customFormat="1">
+      <c r="M72" s="214"/>
+      <c r="N72" s="260"/>
+      <c r="O72" s="260"/>
+      <c r="P72" s="260"/>
+    </row>
+    <row r="73" spans="1:16" s="180" customFormat="1">
       <c r="A73" s="213"/>
       <c r="B73" s="214"/>
       <c r="C73" s="215"/>
@@ -6147,11 +6252,12 @@
       <c r="I73" s="217"/>
       <c r="K73" s="214"/>
       <c r="L73" s="214"/>
-      <c r="M73" s="262"/>
-      <c r="N73" s="262"/>
-      <c r="O73" s="262"/>
-    </row>
-    <row r="74" spans="1:15" s="180" customFormat="1">
+      <c r="M73" s="214"/>
+      <c r="N73" s="260"/>
+      <c r="O73" s="260"/>
+      <c r="P73" s="260"/>
+    </row>
+    <row r="74" spans="1:16" s="180" customFormat="1">
       <c r="A74" s="213"/>
       <c r="B74" s="214"/>
       <c r="C74" s="215"/>
@@ -6163,11 +6269,12 @@
       <c r="I74" s="217"/>
       <c r="K74" s="214"/>
       <c r="L74" s="214"/>
-      <c r="M74" s="262"/>
-      <c r="N74" s="262"/>
-      <c r="O74" s="262"/>
-    </row>
-    <row r="75" spans="1:15" s="180" customFormat="1">
+      <c r="M74" s="214"/>
+      <c r="N74" s="260"/>
+      <c r="O74" s="260"/>
+      <c r="P74" s="260"/>
+    </row>
+    <row r="75" spans="1:16" s="180" customFormat="1">
       <c r="A75" s="213"/>
       <c r="B75" s="214"/>
       <c r="C75" s="215"/>
@@ -6179,11 +6286,12 @@
       <c r="I75" s="217"/>
       <c r="K75" s="214"/>
       <c r="L75" s="214"/>
-      <c r="M75" s="262"/>
-      <c r="N75" s="262"/>
-      <c r="O75" s="262"/>
-    </row>
-    <row r="76" spans="1:15" s="180" customFormat="1">
+      <c r="M75" s="214"/>
+      <c r="N75" s="260"/>
+      <c r="O75" s="260"/>
+      <c r="P75" s="260"/>
+    </row>
+    <row r="76" spans="1:16" s="180" customFormat="1">
       <c r="A76" s="213"/>
       <c r="B76" s="214"/>
       <c r="C76" s="215"/>
@@ -6195,11 +6303,12 @@
       <c r="I76" s="217"/>
       <c r="K76" s="214"/>
       <c r="L76" s="214"/>
-      <c r="M76" s="262"/>
-      <c r="N76" s="262"/>
-      <c r="O76" s="262"/>
-    </row>
-    <row r="77" spans="1:15" s="180" customFormat="1">
+      <c r="M76" s="214"/>
+      <c r="N76" s="260"/>
+      <c r="O76" s="260"/>
+      <c r="P76" s="260"/>
+    </row>
+    <row r="77" spans="1:16" s="180" customFormat="1">
       <c r="A77" s="213"/>
       <c r="B77" s="214"/>
       <c r="C77" s="215"/>
@@ -6211,11 +6320,12 @@
       <c r="I77" s="217"/>
       <c r="K77" s="214"/>
       <c r="L77" s="214"/>
-      <c r="M77" s="262"/>
-      <c r="N77" s="262"/>
-      <c r="O77" s="262"/>
-    </row>
-    <row r="78" spans="1:15" s="180" customFormat="1">
+      <c r="M77" s="214"/>
+      <c r="N77" s="260"/>
+      <c r="O77" s="260"/>
+      <c r="P77" s="260"/>
+    </row>
+    <row r="78" spans="1:16" s="180" customFormat="1">
       <c r="A78" s="213"/>
       <c r="B78" s="214"/>
       <c r="C78" s="215"/>
@@ -6227,11 +6337,12 @@
       <c r="I78" s="217"/>
       <c r="K78" s="214"/>
       <c r="L78" s="214"/>
-      <c r="M78" s="262"/>
-      <c r="N78" s="262"/>
-      <c r="O78" s="262"/>
-    </row>
-    <row r="79" spans="1:15" s="180" customFormat="1">
+      <c r="M78" s="214"/>
+      <c r="N78" s="260"/>
+      <c r="O78" s="260"/>
+      <c r="P78" s="260"/>
+    </row>
+    <row r="79" spans="1:16" s="180" customFormat="1">
       <c r="A79" s="213"/>
       <c r="B79" s="214"/>
       <c r="C79" s="215"/>
@@ -6243,11 +6354,12 @@
       <c r="I79" s="217"/>
       <c r="K79" s="214"/>
       <c r="L79" s="214"/>
-      <c r="M79" s="262"/>
-      <c r="N79" s="262"/>
-      <c r="O79" s="262"/>
-    </row>
-    <row r="80" spans="1:15" s="180" customFormat="1">
+      <c r="M79" s="214"/>
+      <c r="N79" s="260"/>
+      <c r="O79" s="260"/>
+      <c r="P79" s="260"/>
+    </row>
+    <row r="80" spans="1:16" s="180" customFormat="1">
       <c r="A80" s="213"/>
       <c r="B80" s="214"/>
       <c r="C80" s="215"/>
@@ -6259,11 +6371,12 @@
       <c r="I80" s="217"/>
       <c r="K80" s="214"/>
       <c r="L80" s="214"/>
-      <c r="M80" s="262"/>
-      <c r="N80" s="262"/>
-      <c r="O80" s="262"/>
-    </row>
-    <row r="81" spans="1:15" s="180" customFormat="1">
+      <c r="M80" s="214"/>
+      <c r="N80" s="260"/>
+      <c r="O80" s="260"/>
+      <c r="P80" s="260"/>
+    </row>
+    <row r="81" spans="1:16" s="180" customFormat="1">
       <c r="A81" s="213"/>
       <c r="B81" s="214"/>
       <c r="C81" s="215"/>
@@ -6275,11 +6388,12 @@
       <c r="I81" s="217"/>
       <c r="K81" s="214"/>
       <c r="L81" s="214"/>
-      <c r="M81" s="262"/>
-      <c r="N81" s="262"/>
-      <c r="O81" s="262"/>
-    </row>
-    <row r="82" spans="1:15" s="180" customFormat="1">
+      <c r="M81" s="214"/>
+      <c r="N81" s="260"/>
+      <c r="O81" s="260"/>
+      <c r="P81" s="260"/>
+    </row>
+    <row r="82" spans="1:16" s="180" customFormat="1">
       <c r="A82" s="213"/>
       <c r="B82" s="214"/>
       <c r="C82" s="215"/>
@@ -6291,11 +6405,12 @@
       <c r="I82" s="217"/>
       <c r="K82" s="214"/>
       <c r="L82" s="214"/>
-      <c r="M82" s="262"/>
-      <c r="N82" s="262"/>
-      <c r="O82" s="262"/>
-    </row>
-    <row r="83" spans="1:15" s="180" customFormat="1">
+      <c r="M82" s="214"/>
+      <c r="N82" s="260"/>
+      <c r="O82" s="260"/>
+      <c r="P82" s="260"/>
+    </row>
+    <row r="83" spans="1:16" s="180" customFormat="1">
       <c r="A83" s="213"/>
       <c r="B83" s="214"/>
       <c r="C83" s="215"/>
@@ -6307,11 +6422,12 @@
       <c r="I83" s="217"/>
       <c r="K83" s="214"/>
       <c r="L83" s="214"/>
-      <c r="M83" s="262"/>
-      <c r="N83" s="262"/>
-      <c r="O83" s="262"/>
-    </row>
-    <row r="84" spans="1:15" s="180" customFormat="1">
+      <c r="M83" s="214"/>
+      <c r="N83" s="260"/>
+      <c r="O83" s="260"/>
+      <c r="P83" s="260"/>
+    </row>
+    <row r="84" spans="1:16" s="180" customFormat="1">
       <c r="A84" s="213"/>
       <c r="B84" s="214"/>
       <c r="C84" s="215"/>
@@ -6323,11 +6439,12 @@
       <c r="I84" s="217"/>
       <c r="K84" s="214"/>
       <c r="L84" s="214"/>
-      <c r="M84" s="262"/>
-      <c r="N84" s="262"/>
-      <c r="O84" s="262"/>
-    </row>
-    <row r="85" spans="1:15" s="180" customFormat="1">
+      <c r="M84" s="214"/>
+      <c r="N84" s="260"/>
+      <c r="O84" s="260"/>
+      <c r="P84" s="260"/>
+    </row>
+    <row r="85" spans="1:16" s="180" customFormat="1">
       <c r="A85" s="213"/>
       <c r="B85" s="214"/>
       <c r="C85" s="215"/>
@@ -6339,11 +6456,12 @@
       <c r="I85" s="217"/>
       <c r="K85" s="214"/>
       <c r="L85" s="214"/>
-      <c r="M85" s="262"/>
-      <c r="N85" s="262"/>
-      <c r="O85" s="262"/>
-    </row>
-    <row r="86" spans="1:15" s="180" customFormat="1">
+      <c r="M85" s="214"/>
+      <c r="N85" s="260"/>
+      <c r="O85" s="260"/>
+      <c r="P85" s="260"/>
+    </row>
+    <row r="86" spans="1:16" s="180" customFormat="1">
       <c r="A86" s="213"/>
       <c r="B86" s="214"/>
       <c r="C86" s="215"/>
@@ -6355,11 +6473,12 @@
       <c r="I86" s="217"/>
       <c r="K86" s="214"/>
       <c r="L86" s="214"/>
-      <c r="M86" s="262"/>
-      <c r="N86" s="262"/>
-      <c r="O86" s="262"/>
-    </row>
-    <row r="87" spans="1:15" s="180" customFormat="1">
+      <c r="M86" s="214"/>
+      <c r="N86" s="260"/>
+      <c r="O86" s="260"/>
+      <c r="P86" s="260"/>
+    </row>
+    <row r="87" spans="1:16" s="180" customFormat="1">
       <c r="A87" s="213"/>
       <c r="B87" s="214"/>
       <c r="C87" s="215"/>
@@ -6371,11 +6490,12 @@
       <c r="I87" s="217"/>
       <c r="K87" s="214"/>
       <c r="L87" s="214"/>
-      <c r="M87" s="262"/>
-      <c r="N87" s="262"/>
-      <c r="O87" s="262"/>
-    </row>
-    <row r="88" spans="1:15" s="180" customFormat="1">
+      <c r="M87" s="214"/>
+      <c r="N87" s="260"/>
+      <c r="O87" s="260"/>
+      <c r="P87" s="260"/>
+    </row>
+    <row r="88" spans="1:16" s="180" customFormat="1">
       <c r="A88" s="213"/>
       <c r="B88" s="214"/>
       <c r="C88" s="215"/>
@@ -6387,11 +6507,12 @@
       <c r="I88" s="217"/>
       <c r="K88" s="214"/>
       <c r="L88" s="214"/>
-      <c r="M88" s="262"/>
-      <c r="N88" s="262"/>
-      <c r="O88" s="262"/>
-    </row>
-    <row r="89" spans="1:15" s="180" customFormat="1">
+      <c r="M88" s="214"/>
+      <c r="N88" s="260"/>
+      <c r="O88" s="260"/>
+      <c r="P88" s="260"/>
+    </row>
+    <row r="89" spans="1:16" s="180" customFormat="1">
       <c r="A89" s="213"/>
       <c r="B89" s="214"/>
       <c r="C89" s="215"/>
@@ -6403,11 +6524,12 @@
       <c r="I89" s="217"/>
       <c r="K89" s="214"/>
       <c r="L89" s="214"/>
-      <c r="M89" s="262"/>
-      <c r="N89" s="262"/>
-      <c r="O89" s="262"/>
-    </row>
-    <row r="90" spans="1:15" s="180" customFormat="1">
+      <c r="M89" s="214"/>
+      <c r="N89" s="260"/>
+      <c r="O89" s="260"/>
+      <c r="P89" s="260"/>
+    </row>
+    <row r="90" spans="1:16" s="180" customFormat="1">
       <c r="A90" s="213"/>
       <c r="B90" s="214"/>
       <c r="C90" s="215"/>
@@ -6419,11 +6541,12 @@
       <c r="I90" s="217"/>
       <c r="K90" s="214"/>
       <c r="L90" s="214"/>
-      <c r="M90" s="262"/>
-      <c r="N90" s="262"/>
-      <c r="O90" s="262"/>
-    </row>
-    <row r="91" spans="1:15" s="180" customFormat="1">
+      <c r="M90" s="214"/>
+      <c r="N90" s="260"/>
+      <c r="O90" s="260"/>
+      <c r="P90" s="260"/>
+    </row>
+    <row r="91" spans="1:16" s="180" customFormat="1">
       <c r="A91" s="213"/>
       <c r="B91" s="214"/>
       <c r="C91" s="215"/>
@@ -6435,11 +6558,12 @@
       <c r="I91" s="217"/>
       <c r="K91" s="214"/>
       <c r="L91" s="214"/>
-      <c r="M91" s="262"/>
-      <c r="N91" s="262"/>
-      <c r="O91" s="262"/>
-    </row>
-    <row r="92" spans="1:15" s="180" customFormat="1">
+      <c r="M91" s="214"/>
+      <c r="N91" s="260"/>
+      <c r="O91" s="260"/>
+      <c r="P91" s="260"/>
+    </row>
+    <row r="92" spans="1:16" s="180" customFormat="1">
       <c r="A92" s="213"/>
       <c r="B92" s="214"/>
       <c r="C92" s="215"/>
@@ -6451,11 +6575,12 @@
       <c r="I92" s="217"/>
       <c r="K92" s="214"/>
       <c r="L92" s="214"/>
-      <c r="M92" s="262"/>
-      <c r="N92" s="262"/>
-      <c r="O92" s="262"/>
-    </row>
-    <row r="93" spans="1:15" s="180" customFormat="1">
+      <c r="M92" s="214"/>
+      <c r="N92" s="260"/>
+      <c r="O92" s="260"/>
+      <c r="P92" s="260"/>
+    </row>
+    <row r="93" spans="1:16" s="180" customFormat="1">
       <c r="A93" s="213"/>
       <c r="B93" s="214"/>
       <c r="C93" s="215"/>
@@ -6467,11 +6592,12 @@
       <c r="I93" s="217"/>
       <c r="K93" s="214"/>
       <c r="L93" s="214"/>
-      <c r="M93" s="262"/>
-      <c r="N93" s="262"/>
-      <c r="O93" s="262"/>
-    </row>
-    <row r="94" spans="1:15" s="180" customFormat="1">
+      <c r="M93" s="214"/>
+      <c r="N93" s="260"/>
+      <c r="O93" s="260"/>
+      <c r="P93" s="260"/>
+    </row>
+    <row r="94" spans="1:16" s="180" customFormat="1">
       <c r="A94" s="213"/>
       <c r="B94" s="214"/>
       <c r="C94" s="215"/>
@@ -6483,11 +6609,12 @@
       <c r="I94" s="217"/>
       <c r="K94" s="214"/>
       <c r="L94" s="214"/>
-      <c r="M94" s="262"/>
-      <c r="N94" s="262"/>
-      <c r="O94" s="262"/>
-    </row>
-    <row r="95" spans="1:15" s="180" customFormat="1">
+      <c r="M94" s="214"/>
+      <c r="N94" s="260"/>
+      <c r="O94" s="260"/>
+      <c r="P94" s="260"/>
+    </row>
+    <row r="95" spans="1:16" s="180" customFormat="1">
       <c r="A95" s="213"/>
       <c r="B95" s="214"/>
       <c r="C95" s="215"/>
@@ -6499,11 +6626,12 @@
       <c r="I95" s="217"/>
       <c r="K95" s="214"/>
       <c r="L95" s="214"/>
-      <c r="M95" s="262"/>
-      <c r="N95" s="262"/>
-      <c r="O95" s="262"/>
-    </row>
-    <row r="96" spans="1:15" s="180" customFormat="1">
+      <c r="M95" s="214"/>
+      <c r="N95" s="260"/>
+      <c r="O95" s="260"/>
+      <c r="P95" s="260"/>
+    </row>
+    <row r="96" spans="1:16" s="180" customFormat="1">
       <c r="A96" s="213"/>
       <c r="B96" s="214"/>
       <c r="C96" s="215"/>
@@ -6515,11 +6643,12 @@
       <c r="I96" s="217"/>
       <c r="K96" s="214"/>
       <c r="L96" s="214"/>
-      <c r="M96" s="262"/>
-      <c r="N96" s="262"/>
-      <c r="O96" s="262"/>
-    </row>
-    <row r="97" spans="1:15" s="180" customFormat="1">
+      <c r="M96" s="214"/>
+      <c r="N96" s="260"/>
+      <c r="O96" s="260"/>
+      <c r="P96" s="260"/>
+    </row>
+    <row r="97" spans="1:16" s="180" customFormat="1">
       <c r="A97" s="213"/>
       <c r="B97" s="214"/>
       <c r="C97" s="215"/>
@@ -6531,11 +6660,12 @@
       <c r="I97" s="217"/>
       <c r="K97" s="214"/>
       <c r="L97" s="214"/>
-      <c r="M97" s="262"/>
-      <c r="N97" s="262"/>
-      <c r="O97" s="262"/>
-    </row>
-    <row r="98" spans="1:15" s="180" customFormat="1">
+      <c r="M97" s="214"/>
+      <c r="N97" s="260"/>
+      <c r="O97" s="260"/>
+      <c r="P97" s="260"/>
+    </row>
+    <row r="98" spans="1:16" s="180" customFormat="1">
       <c r="A98" s="213"/>
       <c r="B98" s="214"/>
       <c r="C98" s="215"/>
@@ -6547,11 +6677,12 @@
       <c r="I98" s="217"/>
       <c r="K98" s="214"/>
       <c r="L98" s="214"/>
-      <c r="M98" s="262"/>
-      <c r="N98" s="262"/>
-      <c r="O98" s="262"/>
-    </row>
-    <row r="99" spans="1:15" s="180" customFormat="1">
+      <c r="M98" s="214"/>
+      <c r="N98" s="260"/>
+      <c r="O98" s="260"/>
+      <c r="P98" s="260"/>
+    </row>
+    <row r="99" spans="1:16" s="180" customFormat="1">
       <c r="A99" s="213"/>
       <c r="B99" s="214"/>
       <c r="C99" s="215"/>
@@ -6563,11 +6694,12 @@
       <c r="I99" s="217"/>
       <c r="K99" s="214"/>
       <c r="L99" s="214"/>
-      <c r="M99" s="262"/>
-      <c r="N99" s="262"/>
-      <c r="O99" s="262"/>
-    </row>
-    <row r="100" spans="1:15" s="180" customFormat="1">
+      <c r="M99" s="214"/>
+      <c r="N99" s="260"/>
+      <c r="O99" s="260"/>
+      <c r="P99" s="260"/>
+    </row>
+    <row r="100" spans="1:16" s="180" customFormat="1">
       <c r="A100" s="213"/>
       <c r="B100" s="214"/>
       <c r="C100" s="215"/>
@@ -6579,11 +6711,12 @@
       <c r="I100" s="217"/>
       <c r="K100" s="214"/>
       <c r="L100" s="214"/>
-      <c r="M100" s="262"/>
-      <c r="N100" s="262"/>
-      <c r="O100" s="262"/>
-    </row>
-    <row r="101" spans="1:15" s="180" customFormat="1">
+      <c r="M100" s="214"/>
+      <c r="N100" s="260"/>
+      <c r="O100" s="260"/>
+      <c r="P100" s="260"/>
+    </row>
+    <row r="101" spans="1:16" s="180" customFormat="1">
       <c r="A101" s="213"/>
       <c r="B101" s="214"/>
       <c r="C101" s="215"/>
@@ -6595,11 +6728,12 @@
       <c r="I101" s="217"/>
       <c r="K101" s="214"/>
       <c r="L101" s="214"/>
-      <c r="M101" s="262"/>
-      <c r="N101" s="262"/>
-      <c r="O101" s="262"/>
-    </row>
-    <row r="102" spans="1:15" s="180" customFormat="1">
+      <c r="M101" s="214"/>
+      <c r="N101" s="260"/>
+      <c r="O101" s="260"/>
+      <c r="P101" s="260"/>
+    </row>
+    <row r="102" spans="1:16" s="180" customFormat="1">
       <c r="A102" s="213"/>
       <c r="B102" s="214"/>
       <c r="C102" s="215"/>
@@ -6611,11 +6745,12 @@
       <c r="I102" s="217"/>
       <c r="K102" s="214"/>
       <c r="L102" s="214"/>
-      <c r="M102" s="262"/>
-      <c r="N102" s="262"/>
-      <c r="O102" s="262"/>
-    </row>
-    <row r="103" spans="1:15" s="180" customFormat="1">
+      <c r="M102" s="214"/>
+      <c r="N102" s="260"/>
+      <c r="O102" s="260"/>
+      <c r="P102" s="260"/>
+    </row>
+    <row r="103" spans="1:16" s="180" customFormat="1">
       <c r="A103" s="213"/>
       <c r="B103" s="214"/>
       <c r="C103" s="215"/>
@@ -6627,11 +6762,12 @@
       <c r="I103" s="217"/>
       <c r="K103" s="214"/>
       <c r="L103" s="214"/>
-      <c r="M103" s="262"/>
-      <c r="N103" s="262"/>
-      <c r="O103" s="262"/>
-    </row>
-    <row r="104" spans="1:15" s="180" customFormat="1">
+      <c r="M103" s="214"/>
+      <c r="N103" s="260"/>
+      <c r="O103" s="260"/>
+      <c r="P103" s="260"/>
+    </row>
+    <row r="104" spans="1:16" s="180" customFormat="1">
       <c r="A104" s="213"/>
       <c r="B104" s="214"/>
       <c r="C104" s="215"/>
@@ -6643,11 +6779,12 @@
       <c r="I104" s="217"/>
       <c r="K104" s="214"/>
       <c r="L104" s="214"/>
-      <c r="M104" s="262"/>
-      <c r="N104" s="262"/>
-      <c r="O104" s="262"/>
-    </row>
-    <row r="105" spans="1:15" s="180" customFormat="1">
+      <c r="M104" s="214"/>
+      <c r="N104" s="260"/>
+      <c r="O104" s="260"/>
+      <c r="P104" s="260"/>
+    </row>
+    <row r="105" spans="1:16" s="180" customFormat="1">
       <c r="A105" s="213"/>
       <c r="B105" s="214"/>
       <c r="C105" s="215"/>
@@ -6659,11 +6796,12 @@
       <c r="I105" s="217"/>
       <c r="K105" s="214"/>
       <c r="L105" s="214"/>
-      <c r="M105" s="262"/>
-      <c r="N105" s="262"/>
-      <c r="O105" s="262"/>
-    </row>
-    <row r="106" spans="1:15" s="180" customFormat="1">
+      <c r="M105" s="214"/>
+      <c r="N105" s="260"/>
+      <c r="O105" s="260"/>
+      <c r="P105" s="260"/>
+    </row>
+    <row r="106" spans="1:16" s="180" customFormat="1">
       <c r="A106" s="213"/>
       <c r="B106" s="214"/>
       <c r="C106" s="215"/>
@@ -6675,11 +6813,12 @@
       <c r="I106" s="217"/>
       <c r="K106" s="214"/>
       <c r="L106" s="214"/>
-      <c r="M106" s="262"/>
-      <c r="N106" s="262"/>
-      <c r="O106" s="262"/>
-    </row>
-    <row r="107" spans="1:15" s="180" customFormat="1">
+      <c r="M106" s="214"/>
+      <c r="N106" s="260"/>
+      <c r="O106" s="260"/>
+      <c r="P106" s="260"/>
+    </row>
+    <row r="107" spans="1:16" s="180" customFormat="1">
       <c r="A107" s="213"/>
       <c r="B107" s="214"/>
       <c r="C107" s="215"/>
@@ -6691,11 +6830,12 @@
       <c r="I107" s="217"/>
       <c r="K107" s="214"/>
       <c r="L107" s="214"/>
-      <c r="M107" s="262"/>
-      <c r="N107" s="262"/>
-      <c r="O107" s="262"/>
-    </row>
-    <row r="108" spans="1:15" s="180" customFormat="1">
+      <c r="M107" s="214"/>
+      <c r="N107" s="260"/>
+      <c r="O107" s="260"/>
+      <c r="P107" s="260"/>
+    </row>
+    <row r="108" spans="1:16" s="180" customFormat="1">
       <c r="A108" s="213"/>
       <c r="B108" s="214"/>
       <c r="C108" s="215"/>
@@ -6707,11 +6847,12 @@
       <c r="I108" s="217"/>
       <c r="K108" s="214"/>
       <c r="L108" s="214"/>
-      <c r="M108" s="262"/>
-      <c r="N108" s="262"/>
-      <c r="O108" s="262"/>
-    </row>
-    <row r="109" spans="1:15" s="180" customFormat="1">
+      <c r="M108" s="214"/>
+      <c r="N108" s="260"/>
+      <c r="O108" s="260"/>
+      <c r="P108" s="260"/>
+    </row>
+    <row r="109" spans="1:16" s="180" customFormat="1">
       <c r="A109" s="213"/>
       <c r="B109" s="214"/>
       <c r="C109" s="215"/>
@@ -6723,11 +6864,12 @@
       <c r="I109" s="217"/>
       <c r="K109" s="214"/>
       <c r="L109" s="214"/>
-      <c r="M109" s="262"/>
-      <c r="N109" s="262"/>
-      <c r="O109" s="262"/>
-    </row>
-    <row r="110" spans="1:15" s="180" customFormat="1">
+      <c r="M109" s="214"/>
+      <c r="N109" s="260"/>
+      <c r="O109" s="260"/>
+      <c r="P109" s="260"/>
+    </row>
+    <row r="110" spans="1:16" s="180" customFormat="1">
       <c r="A110" s="213"/>
       <c r="B110" s="214"/>
       <c r="C110" s="215"/>
@@ -6739,11 +6881,12 @@
       <c r="I110" s="217"/>
       <c r="K110" s="214"/>
       <c r="L110" s="214"/>
-      <c r="M110" s="262"/>
-      <c r="N110" s="262"/>
-      <c r="O110" s="262"/>
-    </row>
-    <row r="111" spans="1:15" s="180" customFormat="1">
+      <c r="M110" s="214"/>
+      <c r="N110" s="260"/>
+      <c r="O110" s="260"/>
+      <c r="P110" s="260"/>
+    </row>
+    <row r="111" spans="1:16" s="180" customFormat="1">
       <c r="A111" s="213"/>
       <c r="B111" s="214"/>
       <c r="C111" s="215"/>
@@ -6755,11 +6898,12 @@
       <c r="I111" s="217"/>
       <c r="K111" s="214"/>
       <c r="L111" s="214"/>
-      <c r="M111" s="262"/>
-      <c r="N111" s="262"/>
-      <c r="O111" s="262"/>
-    </row>
-    <row r="112" spans="1:15" s="180" customFormat="1">
+      <c r="M111" s="214"/>
+      <c r="N111" s="260"/>
+      <c r="O111" s="260"/>
+      <c r="P111" s="260"/>
+    </row>
+    <row r="112" spans="1:16" s="180" customFormat="1">
       <c r="A112" s="213"/>
       <c r="B112" s="214"/>
       <c r="C112" s="215"/>
@@ -6771,11 +6915,12 @@
       <c r="I112" s="217"/>
       <c r="K112" s="214"/>
       <c r="L112" s="214"/>
-      <c r="M112" s="262"/>
-      <c r="N112" s="262"/>
-      <c r="O112" s="262"/>
-    </row>
-    <row r="113" spans="1:15" s="180" customFormat="1">
+      <c r="M112" s="214"/>
+      <c r="N112" s="260"/>
+      <c r="O112" s="260"/>
+      <c r="P112" s="260"/>
+    </row>
+    <row r="113" spans="1:16" s="180" customFormat="1">
       <c r="A113" s="213"/>
       <c r="B113" s="214"/>
       <c r="C113" s="215"/>
@@ -6787,11 +6932,12 @@
       <c r="I113" s="217"/>
       <c r="K113" s="214"/>
       <c r="L113" s="214"/>
-      <c r="M113" s="262"/>
-      <c r="N113" s="262"/>
-      <c r="O113" s="262"/>
-    </row>
-    <row r="114" spans="1:15" s="180" customFormat="1">
+      <c r="M113" s="214"/>
+      <c r="N113" s="260"/>
+      <c r="O113" s="260"/>
+      <c r="P113" s="260"/>
+    </row>
+    <row r="114" spans="1:16" s="180" customFormat="1">
       <c r="A114" s="213"/>
       <c r="B114" s="214"/>
       <c r="C114" s="215"/>
@@ -6803,11 +6949,12 @@
       <c r="I114" s="217"/>
       <c r="K114" s="214"/>
       <c r="L114" s="214"/>
-      <c r="M114" s="262"/>
-      <c r="N114" s="262"/>
-      <c r="O114" s="262"/>
-    </row>
-    <row r="115" spans="1:15" s="180" customFormat="1">
+      <c r="M114" s="214"/>
+      <c r="N114" s="260"/>
+      <c r="O114" s="260"/>
+      <c r="P114" s="260"/>
+    </row>
+    <row r="115" spans="1:16" s="180" customFormat="1">
       <c r="A115" s="213"/>
       <c r="B115" s="214"/>
       <c r="C115" s="215"/>
@@ -6819,11 +6966,12 @@
       <c r="I115" s="217"/>
       <c r="K115" s="214"/>
       <c r="L115" s="214"/>
-      <c r="M115" s="262"/>
-      <c r="N115" s="262"/>
-      <c r="O115" s="262"/>
-    </row>
-    <row r="116" spans="1:15" s="180" customFormat="1">
+      <c r="M115" s="214"/>
+      <c r="N115" s="260"/>
+      <c r="O115" s="260"/>
+      <c r="P115" s="260"/>
+    </row>
+    <row r="116" spans="1:16" s="180" customFormat="1">
       <c r="A116" s="213"/>
       <c r="B116" s="214"/>
       <c r="C116" s="215"/>
@@ -6835,11 +6983,12 @@
       <c r="I116" s="217"/>
       <c r="K116" s="214"/>
       <c r="L116" s="214"/>
-      <c r="M116" s="262"/>
-      <c r="N116" s="262"/>
-      <c r="O116" s="262"/>
-    </row>
-    <row r="117" spans="1:15" s="180" customFormat="1">
+      <c r="M116" s="214"/>
+      <c r="N116" s="260"/>
+      <c r="O116" s="260"/>
+      <c r="P116" s="260"/>
+    </row>
+    <row r="117" spans="1:16" s="180" customFormat="1">
       <c r="A117" s="213"/>
       <c r="B117" s="214"/>
       <c r="C117" s="215"/>
@@ -6851,11 +7000,12 @@
       <c r="I117" s="217"/>
       <c r="K117" s="214"/>
       <c r="L117" s="214"/>
-      <c r="M117" s="262"/>
-      <c r="N117" s="262"/>
-      <c r="O117" s="262"/>
-    </row>
-    <row r="118" spans="1:15" s="180" customFormat="1">
+      <c r="M117" s="214"/>
+      <c r="N117" s="260"/>
+      <c r="O117" s="260"/>
+      <c r="P117" s="260"/>
+    </row>
+    <row r="118" spans="1:16" s="180" customFormat="1">
       <c r="A118" s="213"/>
       <c r="B118" s="214"/>
       <c r="C118" s="215"/>
@@ -6867,11 +7017,12 @@
       <c r="I118" s="217"/>
       <c r="K118" s="214"/>
       <c r="L118" s="214"/>
-      <c r="M118" s="262"/>
-      <c r="N118" s="262"/>
-      <c r="O118" s="262"/>
-    </row>
-    <row r="119" spans="1:15" s="180" customFormat="1">
+      <c r="M118" s="214"/>
+      <c r="N118" s="260"/>
+      <c r="O118" s="260"/>
+      <c r="P118" s="260"/>
+    </row>
+    <row r="119" spans="1:16" s="180" customFormat="1">
       <c r="A119" s="213"/>
       <c r="B119" s="214"/>
       <c r="C119" s="215"/>
@@ -6883,11 +7034,12 @@
       <c r="I119" s="217"/>
       <c r="K119" s="214"/>
       <c r="L119" s="214"/>
-      <c r="M119" s="262"/>
-      <c r="N119" s="262"/>
-      <c r="O119" s="262"/>
-    </row>
-    <row r="120" spans="1:15" s="180" customFormat="1">
+      <c r="M119" s="214"/>
+      <c r="N119" s="260"/>
+      <c r="O119" s="260"/>
+      <c r="P119" s="260"/>
+    </row>
+    <row r="120" spans="1:16" s="180" customFormat="1">
       <c r="A120" s="213"/>
       <c r="B120" s="214"/>
       <c r="C120" s="215"/>
@@ -6899,11 +7051,12 @@
       <c r="I120" s="217"/>
       <c r="K120" s="214"/>
       <c r="L120" s="214"/>
-      <c r="M120" s="262"/>
-      <c r="N120" s="262"/>
-      <c r="O120" s="262"/>
-    </row>
-    <row r="121" spans="1:15" s="180" customFormat="1">
+      <c r="M120" s="214"/>
+      <c r="N120" s="260"/>
+      <c r="O120" s="260"/>
+      <c r="P120" s="260"/>
+    </row>
+    <row r="121" spans="1:16" s="180" customFormat="1">
       <c r="A121" s="213"/>
       <c r="B121" s="214"/>
       <c r="C121" s="215"/>
@@ -6915,11 +7068,12 @@
       <c r="I121" s="217"/>
       <c r="K121" s="214"/>
       <c r="L121" s="214"/>
-      <c r="M121" s="262"/>
-      <c r="N121" s="262"/>
-      <c r="O121" s="262"/>
-    </row>
-    <row r="122" spans="1:15" s="180" customFormat="1">
+      <c r="M121" s="214"/>
+      <c r="N121" s="260"/>
+      <c r="O121" s="260"/>
+      <c r="P121" s="260"/>
+    </row>
+    <row r="122" spans="1:16" s="180" customFormat="1">
       <c r="A122" s="213"/>
       <c r="B122" s="214"/>
       <c r="C122" s="215"/>
@@ -6931,11 +7085,12 @@
       <c r="I122" s="217"/>
       <c r="K122" s="214"/>
       <c r="L122" s="214"/>
-      <c r="M122" s="262"/>
-      <c r="N122" s="262"/>
-      <c r="O122" s="262"/>
-    </row>
-    <row r="123" spans="1:15" s="180" customFormat="1">
+      <c r="M122" s="214"/>
+      <c r="N122" s="260"/>
+      <c r="O122" s="260"/>
+      <c r="P122" s="260"/>
+    </row>
+    <row r="123" spans="1:16" s="180" customFormat="1">
       <c r="A123" s="213"/>
       <c r="B123" s="214"/>
       <c r="C123" s="215"/>
@@ -6947,11 +7102,12 @@
       <c r="I123" s="217"/>
       <c r="K123" s="214"/>
       <c r="L123" s="214"/>
-      <c r="M123" s="262"/>
-      <c r="N123" s="262"/>
-      <c r="O123" s="262"/>
-    </row>
-    <row r="124" spans="1:15" s="180" customFormat="1">
+      <c r="M123" s="214"/>
+      <c r="N123" s="260"/>
+      <c r="O123" s="260"/>
+      <c r="P123" s="260"/>
+    </row>
+    <row r="124" spans="1:16" s="180" customFormat="1">
       <c r="A124" s="213"/>
       <c r="B124" s="214"/>
       <c r="C124" s="215"/>
@@ -6963,11 +7119,12 @@
       <c r="I124" s="217"/>
       <c r="K124" s="214"/>
       <c r="L124" s="214"/>
-      <c r="M124" s="262"/>
-      <c r="N124" s="262"/>
-      <c r="O124" s="262"/>
-    </row>
-    <row r="125" spans="1:15" s="180" customFormat="1">
+      <c r="M124" s="214"/>
+      <c r="N124" s="260"/>
+      <c r="O124" s="260"/>
+      <c r="P124" s="260"/>
+    </row>
+    <row r="125" spans="1:16" s="180" customFormat="1">
       <c r="A125" s="213"/>
       <c r="B125" s="214"/>
       <c r="C125" s="215"/>
@@ -6979,11 +7136,12 @@
       <c r="I125" s="217"/>
       <c r="K125" s="214"/>
       <c r="L125" s="214"/>
-      <c r="M125" s="262"/>
-      <c r="N125" s="262"/>
-      <c r="O125" s="262"/>
-    </row>
-    <row r="126" spans="1:15" s="180" customFormat="1">
+      <c r="M125" s="214"/>
+      <c r="N125" s="260"/>
+      <c r="O125" s="260"/>
+      <c r="P125" s="260"/>
+    </row>
+    <row r="126" spans="1:16" s="180" customFormat="1">
       <c r="A126" s="213"/>
       <c r="B126" s="214"/>
       <c r="C126" s="215"/>
@@ -6995,11 +7153,12 @@
       <c r="I126" s="217"/>
       <c r="K126" s="214"/>
       <c r="L126" s="214"/>
-      <c r="M126" s="262"/>
-      <c r="N126" s="262"/>
-      <c r="O126" s="262"/>
-    </row>
-    <row r="127" spans="1:15" s="180" customFormat="1">
+      <c r="M126" s="214"/>
+      <c r="N126" s="260"/>
+      <c r="O126" s="260"/>
+      <c r="P126" s="260"/>
+    </row>
+    <row r="127" spans="1:16" s="180" customFormat="1">
       <c r="A127" s="213"/>
       <c r="B127" s="214"/>
       <c r="C127" s="215"/>
@@ -7011,11 +7170,12 @@
       <c r="I127" s="217"/>
       <c r="K127" s="214"/>
       <c r="L127" s="214"/>
-      <c r="M127" s="262"/>
-      <c r="N127" s="262"/>
-      <c r="O127" s="262"/>
-    </row>
-    <row r="128" spans="1:15" s="180" customFormat="1">
+      <c r="M127" s="214"/>
+      <c r="N127" s="260"/>
+      <c r="O127" s="260"/>
+      <c r="P127" s="260"/>
+    </row>
+    <row r="128" spans="1:16" s="180" customFormat="1">
       <c r="A128" s="213"/>
       <c r="B128" s="214"/>
       <c r="C128" s="215"/>
@@ -7027,11 +7187,12 @@
       <c r="I128" s="217"/>
       <c r="K128" s="214"/>
       <c r="L128" s="214"/>
-      <c r="M128" s="262"/>
-      <c r="N128" s="262"/>
-      <c r="O128" s="262"/>
-    </row>
-    <row r="129" spans="1:15" s="180" customFormat="1">
+      <c r="M128" s="214"/>
+      <c r="N128" s="260"/>
+      <c r="O128" s="260"/>
+      <c r="P128" s="260"/>
+    </row>
+    <row r="129" spans="1:16" s="180" customFormat="1">
       <c r="A129" s="213"/>
       <c r="B129" s="214"/>
       <c r="C129" s="215"/>
@@ -7043,11 +7204,12 @@
       <c r="I129" s="217"/>
       <c r="K129" s="214"/>
       <c r="L129" s="214"/>
-      <c r="M129" s="262"/>
-      <c r="N129" s="262"/>
-      <c r="O129" s="262"/>
-    </row>
-    <row r="130" spans="1:15" s="180" customFormat="1">
+      <c r="M129" s="214"/>
+      <c r="N129" s="260"/>
+      <c r="O129" s="260"/>
+      <c r="P129" s="260"/>
+    </row>
+    <row r="130" spans="1:16" s="180" customFormat="1">
       <c r="A130" s="213"/>
       <c r="B130" s="214"/>
       <c r="C130" s="215"/>
@@ -7059,11 +7221,12 @@
       <c r="I130" s="217"/>
       <c r="K130" s="214"/>
       <c r="L130" s="214"/>
-      <c r="M130" s="262"/>
-      <c r="N130" s="262"/>
-      <c r="O130" s="262"/>
-    </row>
-    <row r="131" spans="1:15" s="180" customFormat="1">
+      <c r="M130" s="214"/>
+      <c r="N130" s="260"/>
+      <c r="O130" s="260"/>
+      <c r="P130" s="260"/>
+    </row>
+    <row r="131" spans="1:16" s="180" customFormat="1">
       <c r="A131" s="213"/>
       <c r="B131" s="214"/>
       <c r="C131" s="215"/>
@@ -7075,11 +7238,12 @@
       <c r="I131" s="217"/>
       <c r="K131" s="214"/>
       <c r="L131" s="214"/>
-      <c r="M131" s="262"/>
-      <c r="N131" s="262"/>
-      <c r="O131" s="262"/>
-    </row>
-    <row r="132" spans="1:15" s="180" customFormat="1">
+      <c r="M131" s="214"/>
+      <c r="N131" s="260"/>
+      <c r="O131" s="260"/>
+      <c r="P131" s="260"/>
+    </row>
+    <row r="132" spans="1:16" s="180" customFormat="1">
       <c r="A132" s="213"/>
       <c r="B132" s="214"/>
       <c r="C132" s="215"/>
@@ -7091,11 +7255,12 @@
       <c r="I132" s="217"/>
       <c r="K132" s="214"/>
       <c r="L132" s="214"/>
-      <c r="M132" s="262"/>
-      <c r="N132" s="262"/>
-      <c r="O132" s="262"/>
-    </row>
-    <row r="133" spans="1:15" s="180" customFormat="1">
+      <c r="M132" s="214"/>
+      <c r="N132" s="260"/>
+      <c r="O132" s="260"/>
+      <c r="P132" s="260"/>
+    </row>
+    <row r="133" spans="1:16" s="180" customFormat="1">
       <c r="A133" s="213"/>
       <c r="B133" s="214"/>
       <c r="C133" s="215"/>
@@ -7107,11 +7272,12 @@
       <c r="I133" s="217"/>
       <c r="K133" s="214"/>
       <c r="L133" s="214"/>
-      <c r="M133" s="262"/>
-      <c r="N133" s="262"/>
-      <c r="O133" s="262"/>
-    </row>
-    <row r="134" spans="1:15" s="180" customFormat="1">
+      <c r="M133" s="214"/>
+      <c r="N133" s="260"/>
+      <c r="O133" s="260"/>
+      <c r="P133" s="260"/>
+    </row>
+    <row r="134" spans="1:16" s="180" customFormat="1">
       <c r="A134" s="213"/>
       <c r="B134" s="214"/>
       <c r="C134" s="215"/>
@@ -7123,11 +7289,12 @@
       <c r="I134" s="217"/>
       <c r="K134" s="214"/>
       <c r="L134" s="214"/>
-      <c r="M134" s="262"/>
-      <c r="N134" s="262"/>
-      <c r="O134" s="262"/>
-    </row>
-    <row r="135" spans="1:15" s="180" customFormat="1">
+      <c r="M134" s="214"/>
+      <c r="N134" s="260"/>
+      <c r="O134" s="260"/>
+      <c r="P134" s="260"/>
+    </row>
+    <row r="135" spans="1:16" s="180" customFormat="1">
       <c r="A135" s="213"/>
       <c r="B135" s="214"/>
       <c r="C135" s="215"/>
@@ -7139,11 +7306,12 @@
       <c r="I135" s="217"/>
       <c r="K135" s="214"/>
       <c r="L135" s="214"/>
-      <c r="M135" s="262"/>
-      <c r="N135" s="262"/>
-      <c r="O135" s="262"/>
-    </row>
-    <row r="136" spans="1:15" s="180" customFormat="1">
+      <c r="M135" s="214"/>
+      <c r="N135" s="260"/>
+      <c r="O135" s="260"/>
+      <c r="P135" s="260"/>
+    </row>
+    <row r="136" spans="1:16" s="180" customFormat="1">
       <c r="A136" s="213"/>
       <c r="B136" s="214"/>
       <c r="C136" s="215"/>
@@ -7155,11 +7323,12 @@
       <c r="I136" s="217"/>
       <c r="K136" s="214"/>
       <c r="L136" s="214"/>
-      <c r="M136" s="262"/>
-      <c r="N136" s="262"/>
-      <c r="O136" s="262"/>
-    </row>
-    <row r="137" spans="1:15" s="180" customFormat="1">
+      <c r="M136" s="214"/>
+      <c r="N136" s="260"/>
+      <c r="O136" s="260"/>
+      <c r="P136" s="260"/>
+    </row>
+    <row r="137" spans="1:16" s="180" customFormat="1">
       <c r="A137" s="213"/>
       <c r="B137" s="214"/>
       <c r="C137" s="215"/>
@@ -7171,11 +7340,12 @@
       <c r="I137" s="217"/>
       <c r="K137" s="214"/>
       <c r="L137" s="214"/>
-      <c r="M137" s="262"/>
-      <c r="N137" s="262"/>
-      <c r="O137" s="262"/>
-    </row>
-    <row r="138" spans="1:15" s="180" customFormat="1">
+      <c r="M137" s="214"/>
+      <c r="N137" s="260"/>
+      <c r="O137" s="260"/>
+      <c r="P137" s="260"/>
+    </row>
+    <row r="138" spans="1:16" s="180" customFormat="1">
       <c r="A138" s="213"/>
       <c r="B138" s="214"/>
       <c r="C138" s="215"/>
@@ -7187,11 +7357,12 @@
       <c r="I138" s="217"/>
       <c r="K138" s="214"/>
       <c r="L138" s="214"/>
-      <c r="M138" s="262"/>
-      <c r="N138" s="262"/>
-      <c r="O138" s="262"/>
-    </row>
-    <row r="139" spans="1:15" s="180" customFormat="1">
+      <c r="M138" s="214"/>
+      <c r="N138" s="260"/>
+      <c r="O138" s="260"/>
+      <c r="P138" s="260"/>
+    </row>
+    <row r="139" spans="1:16" s="180" customFormat="1">
       <c r="A139" s="213"/>
       <c r="B139" s="214"/>
       <c r="C139" s="215"/>
@@ -7203,11 +7374,12 @@
       <c r="I139" s="217"/>
       <c r="K139" s="214"/>
       <c r="L139" s="214"/>
-      <c r="M139" s="262"/>
-      <c r="N139" s="262"/>
-      <c r="O139" s="262"/>
-    </row>
-    <row r="140" spans="1:15" s="180" customFormat="1">
+      <c r="M139" s="214"/>
+      <c r="N139" s="260"/>
+      <c r="O139" s="260"/>
+      <c r="P139" s="260"/>
+    </row>
+    <row r="140" spans="1:16" s="180" customFormat="1">
       <c r="A140" s="213"/>
       <c r="B140" s="214"/>
       <c r="C140" s="215"/>
@@ -7219,11 +7391,12 @@
       <c r="I140" s="217"/>
       <c r="K140" s="214"/>
       <c r="L140" s="214"/>
-      <c r="M140" s="262"/>
-      <c r="N140" s="262"/>
-      <c r="O140" s="262"/>
-    </row>
-    <row r="141" spans="1:15" s="180" customFormat="1">
+      <c r="M140" s="214"/>
+      <c r="N140" s="260"/>
+      <c r="O140" s="260"/>
+      <c r="P140" s="260"/>
+    </row>
+    <row r="141" spans="1:16" s="180" customFormat="1">
       <c r="A141" s="213"/>
       <c r="B141" s="214"/>
       <c r="C141" s="215"/>
@@ -7235,11 +7408,12 @@
       <c r="I141" s="217"/>
       <c r="K141" s="214"/>
       <c r="L141" s="214"/>
-      <c r="M141" s="262"/>
-      <c r="N141" s="262"/>
-      <c r="O141" s="262"/>
-    </row>
-    <row r="142" spans="1:15" s="180" customFormat="1">
+      <c r="M141" s="214"/>
+      <c r="N141" s="260"/>
+      <c r="O141" s="260"/>
+      <c r="P141" s="260"/>
+    </row>
+    <row r="142" spans="1:16" s="180" customFormat="1">
       <c r="A142" s="213"/>
       <c r="B142" s="214"/>
       <c r="C142" s="215"/>
@@ -7251,11 +7425,12 @@
       <c r="I142" s="217"/>
       <c r="K142" s="214"/>
       <c r="L142" s="214"/>
-      <c r="M142" s="262"/>
-      <c r="N142" s="262"/>
-      <c r="O142" s="262"/>
-    </row>
-    <row r="143" spans="1:15" s="180" customFormat="1">
+      <c r="M142" s="214"/>
+      <c r="N142" s="260"/>
+      <c r="O142" s="260"/>
+      <c r="P142" s="260"/>
+    </row>
+    <row r="143" spans="1:16" s="180" customFormat="1">
       <c r="A143" s="213"/>
       <c r="B143" s="214"/>
       <c r="C143" s="215"/>
@@ -7267,11 +7442,12 @@
       <c r="I143" s="217"/>
       <c r="K143" s="214"/>
       <c r="L143" s="214"/>
-      <c r="M143" s="262"/>
-      <c r="N143" s="262"/>
-      <c r="O143" s="262"/>
-    </row>
-    <row r="144" spans="1:15" s="180" customFormat="1">
+      <c r="M143" s="214"/>
+      <c r="N143" s="260"/>
+      <c r="O143" s="260"/>
+      <c r="P143" s="260"/>
+    </row>
+    <row r="144" spans="1:16" s="180" customFormat="1">
       <c r="A144" s="213"/>
       <c r="B144" s="214"/>
       <c r="C144" s="215"/>
@@ -7283,11 +7459,12 @@
       <c r="I144" s="217"/>
       <c r="K144" s="214"/>
       <c r="L144" s="214"/>
-      <c r="M144" s="262"/>
-      <c r="N144" s="262"/>
-      <c r="O144" s="262"/>
-    </row>
-    <row r="145" spans="1:15" s="180" customFormat="1">
+      <c r="M144" s="214"/>
+      <c r="N144" s="260"/>
+      <c r="O144" s="260"/>
+      <c r="P144" s="260"/>
+    </row>
+    <row r="145" spans="1:16" s="180" customFormat="1">
       <c r="A145" s="213"/>
       <c r="B145" s="214"/>
       <c r="C145" s="215"/>
@@ -7299,11 +7476,12 @@
       <c r="I145" s="217"/>
       <c r="K145" s="214"/>
       <c r="L145" s="214"/>
-      <c r="M145" s="262"/>
-      <c r="N145" s="262"/>
-      <c r="O145" s="262"/>
-    </row>
-    <row r="146" spans="1:15" s="180" customFormat="1">
+      <c r="M145" s="214"/>
+      <c r="N145" s="260"/>
+      <c r="O145" s="260"/>
+      <c r="P145" s="260"/>
+    </row>
+    <row r="146" spans="1:16" s="180" customFormat="1">
       <c r="A146" s="213"/>
       <c r="B146" s="214"/>
       <c r="C146" s="215"/>
@@ -7315,11 +7493,12 @@
       <c r="I146" s="217"/>
       <c r="K146" s="214"/>
       <c r="L146" s="214"/>
-      <c r="M146" s="262"/>
-      <c r="N146" s="262"/>
-      <c r="O146" s="262"/>
-    </row>
-    <row r="147" spans="1:15" s="180" customFormat="1">
+      <c r="M146" s="214"/>
+      <c r="N146" s="260"/>
+      <c r="O146" s="260"/>
+      <c r="P146" s="260"/>
+    </row>
+    <row r="147" spans="1:16" s="180" customFormat="1">
       <c r="A147" s="213"/>
       <c r="B147" s="214"/>
       <c r="C147" s="215"/>
@@ -7331,11 +7510,12 @@
       <c r="I147" s="217"/>
       <c r="K147" s="214"/>
       <c r="L147" s="214"/>
-      <c r="M147" s="262"/>
-      <c r="N147" s="262"/>
-      <c r="O147" s="262"/>
-    </row>
-    <row r="148" spans="1:15" s="180" customFormat="1">
+      <c r="M147" s="214"/>
+      <c r="N147" s="260"/>
+      <c r="O147" s="260"/>
+      <c r="P147" s="260"/>
+    </row>
+    <row r="148" spans="1:16" s="180" customFormat="1">
       <c r="A148" s="213"/>
       <c r="B148" s="214"/>
       <c r="C148" s="215"/>
@@ -7347,11 +7527,12 @@
       <c r="I148" s="217"/>
       <c r="K148" s="214"/>
       <c r="L148" s="214"/>
-      <c r="M148" s="262"/>
-      <c r="N148" s="262"/>
-      <c r="O148" s="262"/>
-    </row>
-    <row r="149" spans="1:15" s="180" customFormat="1">
+      <c r="M148" s="214"/>
+      <c r="N148" s="260"/>
+      <c r="O148" s="260"/>
+      <c r="P148" s="260"/>
+    </row>
+    <row r="149" spans="1:16" s="180" customFormat="1">
       <c r="A149" s="213"/>
       <c r="B149" s="214"/>
       <c r="C149" s="215"/>
@@ -7363,11 +7544,12 @@
       <c r="I149" s="217"/>
       <c r="K149" s="214"/>
       <c r="L149" s="214"/>
-      <c r="M149" s="262"/>
-      <c r="N149" s="262"/>
-      <c r="O149" s="262"/>
-    </row>
-    <row r="150" spans="1:15" s="180" customFormat="1">
+      <c r="M149" s="214"/>
+      <c r="N149" s="260"/>
+      <c r="O149" s="260"/>
+      <c r="P149" s="260"/>
+    </row>
+    <row r="150" spans="1:16" s="180" customFormat="1">
       <c r="A150" s="213"/>
       <c r="B150" s="214"/>
       <c r="C150" s="215"/>
@@ -7379,11 +7561,12 @@
       <c r="I150" s="217"/>
       <c r="K150" s="214"/>
       <c r="L150" s="214"/>
-      <c r="M150" s="262"/>
-      <c r="N150" s="262"/>
-      <c r="O150" s="262"/>
-    </row>
-    <row r="151" spans="1:15" s="180" customFormat="1">
+      <c r="M150" s="214"/>
+      <c r="N150" s="260"/>
+      <c r="O150" s="260"/>
+      <c r="P150" s="260"/>
+    </row>
+    <row r="151" spans="1:16" s="180" customFormat="1">
       <c r="A151" s="213"/>
       <c r="B151" s="214"/>
       <c r="C151" s="215"/>
@@ -7395,11 +7578,12 @@
       <c r="I151" s="217"/>
       <c r="K151" s="214"/>
       <c r="L151" s="214"/>
-      <c r="M151" s="262"/>
-      <c r="N151" s="262"/>
-      <c r="O151" s="262"/>
-    </row>
-    <row r="152" spans="1:15" s="180" customFormat="1">
+      <c r="M151" s="214"/>
+      <c r="N151" s="260"/>
+      <c r="O151" s="260"/>
+      <c r="P151" s="260"/>
+    </row>
+    <row r="152" spans="1:16" s="180" customFormat="1">
       <c r="A152" s="213"/>
       <c r="B152" s="214"/>
       <c r="C152" s="215"/>
@@ -7411,11 +7595,12 @@
       <c r="I152" s="217"/>
       <c r="K152" s="214"/>
       <c r="L152" s="214"/>
-      <c r="M152" s="262"/>
-      <c r="N152" s="262"/>
-      <c r="O152" s="262"/>
-    </row>
-    <row r="153" spans="1:15" s="180" customFormat="1">
+      <c r="M152" s="214"/>
+      <c r="N152" s="260"/>
+      <c r="O152" s="260"/>
+      <c r="P152" s="260"/>
+    </row>
+    <row r="153" spans="1:16" s="180" customFormat="1">
       <c r="A153" s="213"/>
       <c r="B153" s="214"/>
       <c r="C153" s="215"/>
@@ -7427,11 +7612,12 @@
       <c r="I153" s="217"/>
       <c r="K153" s="214"/>
       <c r="L153" s="214"/>
-      <c r="M153" s="262"/>
-      <c r="N153" s="262"/>
-      <c r="O153" s="262"/>
-    </row>
-    <row r="154" spans="1:15" s="180" customFormat="1">
+      <c r="M153" s="214"/>
+      <c r="N153" s="260"/>
+      <c r="O153" s="260"/>
+      <c r="P153" s="260"/>
+    </row>
+    <row r="154" spans="1:16" s="180" customFormat="1">
       <c r="A154" s="213"/>
       <c r="B154" s="214"/>
       <c r="C154" s="215"/>
@@ -7443,11 +7629,12 @@
       <c r="I154" s="217"/>
       <c r="K154" s="214"/>
       <c r="L154" s="214"/>
-      <c r="M154" s="262"/>
-      <c r="N154" s="262"/>
-      <c r="O154" s="262"/>
-    </row>
-    <row r="155" spans="1:15" s="180" customFormat="1">
+      <c r="M154" s="214"/>
+      <c r="N154" s="260"/>
+      <c r="O154" s="260"/>
+      <c r="P154" s="260"/>
+    </row>
+    <row r="155" spans="1:16" s="180" customFormat="1">
       <c r="A155" s="213"/>
       <c r="B155" s="214"/>
       <c r="C155" s="215"/>
@@ -7459,11 +7646,12 @@
       <c r="I155" s="217"/>
       <c r="K155" s="214"/>
       <c r="L155" s="214"/>
-      <c r="M155" s="262"/>
-      <c r="N155" s="262"/>
-      <c r="O155" s="262"/>
-    </row>
-    <row r="156" spans="1:15" s="180" customFormat="1">
+      <c r="M155" s="214"/>
+      <c r="N155" s="260"/>
+      <c r="O155" s="260"/>
+      <c r="P155" s="260"/>
+    </row>
+    <row r="156" spans="1:16" s="180" customFormat="1">
       <c r="A156" s="213"/>
       <c r="B156" s="214"/>
       <c r="C156" s="215"/>
@@ -7475,11 +7663,12 @@
       <c r="I156" s="217"/>
       <c r="K156" s="214"/>
       <c r="L156" s="214"/>
-      <c r="M156" s="262"/>
-      <c r="N156" s="262"/>
-      <c r="O156" s="262"/>
-    </row>
-    <row r="157" spans="1:15" s="180" customFormat="1">
+      <c r="M156" s="214"/>
+      <c r="N156" s="260"/>
+      <c r="O156" s="260"/>
+      <c r="P156" s="260"/>
+    </row>
+    <row r="157" spans="1:16" s="180" customFormat="1">
       <c r="A157" s="213"/>
       <c r="B157" s="214"/>
       <c r="C157" s="215"/>
@@ -7491,11 +7680,12 @@
       <c r="I157" s="217"/>
       <c r="K157" s="214"/>
       <c r="L157" s="214"/>
-      <c r="M157" s="262"/>
-      <c r="N157" s="262"/>
-      <c r="O157" s="262"/>
-    </row>
-    <row r="158" spans="1:15" s="180" customFormat="1">
+      <c r="M157" s="214"/>
+      <c r="N157" s="260"/>
+      <c r="O157" s="260"/>
+      <c r="P157" s="260"/>
+    </row>
+    <row r="158" spans="1:16" s="180" customFormat="1">
       <c r="A158" s="213"/>
       <c r="B158" s="214"/>
       <c r="C158" s="215"/>
@@ -7507,11 +7697,12 @@
       <c r="I158" s="217"/>
       <c r="K158" s="214"/>
       <c r="L158" s="214"/>
-      <c r="M158" s="262"/>
-      <c r="N158" s="262"/>
-      <c r="O158" s="262"/>
-    </row>
-    <row r="159" spans="1:15" s="180" customFormat="1">
+      <c r="M158" s="214"/>
+      <c r="N158" s="260"/>
+      <c r="O158" s="260"/>
+      <c r="P158" s="260"/>
+    </row>
+    <row r="159" spans="1:16" s="180" customFormat="1">
       <c r="A159" s="213"/>
       <c r="B159" s="214"/>
       <c r="C159" s="215"/>
@@ -7523,11 +7714,12 @@
       <c r="I159" s="217"/>
       <c r="K159" s="214"/>
       <c r="L159" s="214"/>
-      <c r="M159" s="262"/>
-      <c r="N159" s="262"/>
-      <c r="O159" s="262"/>
-    </row>
-    <row r="160" spans="1:15" s="180" customFormat="1">
+      <c r="M159" s="214"/>
+      <c r="N159" s="260"/>
+      <c r="O159" s="260"/>
+      <c r="P159" s="260"/>
+    </row>
+    <row r="160" spans="1:16" s="180" customFormat="1">
       <c r="A160" s="213"/>
       <c r="B160" s="214"/>
       <c r="C160" s="215"/>
@@ -7539,11 +7731,12 @@
       <c r="I160" s="217"/>
       <c r="K160" s="214"/>
       <c r="L160" s="214"/>
-      <c r="M160" s="262"/>
-      <c r="N160" s="262"/>
-      <c r="O160" s="262"/>
-    </row>
-    <row r="161" spans="1:15" s="180" customFormat="1">
+      <c r="M160" s="214"/>
+      <c r="N160" s="260"/>
+      <c r="O160" s="260"/>
+      <c r="P160" s="260"/>
+    </row>
+    <row r="161" spans="1:16" s="180" customFormat="1">
       <c r="A161" s="213"/>
       <c r="B161" s="214"/>
       <c r="C161" s="215"/>
@@ -7555,11 +7748,12 @@
       <c r="I161" s="217"/>
       <c r="K161" s="214"/>
       <c r="L161" s="214"/>
-      <c r="M161" s="262"/>
-      <c r="N161" s="262"/>
-      <c r="O161" s="262"/>
-    </row>
-    <row r="162" spans="1:15" s="180" customFormat="1">
+      <c r="M161" s="214"/>
+      <c r="N161" s="260"/>
+      <c r="O161" s="260"/>
+      <c r="P161" s="260"/>
+    </row>
+    <row r="162" spans="1:16" s="180" customFormat="1">
       <c r="A162" s="213"/>
       <c r="B162" s="214"/>
       <c r="C162" s="215"/>
@@ -7571,11 +7765,12 @@
       <c r="I162" s="217"/>
       <c r="K162" s="214"/>
       <c r="L162" s="214"/>
-      <c r="M162" s="262"/>
-      <c r="N162" s="262"/>
-      <c r="O162" s="262"/>
-    </row>
-    <row r="163" spans="1:15" s="180" customFormat="1">
+      <c r="M162" s="214"/>
+      <c r="N162" s="260"/>
+      <c r="O162" s="260"/>
+      <c r="P162" s="260"/>
+    </row>
+    <row r="163" spans="1:16" s="180" customFormat="1">
       <c r="A163" s="213"/>
       <c r="B163" s="214"/>
       <c r="C163" s="215"/>
@@ -7587,11 +7782,12 @@
       <c r="I163" s="217"/>
       <c r="K163" s="214"/>
       <c r="L163" s="214"/>
-      <c r="M163" s="262"/>
-      <c r="N163" s="262"/>
-      <c r="O163" s="262"/>
-    </row>
-    <row r="164" spans="1:15" s="180" customFormat="1">
+      <c r="M163" s="214"/>
+      <c r="N163" s="260"/>
+      <c r="O163" s="260"/>
+      <c r="P163" s="260"/>
+    </row>
+    <row r="164" spans="1:16" s="180" customFormat="1">
       <c r="A164" s="213"/>
       <c r="B164" s="214"/>
       <c r="C164" s="215"/>
@@ -7603,11 +7799,12 @@
       <c r="I164" s="217"/>
       <c r="K164" s="214"/>
       <c r="L164" s="214"/>
-      <c r="M164" s="262"/>
-      <c r="N164" s="262"/>
-      <c r="O164" s="262"/>
-    </row>
-    <row r="165" spans="1:15" s="180" customFormat="1">
+      <c r="M164" s="214"/>
+      <c r="N164" s="260"/>
+      <c r="O164" s="260"/>
+      <c r="P164" s="260"/>
+    </row>
+    <row r="165" spans="1:16" s="180" customFormat="1">
       <c r="A165" s="213"/>
       <c r="B165" s="214"/>
       <c r="C165" s="215"/>
@@ -7619,11 +7816,12 @@
       <c r="I165" s="217"/>
       <c r="K165" s="214"/>
       <c r="L165" s="214"/>
-      <c r="M165" s="262"/>
-      <c r="N165" s="262"/>
-      <c r="O165" s="262"/>
-    </row>
-    <row r="166" spans="1:15" s="180" customFormat="1">
+      <c r="M165" s="214"/>
+      <c r="N165" s="260"/>
+      <c r="O165" s="260"/>
+      <c r="P165" s="260"/>
+    </row>
+    <row r="166" spans="1:16" s="180" customFormat="1">
       <c r="A166" s="213"/>
       <c r="B166" s="214"/>
       <c r="C166" s="215"/>
@@ -7635,137 +7833,146 @@
       <c r="I166" s="217"/>
       <c r="K166" s="214"/>
       <c r="L166" s="214"/>
-      <c r="M166" s="262"/>
-      <c r="N166" s="262"/>
-      <c r="O166" s="262"/>
-    </row>
-    <row r="167" spans="1:15" s="180" customFormat="1">
+      <c r="M166" s="214"/>
+      <c r="N166" s="260"/>
+      <c r="O166" s="260"/>
+      <c r="P166" s="260"/>
+    </row>
+    <row r="167" spans="1:16" s="180" customFormat="1">
       <c r="A167" s="213"/>
       <c r="B167" s="214"/>
       <c r="C167" s="215"/>
       <c r="D167" s="216"/>
       <c r="E167" s="216"/>
-      <c r="F167" s="249"/>
-      <c r="G167" s="249"/>
+      <c r="F167" s="247"/>
+      <c r="G167" s="247"/>
       <c r="H167" s="217"/>
       <c r="I167" s="217"/>
       <c r="K167" s="214"/>
       <c r="L167" s="214"/>
-      <c r="M167" s="262"/>
-      <c r="N167" s="262"/>
-      <c r="O167" s="262"/>
-    </row>
-    <row r="168" spans="1:15" s="180" customFormat="1">
+      <c r="M167" s="214"/>
+      <c r="N167" s="260"/>
+      <c r="O167" s="260"/>
+      <c r="P167" s="260"/>
+    </row>
+    <row r="168" spans="1:16" s="180" customFormat="1">
       <c r="A168" s="213"/>
       <c r="B168" s="214"/>
       <c r="C168" s="215"/>
       <c r="D168" s="216"/>
       <c r="E168" s="216"/>
-      <c r="F168" s="249"/>
-      <c r="G168" s="249"/>
+      <c r="F168" s="247"/>
+      <c r="G168" s="247"/>
       <c r="H168" s="217"/>
       <c r="I168" s="217"/>
       <c r="K168" s="214"/>
       <c r="L168" s="214"/>
-      <c r="M168" s="262"/>
-      <c r="N168" s="262"/>
-      <c r="O168" s="262"/>
-    </row>
-    <row r="169" spans="1:15" s="180" customFormat="1">
+      <c r="M168" s="214"/>
+      <c r="N168" s="260"/>
+      <c r="O168" s="260"/>
+      <c r="P168" s="260"/>
+    </row>
+    <row r="169" spans="1:16" s="180" customFormat="1">
       <c r="A169" s="213"/>
       <c r="B169" s="214"/>
       <c r="C169" s="215"/>
       <c r="D169" s="216"/>
       <c r="E169" s="216"/>
-      <c r="F169" s="249"/>
-      <c r="G169" s="249"/>
+      <c r="F169" s="247"/>
+      <c r="G169" s="247"/>
       <c r="H169" s="217"/>
       <c r="I169" s="217"/>
       <c r="K169" s="214"/>
       <c r="L169" s="214"/>
-      <c r="M169" s="262"/>
-      <c r="N169" s="262"/>
-      <c r="O169" s="262"/>
-    </row>
-    <row r="170" spans="1:15" s="180" customFormat="1">
+      <c r="M169" s="214"/>
+      <c r="N169" s="260"/>
+      <c r="O169" s="260"/>
+      <c r="P169" s="260"/>
+    </row>
+    <row r="170" spans="1:16" s="180" customFormat="1">
       <c r="A170" s="213"/>
       <c r="B170" s="214"/>
       <c r="C170" s="215"/>
       <c r="D170" s="216"/>
       <c r="E170" s="216"/>
-      <c r="F170" s="249"/>
-      <c r="G170" s="249"/>
+      <c r="F170" s="247"/>
+      <c r="G170" s="247"/>
       <c r="H170" s="217"/>
       <c r="I170" s="217"/>
       <c r="K170" s="214"/>
       <c r="L170" s="214"/>
-      <c r="M170" s="262"/>
-      <c r="N170" s="262"/>
-      <c r="O170" s="262"/>
-    </row>
-    <row r="171" spans="1:15" s="180" customFormat="1">
+      <c r="M170" s="214"/>
+      <c r="N170" s="260"/>
+      <c r="O170" s="260"/>
+      <c r="P170" s="260"/>
+    </row>
+    <row r="171" spans="1:16" s="180" customFormat="1">
       <c r="A171" s="213"/>
       <c r="B171" s="214"/>
       <c r="C171" s="215"/>
       <c r="D171" s="216"/>
       <c r="E171" s="216"/>
-      <c r="F171" s="249"/>
-      <c r="G171" s="249"/>
+      <c r="F171" s="247"/>
+      <c r="G171" s="247"/>
       <c r="H171" s="217"/>
       <c r="I171" s="217"/>
       <c r="K171" s="214"/>
       <c r="L171" s="214"/>
-      <c r="M171" s="262"/>
-      <c r="N171" s="262"/>
-      <c r="O171" s="262"/>
-    </row>
-    <row r="172" spans="1:15" s="180" customFormat="1">
+      <c r="M171" s="214"/>
+      <c r="N171" s="260"/>
+      <c r="O171" s="260"/>
+      <c r="P171" s="260"/>
+    </row>
+    <row r="172" spans="1:16" s="180" customFormat="1">
       <c r="A172" s="213"/>
       <c r="B172" s="214"/>
       <c r="C172" s="215"/>
       <c r="D172" s="216"/>
       <c r="E172" s="216"/>
-      <c r="F172" s="249"/>
-      <c r="G172" s="249"/>
+      <c r="F172" s="247"/>
+      <c r="G172" s="247"/>
       <c r="H172" s="217"/>
       <c r="I172" s="217"/>
       <c r="K172" s="214"/>
       <c r="L172" s="214"/>
-      <c r="M172" s="262"/>
-      <c r="N172" s="262"/>
-      <c r="O172" s="262"/>
-    </row>
-    <row r="173" spans="1:15" s="180" customFormat="1">
+      <c r="M172" s="214"/>
+      <c r="N172" s="260"/>
+      <c r="O172" s="260"/>
+      <c r="P172" s="260"/>
+    </row>
+    <row r="173" spans="1:16" s="180" customFormat="1">
       <c r="A173" s="213"/>
       <c r="B173" s="214"/>
       <c r="C173" s="215"/>
       <c r="D173" s="216"/>
       <c r="E173" s="216"/>
-      <c r="F173" s="249"/>
-      <c r="G173" s="249"/>
+      <c r="F173" s="247"/>
+      <c r="G173" s="247"/>
       <c r="H173" s="217"/>
       <c r="I173" s="217"/>
       <c r="K173" s="214"/>
       <c r="L173" s="214"/>
-      <c r="M173" s="262"/>
-      <c r="N173" s="262"/>
-      <c r="O173" s="262"/>
-    </row>
-    <row r="174" spans="1:15" s="180" customFormat="1">
+      <c r="M173" s="214"/>
+      <c r="N173" s="260"/>
+      <c r="O173" s="260"/>
+      <c r="P173" s="260"/>
+    </row>
+    <row r="174" spans="1:16" s="180" customFormat="1">
       <c r="A174" s="213"/>
       <c r="B174" s="214"/>
       <c r="C174" s="215"/>
       <c r="D174" s="216"/>
       <c r="E174" s="216"/>
-      <c r="F174" s="249"/>
-      <c r="G174" s="249"/>
+      <c r="F174" s="247"/>
+      <c r="G174" s="247"/>
       <c r="H174" s="217"/>
       <c r="I174" s="217"/>
       <c r="K174" s="214"/>
       <c r="L174" s="214"/>
-      <c r="M174" s="262"/>
-      <c r="N174" s="262"/>
-      <c r="O174" s="262"/>
+      <c r="M174" s="214"/>
+      <c r="N174" s="260"/>
+      <c r="O174" s="260"/>
+      <c r="P174" s="260"/>
     </row>
   </sheetData>
   <sortState ref="A2:J23">
@@ -7787,7 +7994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CP128"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
@@ -7797,7 +8004,7 @@
     <col min="2" max="2" width="24.58203125" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
     <col min="4" max="4" width="70.83203125" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="264"/>
+    <col min="5" max="5" width="8.83203125" style="262"/>
     <col min="6" max="15" width="8.83203125" style="3"/>
     <col min="16" max="16" width="8.83203125" style="3" customWidth="1"/>
     <col min="17" max="17" width="8.83203125" style="3"/>
@@ -7844,7 +8051,7 @@
       <c r="D3" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="264"/>
+      <c r="E3" s="262"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -7948,7 +8155,7 @@
       <c r="D4" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="264"/>
+      <c r="E4" s="262"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -8052,7 +8259,7 @@
       <c r="D5" s="152" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="265"/>
+      <c r="E5" s="263"/>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
@@ -8156,7 +8363,7 @@
       <c r="D6" s="152" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="265"/>
+      <c r="E6" s="263"/>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
@@ -8260,7 +8467,7 @@
       <c r="D7" s="152" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="265">
+      <c r="E7" s="263">
         <v>2016</v>
       </c>
       <c r="F7" s="28"/>
@@ -8366,7 +8573,7 @@
       <c r="D8" s="152" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="265">
+      <c r="E8" s="263">
         <v>2016</v>
       </c>
       <c r="F8" s="28"/>
@@ -8468,7 +8675,7 @@
       </c>
       <c r="C9" s="153"/>
       <c r="D9" s="152"/>
-      <c r="E9" s="265" t="s">
+      <c r="E9" s="263" t="s">
         <v>516</v>
       </c>
       <c r="F9" s="28"/>
@@ -8574,7 +8781,7 @@
       <c r="D10" s="189" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="264"/>
+      <c r="E10" s="262"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -8678,7 +8885,7 @@
       <c r="D11" s="114" t="s">
         <v>406</v>
       </c>
-      <c r="E11" s="264"/>
+      <c r="E11" s="262"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -8707,7 +8914,7 @@
       <c r="D12" s="114" t="s">
         <v>407</v>
       </c>
-      <c r="E12" s="264"/>
+      <c r="E12" s="262"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -8736,7 +8943,7 @@
       <c r="D13" s="114" t="s">
         <v>406</v>
       </c>
-      <c r="E13" s="264"/>
+      <c r="E13" s="262"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -8765,7 +8972,7 @@
       <c r="D14" s="114" t="s">
         <v>405</v>
       </c>
-      <c r="E14" s="264"/>
+      <c r="E14" s="262"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -8794,7 +9001,7 @@
       <c r="D15" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="264"/>
+      <c r="E15" s="262"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -8898,7 +9105,7 @@
       <c r="D16" s="192" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="264"/>
+      <c r="E16" s="262"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -9002,7 +9209,7 @@
       <c r="D17" s="192" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="264"/>
+      <c r="E17" s="262"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -9106,7 +9313,7 @@
       <c r="D18" s="193" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="264"/>
+      <c r="E18" s="262"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -9210,7 +9417,7 @@
       <c r="D19" s="193" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="264"/>
+      <c r="E19" s="262"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -9314,7 +9521,7 @@
       <c r="D20" s="193" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="264"/>
+      <c r="E20" s="262"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -9418,7 +9625,7 @@
       <c r="D21" s="158" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="264"/>
+      <c r="E21" s="262"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -9522,7 +9729,7 @@
       <c r="D22" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="E22" s="264"/>
+      <c r="E22" s="262"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -9626,7 +9833,7 @@
       <c r="D23" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="E23" s="264"/>
+      <c r="E23" s="262"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -9730,7 +9937,7 @@
       <c r="D24" s="161" t="s">
         <v>141</v>
       </c>
-      <c r="E24" s="264"/>
+      <c r="E24" s="262"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -9834,7 +10041,7 @@
       <c r="D25" s="161" t="s">
         <v>142</v>
       </c>
-      <c r="E25" s="264"/>
+      <c r="E25" s="262"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -9938,7 +10145,7 @@
       <c r="D26" s="161" t="s">
         <v>143</v>
       </c>
-      <c r="E26" s="264"/>
+      <c r="E26" s="262"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -10042,7 +10249,7 @@
       <c r="D27" s="194" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="264"/>
+      <c r="E27" s="262"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -10146,7 +10353,7 @@
       <c r="D28" s="114" t="s">
         <v>102</v>
       </c>
-      <c r="E28" s="264"/>
+      <c r="E28" s="262"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -10250,7 +10457,7 @@
       <c r="D29" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="E29" s="264"/>
+      <c r="E29" s="262"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -10354,7 +10561,7 @@
       <c r="D30" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="264"/>
+      <c r="E30" s="262"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -10458,7 +10665,7 @@
       <c r="D31" s="114" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="264"/>
+      <c r="E31" s="262"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -10562,7 +10769,7 @@
       <c r="D32" s="114" t="s">
         <v>108</v>
       </c>
-      <c r="E32" s="264"/>
+      <c r="E32" s="262"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -10666,7 +10873,7 @@
       <c r="D33" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="264"/>
+      <c r="E33" s="262"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -10770,7 +10977,7 @@
       <c r="D34" s="195" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="264"/>
+      <c r="E34" s="262"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -10874,7 +11081,7 @@
       <c r="D35" s="195" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="264"/>
+      <c r="E35" s="262"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -10978,7 +11185,7 @@
       <c r="D36" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="264"/>
+      <c r="E36" s="262"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -11082,7 +11289,7 @@
       <c r="D37" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="264"/>
+      <c r="E37" s="262"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -11186,7 +11393,7 @@
       <c r="D38" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="264"/>
+      <c r="E38" s="262"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -11290,7 +11497,7 @@
       <c r="D39" s="195" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="264"/>
+      <c r="E39" s="262"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -11394,7 +11601,7 @@
       <c r="D40" s="195" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="264"/>
+      <c r="E40" s="262"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -11498,7 +11705,7 @@
       <c r="D41" s="195" t="s">
         <v>57</v>
       </c>
-      <c r="E41" s="264"/>
+      <c r="E41" s="262"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -11602,7 +11809,7 @@
       <c r="D42" s="195" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="264"/>
+      <c r="E42" s="262"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -11706,7 +11913,7 @@
       <c r="D43" s="195" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="264"/>
+      <c r="E43" s="262"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -11810,7 +12017,7 @@
       <c r="D44" s="195" t="s">
         <v>60</v>
       </c>
-      <c r="E44" s="264"/>
+      <c r="E44" s="262"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -11914,7 +12121,7 @@
       <c r="D45" s="195" t="s">
         <v>60</v>
       </c>
-      <c r="E45" s="264"/>
+      <c r="E45" s="262"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -12018,7 +12225,7 @@
       <c r="D46" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="E46" s="264"/>
+      <c r="E46" s="262"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -12122,7 +12329,7 @@
       <c r="D47" s="195" t="s">
         <v>61</v>
       </c>
-      <c r="E47" s="264"/>
+      <c r="E47" s="262"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -12226,7 +12433,7 @@
       <c r="D48" s="195" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="264"/>
+      <c r="E48" s="262"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -12330,7 +12537,7 @@
       <c r="D49" s="195" t="s">
         <v>63</v>
       </c>
-      <c r="E49" s="264"/>
+      <c r="E49" s="262"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -12434,7 +12641,7 @@
       <c r="D50" s="195" t="s">
         <v>64</v>
       </c>
-      <c r="E50" s="264"/>
+      <c r="E50" s="262"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -12538,7 +12745,7 @@
       <c r="D51" s="195" t="s">
         <v>65</v>
       </c>
-      <c r="E51" s="264"/>
+      <c r="E51" s="262"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -12642,7 +12849,7 @@
       <c r="D52" s="195" t="s">
         <v>66</v>
       </c>
-      <c r="E52" s="264"/>
+      <c r="E52" s="262"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -12746,7 +12953,7 @@
       <c r="D53" s="195" t="s">
         <v>67</v>
       </c>
-      <c r="E53" s="264"/>
+      <c r="E53" s="262"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -12850,7 +13057,7 @@
       <c r="D54" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="264"/>
+      <c r="E54" s="262"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -12954,7 +13161,7 @@
       <c r="D55" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="E55" s="264"/>
+      <c r="E55" s="262"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -13058,7 +13265,7 @@
       <c r="D56" s="195" t="s">
         <v>70</v>
       </c>
-      <c r="E56" s="264"/>
+      <c r="E56" s="262"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -13162,7 +13369,7 @@
       <c r="D57" s="195" t="s">
         <v>71</v>
       </c>
-      <c r="E57" s="264"/>
+      <c r="E57" s="262"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -13266,7 +13473,7 @@
       <c r="D58" s="195" t="s">
         <v>72</v>
       </c>
-      <c r="E58" s="264"/>
+      <c r="E58" s="262"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -13370,7 +13577,7 @@
       <c r="D59" s="195" t="s">
         <v>73</v>
       </c>
-      <c r="E59" s="264"/>
+      <c r="E59" s="262"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -13474,7 +13681,7 @@
       <c r="D60" s="195" t="s">
         <v>74</v>
       </c>
-      <c r="E60" s="264"/>
+      <c r="E60" s="262"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -13578,7 +13785,7 @@
       <c r="D61" s="195" t="s">
         <v>75</v>
       </c>
-      <c r="E61" s="264"/>
+      <c r="E61" s="262"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -13682,7 +13889,7 @@
       <c r="D62" s="195" t="s">
         <v>76</v>
       </c>
-      <c r="E62" s="264"/>
+      <c r="E62" s="262"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -13786,7 +13993,7 @@
       <c r="D63" s="195" t="s">
         <v>77</v>
       </c>
-      <c r="E63" s="264"/>
+      <c r="E63" s="262"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -13890,7 +14097,7 @@
       <c r="D64" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="E64" s="264"/>
+      <c r="E64" s="262"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -13994,7 +14201,7 @@
       <c r="D65" s="196" t="s">
         <v>87</v>
       </c>
-      <c r="E65" s="264"/>
+      <c r="E65" s="262"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -14098,7 +14305,7 @@
       <c r="D66" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="E66" s="264"/>
+      <c r="E66" s="262"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -14202,7 +14409,7 @@
       <c r="D67" s="196" t="s">
         <v>89</v>
       </c>
-      <c r="E67" s="264"/>
+      <c r="E67" s="262"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -14306,7 +14513,7 @@
       <c r="D68" s="196" t="s">
         <v>90</v>
       </c>
-      <c r="E68" s="264"/>
+      <c r="E68" s="262"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -14410,7 +14617,7 @@
       <c r="D69" s="196" t="s">
         <v>91</v>
       </c>
-      <c r="E69" s="264"/>
+      <c r="E69" s="262"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -14514,7 +14721,7 @@
       <c r="D70" s="196" t="s">
         <v>92</v>
       </c>
-      <c r="E70" s="264"/>
+      <c r="E70" s="262"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -14618,7 +14825,7 @@
       <c r="D71" s="196" t="s">
         <v>93</v>
       </c>
-      <c r="E71" s="264"/>
+      <c r="E71" s="262"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -14722,7 +14929,7 @@
       <c r="D72" s="163" t="s">
         <v>121</v>
       </c>
-      <c r="E72" s="264"/>
+      <c r="E72" s="262"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -14826,7 +15033,7 @@
       <c r="D73" s="163" t="s">
         <v>123</v>
       </c>
-      <c r="E73" s="264"/>
+      <c r="E73" s="262"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -14930,7 +15137,7 @@
       <c r="D74" s="119" t="s">
         <v>127</v>
       </c>
-      <c r="E74" s="264"/>
+      <c r="E74" s="262"/>
     </row>
     <row r="75" spans="1:94" s="3" customFormat="1">
       <c r="A75" s="115">
@@ -14945,7 +15152,7 @@
       <c r="D75" s="119" t="s">
         <v>128</v>
       </c>
-      <c r="E75" s="264"/>
+      <c r="E75" s="262"/>
     </row>
     <row r="76" spans="1:94" s="3" customFormat="1">
       <c r="A76" s="165">
@@ -14960,7 +15167,7 @@
       <c r="D76" s="130" t="s">
         <v>309</v>
       </c>
-      <c r="E76" s="264"/>
+      <c r="E76" s="262"/>
     </row>
     <row r="77" spans="1:94" s="23" customFormat="1">
       <c r="A77" s="165">
@@ -14975,7 +15182,7 @@
       <c r="D77" s="130" t="s">
         <v>309</v>
       </c>
-      <c r="E77" s="264"/>
+      <c r="E77" s="262"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -15079,7 +15286,7 @@
       <c r="D78" s="130" t="s">
         <v>309</v>
       </c>
-      <c r="E78" s="264"/>
+      <c r="E78" s="262"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -15183,7 +15390,7 @@
       <c r="D79" s="130" t="s">
         <v>309</v>
       </c>
-      <c r="E79" s="264"/>
+      <c r="E79" s="262"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
@@ -15287,7 +15494,7 @@
       <c r="D80" s="130" t="s">
         <v>309</v>
       </c>
-      <c r="E80" s="264"/>
+      <c r="E80" s="262"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
@@ -15391,7 +15598,7 @@
       <c r="D81" s="130" t="s">
         <v>309</v>
       </c>
-      <c r="E81" s="264"/>
+      <c r="E81" s="262"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
@@ -15495,7 +15702,7 @@
       <c r="D82" s="130" t="s">
         <v>309</v>
       </c>
-      <c r="E82" s="264"/>
+      <c r="E82" s="262"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
@@ -15599,7 +15806,7 @@
       <c r="D83" s="130" t="s">
         <v>309</v>
       </c>
-      <c r="E83" s="264"/>
+      <c r="E83" s="262"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
@@ -15703,7 +15910,7 @@
       <c r="D84" s="130" t="s">
         <v>309</v>
       </c>
-      <c r="E84" s="264"/>
+      <c r="E84" s="262"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
@@ -15807,7 +16014,7 @@
       <c r="D85" s="130" t="s">
         <v>309</v>
       </c>
-      <c r="E85" s="264"/>
+      <c r="E85" s="262"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
@@ -15911,7 +16118,7 @@
       <c r="D86" s="130" t="s">
         <v>309</v>
       </c>
-      <c r="E86" s="264"/>
+      <c r="E86" s="262"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
@@ -16015,7 +16222,7 @@
       <c r="D87" s="130" t="s">
         <v>309</v>
       </c>
-      <c r="E87" s="264"/>
+      <c r="E87" s="262"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
@@ -16119,7 +16326,7 @@
       <c r="D88" s="130" t="s">
         <v>309</v>
       </c>
-      <c r="E88" s="264"/>
+      <c r="E88" s="262"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
@@ -16223,7 +16430,7 @@
       <c r="D89" s="159" t="s">
         <v>116</v>
       </c>
-      <c r="E89" s="264"/>
+      <c r="E89" s="262"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
@@ -16315,19 +16522,19 @@
       <c r="CP89" s="3"/>
     </row>
     <row r="90" spans="1:94" s="4" customFormat="1">
-      <c r="A90" s="242">
+      <c r="A90" s="240">
         <v>16</v>
       </c>
-      <c r="B90" s="243" t="s">
+      <c r="B90" s="241" t="s">
         <v>115</v>
       </c>
-      <c r="C90" s="244">
+      <c r="C90" s="242">
         <v>97140</v>
       </c>
-      <c r="D90" s="243" t="s">
+      <c r="D90" s="241" t="s">
         <v>117</v>
       </c>
-      <c r="E90" s="264" t="s">
+      <c r="E90" s="262" t="s">
         <v>466</v>
       </c>
       <c r="F90" s="3"/>
@@ -16421,19 +16628,19 @@
       <c r="CP90" s="3"/>
     </row>
     <row r="91" spans="1:94" s="55" customFormat="1">
-      <c r="A91" s="242">
+      <c r="A91" s="240">
         <v>16</v>
       </c>
-      <c r="B91" s="243" t="s">
+      <c r="B91" s="241" t="s">
         <v>115</v>
       </c>
-      <c r="C91" s="244" t="s">
+      <c r="C91" s="242" t="s">
         <v>118</v>
       </c>
-      <c r="D91" s="243" t="s">
+      <c r="D91" s="241" t="s">
         <v>119</v>
       </c>
-      <c r="E91" s="264" t="s">
+      <c r="E91" s="262" t="s">
         <v>466</v>
       </c>
       <c r="F91" s="3"/>
@@ -16699,13 +16906,13 @@
         <v>18</v>
       </c>
       <c r="B104" s="114" t="s">
+        <v>582</v>
+      </c>
+      <c r="C104" s="324">
+        <v>27447</v>
+      </c>
+      <c r="D104" s="114" t="s">
         <v>583</v>
-      </c>
-      <c r="C104" s="327">
-        <v>27447</v>
-      </c>
-      <c r="D104" s="114" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="105" spans="1:93" s="21" customFormat="1">
@@ -16721,7 +16928,7 @@
       <c r="D105" s="159" t="s">
         <v>317</v>
       </c>
-      <c r="E105" s="264"/>
+      <c r="E105" s="262"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -16824,7 +17031,7 @@
       <c r="D106" s="159" t="s">
         <v>317</v>
       </c>
-      <c r="E106" s="264"/>
+      <c r="E106" s="262"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -16927,7 +17134,7 @@
       <c r="D107" s="159" t="s">
         <v>317</v>
       </c>
-      <c r="E107" s="264"/>
+      <c r="E107" s="262"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -17030,7 +17237,7 @@
       <c r="D108" s="171" t="s">
         <v>323</v>
       </c>
-      <c r="E108" s="266"/>
+      <c r="E108" s="264"/>
       <c r="F108" s="59"/>
       <c r="G108" s="59"/>
       <c r="H108" s="59"/>
@@ -17147,7 +17354,7 @@
       <c r="D110" s="98" t="s">
         <v>322</v>
       </c>
-      <c r="E110" s="250"/>
+      <c r="E110" s="248"/>
       <c r="F110" s="180"/>
       <c r="G110" s="180"/>
       <c r="H110" s="180"/>
@@ -17201,7 +17408,7 @@
       <c r="D111" s="98" t="s">
         <v>322</v>
       </c>
-      <c r="E111" s="250"/>
+      <c r="E111" s="248"/>
       <c r="F111" s="180"/>
       <c r="G111" s="180"/>
       <c r="H111" s="180"/>
@@ -17255,7 +17462,7 @@
       <c r="D112" s="137" t="s">
         <v>331</v>
       </c>
-      <c r="E112" s="267"/>
+      <c r="E112" s="265"/>
       <c r="F112" s="182"/>
       <c r="G112" s="182"/>
       <c r="H112" s="182"/>
@@ -17358,7 +17565,7 @@
       <c r="D113" s="137" t="s">
         <v>331</v>
       </c>
-      <c r="E113" s="267"/>
+      <c r="E113" s="265"/>
       <c r="F113" s="182"/>
       <c r="G113" s="182"/>
       <c r="H113" s="182"/>
@@ -17461,7 +17668,7 @@
       <c r="D114" s="137" t="s">
         <v>331</v>
       </c>
-      <c r="E114" s="250"/>
+      <c r="E114" s="248"/>
       <c r="F114" s="180"/>
       <c r="G114" s="180"/>
       <c r="H114" s="180"/>
@@ -17515,7 +17722,7 @@
       <c r="D115" s="137" t="s">
         <v>335</v>
       </c>
-      <c r="E115" s="250"/>
+      <c r="E115" s="248"/>
       <c r="F115" s="180"/>
       <c r="G115" s="180"/>
       <c r="H115" s="180"/>
@@ -17569,7 +17776,7 @@
       <c r="D116" s="137" t="s">
         <v>335</v>
       </c>
-      <c r="E116" s="250"/>
+      <c r="E116" s="248"/>
       <c r="F116" s="180"/>
       <c r="G116" s="180"/>
       <c r="H116" s="180"/>
@@ -17623,7 +17830,7 @@
       <c r="D117" s="137" t="s">
         <v>335</v>
       </c>
-      <c r="E117" s="250"/>
+      <c r="E117" s="248"/>
       <c r="F117" s="180"/>
       <c r="G117" s="180"/>
       <c r="H117" s="180"/>
@@ -17677,7 +17884,7 @@
       <c r="D118" s="158" t="s">
         <v>137</v>
       </c>
-      <c r="E118" s="250"/>
+      <c r="E118" s="248"/>
       <c r="F118" s="180"/>
       <c r="G118" s="180"/>
       <c r="H118" s="180"/>
@@ -17731,7 +17938,7 @@
       <c r="D119" s="158" t="s">
         <v>138</v>
       </c>
-      <c r="E119" s="250"/>
+      <c r="E119" s="248"/>
       <c r="F119" s="180"/>
       <c r="G119" s="180"/>
       <c r="H119" s="180"/>
@@ -17785,7 +17992,7 @@
       <c r="D120" s="158" t="s">
         <v>139</v>
       </c>
-      <c r="E120" s="250"/>
+      <c r="E120" s="248"/>
       <c r="F120" s="180"/>
       <c r="G120" s="180"/>
       <c r="H120" s="180"/>
@@ -17830,10 +18037,10 @@
       <c r="A121" s="1">
         <v>12</v>
       </c>
-      <c r="C121" s="240" t="s">
+      <c r="C121" s="238" t="s">
         <v>457</v>
       </c>
-      <c r="E121" s="250" t="s">
+      <c r="E121" s="248" t="s">
         <v>470</v>
       </c>
       <c r="F121" s="180"/>
@@ -17883,7 +18090,7 @@
       <c r="C122" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="E122" s="250" t="s">
+      <c r="E122" s="248" t="s">
         <v>469</v>
       </c>
       <c r="F122" s="180"/>
@@ -17927,7 +18134,7 @@
       <c r="AR122" s="180"/>
     </row>
     <row r="123" spans="1:93">
-      <c r="E123" s="250"/>
+      <c r="E123" s="248"/>
       <c r="F123" s="180"/>
       <c r="G123" s="180"/>
       <c r="H123" s="180"/>
@@ -17969,7 +18176,7 @@
       <c r="AR123" s="180"/>
     </row>
     <row r="124" spans="1:93">
-      <c r="E124" s="250"/>
+      <c r="E124" s="248"/>
       <c r="F124" s="180"/>
       <c r="G124" s="180"/>
       <c r="H124" s="180"/>
@@ -18011,7 +18218,7 @@
       <c r="AR124" s="180"/>
     </row>
     <row r="125" spans="1:93">
-      <c r="E125" s="250"/>
+      <c r="E125" s="248"/>
       <c r="F125" s="180"/>
       <c r="G125" s="180"/>
       <c r="H125" s="180"/>
@@ -18053,7 +18260,7 @@
       <c r="AR125" s="180"/>
     </row>
     <row r="126" spans="1:93">
-      <c r="E126" s="250"/>
+      <c r="E126" s="248"/>
       <c r="F126" s="180"/>
       <c r="G126" s="180"/>
       <c r="H126" s="180"/>
@@ -18095,7 +18302,7 @@
       <c r="AR126" s="180"/>
     </row>
     <row r="127" spans="1:93">
-      <c r="E127" s="250"/>
+      <c r="E127" s="248"/>
       <c r="F127" s="180"/>
       <c r="G127" s="180"/>
       <c r="H127" s="180"/>
@@ -18137,7 +18344,7 @@
       <c r="AR127" s="180"/>
     </row>
     <row r="128" spans="1:93">
-      <c r="E128" s="250"/>
+      <c r="E128" s="248"/>
       <c r="F128" s="180"/>
       <c r="G128" s="180"/>
       <c r="H128" s="180"/>
@@ -18880,8 +19087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DQ167"/>
   <sheetViews>
-    <sheetView topLeftCell="B134" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.25" customHeight="1"/>
@@ -26309,8 +26516,8 @@
       <c r="B108" s="136" t="s">
         <v>174</v>
       </c>
-      <c r="C108" s="329" t="s">
-        <v>587</v>
+      <c r="C108" s="326" t="s">
+        <v>586</v>
       </c>
       <c r="D108" s="44" t="str">
         <f t="shared" si="2"/>
@@ -26441,8 +26648,8 @@
       <c r="B109" s="136" t="s">
         <v>174</v>
       </c>
-      <c r="C109" s="325" t="s">
-        <v>588</v>
+      <c r="C109" s="322" t="s">
+        <v>587</v>
       </c>
       <c r="D109" s="44" t="str">
         <f t="shared" si="2"/>
@@ -26571,10 +26778,10 @@
         <v>18</v>
       </c>
       <c r="B110" s="136" t="s">
-        <v>582</v>
-      </c>
-      <c r="C110" s="328" t="s">
-        <v>589</v>
+        <v>581</v>
+      </c>
+      <c r="C110" s="325" t="s">
+        <v>588</v>
       </c>
       <c r="D110" s="44" t="str">
         <f t="shared" si="2"/>
@@ -26703,10 +26910,10 @@
         <v>18</v>
       </c>
       <c r="B111" s="136" t="s">
-        <v>582</v>
-      </c>
-      <c r="C111" s="326" t="s">
-        <v>546</v>
+        <v>581</v>
+      </c>
+      <c r="C111" s="323" t="s">
+        <v>545</v>
       </c>
       <c r="D111" s="44" t="str">
         <f t="shared" si="2"/>
@@ -26835,10 +27042,10 @@
         <v>18</v>
       </c>
       <c r="B112" s="136" t="s">
-        <v>582</v>
-      </c>
-      <c r="C112" s="326" t="s">
-        <v>553</v>
+        <v>581</v>
+      </c>
+      <c r="C112" s="323" t="s">
+        <v>552</v>
       </c>
       <c r="D112" s="44" t="str">
         <f t="shared" si="2"/>
@@ -26967,10 +27174,10 @@
         <v>18</v>
       </c>
       <c r="B113" s="136" t="s">
-        <v>582</v>
-      </c>
-      <c r="C113" s="326" t="s">
-        <v>547</v>
+        <v>581</v>
+      </c>
+      <c r="C113" s="323" t="s">
+        <v>546</v>
       </c>
       <c r="D113" s="44" t="str">
         <f t="shared" si="2"/>
@@ -27099,10 +27306,10 @@
         <v>18</v>
       </c>
       <c r="B114" s="136" t="s">
-        <v>582</v>
-      </c>
-      <c r="C114" s="326" t="s">
-        <v>548</v>
+        <v>581</v>
+      </c>
+      <c r="C114" s="323" t="s">
+        <v>547</v>
       </c>
       <c r="D114" s="44" t="str">
         <f t="shared" si="2"/>
@@ -27231,10 +27438,10 @@
         <v>18</v>
       </c>
       <c r="B115" s="136" t="s">
-        <v>582</v>
-      </c>
-      <c r="C115" s="326" t="s">
-        <v>549</v>
+        <v>581</v>
+      </c>
+      <c r="C115" s="323" t="s">
+        <v>548</v>
       </c>
       <c r="D115" s="44" t="str">
         <f t="shared" si="2"/>
@@ -27363,10 +27570,10 @@
         <v>18</v>
       </c>
       <c r="B116" s="136" t="s">
-        <v>582</v>
-      </c>
-      <c r="C116" s="326" t="s">
-        <v>550</v>
+        <v>581</v>
+      </c>
+      <c r="C116" s="323" t="s">
+        <v>549</v>
       </c>
       <c r="D116" s="44" t="str">
         <f t="shared" si="2"/>
@@ -27495,10 +27702,10 @@
         <v>18</v>
       </c>
       <c r="B117" s="136" t="s">
-        <v>582</v>
-      </c>
-      <c r="C117" s="326" t="s">
-        <v>551</v>
+        <v>581</v>
+      </c>
+      <c r="C117" s="323" t="s">
+        <v>550</v>
       </c>
       <c r="D117" s="44" t="str">
         <f t="shared" si="2"/>
@@ -27627,10 +27834,10 @@
         <v>18</v>
       </c>
       <c r="B118" s="136" t="s">
-        <v>582</v>
-      </c>
-      <c r="C118" s="326" t="s">
-        <v>554</v>
+        <v>581</v>
+      </c>
+      <c r="C118" s="323" t="s">
+        <v>553</v>
       </c>
       <c r="D118" s="44" t="str">
         <f t="shared" si="2"/>
@@ -27759,10 +27966,10 @@
         <v>18</v>
       </c>
       <c r="B119" s="136" t="s">
-        <v>582</v>
-      </c>
-      <c r="C119" s="326" t="s">
-        <v>555</v>
+        <v>581</v>
+      </c>
+      <c r="C119" s="323" t="s">
+        <v>554</v>
       </c>
       <c r="D119" s="44" t="str">
         <f t="shared" si="2"/>
@@ -27891,10 +28098,10 @@
         <v>18</v>
       </c>
       <c r="B120" s="136" t="s">
-        <v>582</v>
-      </c>
-      <c r="C120" s="326" t="s">
-        <v>556</v>
+        <v>581</v>
+      </c>
+      <c r="C120" s="323" t="s">
+        <v>555</v>
       </c>
       <c r="D120" s="44" t="str">
         <f t="shared" si="2"/>
@@ -28023,10 +28230,10 @@
         <v>18</v>
       </c>
       <c r="B121" s="136" t="s">
-        <v>582</v>
-      </c>
-      <c r="C121" s="326" t="s">
-        <v>557</v>
+        <v>581</v>
+      </c>
+      <c r="C121" s="323" t="s">
+        <v>556</v>
       </c>
       <c r="D121" s="44" t="str">
         <f t="shared" si="2"/>
@@ -28155,10 +28362,10 @@
         <v>18</v>
       </c>
       <c r="B122" s="136" t="s">
-        <v>582</v>
-      </c>
-      <c r="C122" s="326" t="s">
-        <v>558</v>
+        <v>581</v>
+      </c>
+      <c r="C122" s="323" t="s">
+        <v>557</v>
       </c>
       <c r="D122" s="44" t="str">
         <f t="shared" si="2"/>
@@ -28287,10 +28494,10 @@
         <v>18</v>
       </c>
       <c r="B123" s="136" t="s">
-        <v>582</v>
-      </c>
-      <c r="C123" s="326" t="s">
-        <v>559</v>
+        <v>581</v>
+      </c>
+      <c r="C123" s="323" t="s">
+        <v>558</v>
       </c>
       <c r="D123" s="44" t="str">
         <f t="shared" si="2"/>
@@ -28419,10 +28626,10 @@
         <v>18</v>
       </c>
       <c r="B124" s="136" t="s">
-        <v>582</v>
-      </c>
-      <c r="C124" s="326" t="s">
-        <v>560</v>
+        <v>581</v>
+      </c>
+      <c r="C124" s="323" t="s">
+        <v>559</v>
       </c>
       <c r="D124" s="44" t="str">
         <f t="shared" si="2"/>
@@ -28551,10 +28758,10 @@
         <v>18</v>
       </c>
       <c r="B125" s="136" t="s">
-        <v>582</v>
-      </c>
-      <c r="C125" s="326" t="s">
-        <v>561</v>
+        <v>581</v>
+      </c>
+      <c r="C125" s="323" t="s">
+        <v>560</v>
       </c>
       <c r="D125" s="44" t="str">
         <f t="shared" si="2"/>
@@ -28683,10 +28890,10 @@
         <v>18</v>
       </c>
       <c r="B126" s="136" t="s">
-        <v>582</v>
-      </c>
-      <c r="C126" s="326" t="s">
-        <v>562</v>
+        <v>581</v>
+      </c>
+      <c r="C126" s="323" t="s">
+        <v>561</v>
       </c>
       <c r="D126" s="44" t="str">
         <f t="shared" si="2"/>
@@ -28815,10 +29022,10 @@
         <v>18</v>
       </c>
       <c r="B127" s="136" t="s">
-        <v>582</v>
-      </c>
-      <c r="C127" s="326" t="s">
-        <v>563</v>
+        <v>581</v>
+      </c>
+      <c r="C127" s="323" t="s">
+        <v>562</v>
       </c>
       <c r="D127" s="44" t="str">
         <f t="shared" si="2"/>
@@ -28947,10 +29154,10 @@
         <v>18</v>
       </c>
       <c r="B128" s="136" t="s">
-        <v>582</v>
-      </c>
-      <c r="C128" s="326" t="s">
-        <v>564</v>
+        <v>581</v>
+      </c>
+      <c r="C128" s="323" t="s">
+        <v>563</v>
       </c>
       <c r="D128" s="44" t="str">
         <f t="shared" si="2"/>
@@ -29079,10 +29286,10 @@
         <v>18</v>
       </c>
       <c r="B129" s="136" t="s">
-        <v>582</v>
-      </c>
-      <c r="C129" s="326" t="s">
-        <v>565</v>
+        <v>581</v>
+      </c>
+      <c r="C129" s="323" t="s">
+        <v>564</v>
       </c>
       <c r="D129" s="44" t="str">
         <f t="shared" si="2"/>
@@ -29211,10 +29418,10 @@
         <v>18</v>
       </c>
       <c r="B130" s="136" t="s">
-        <v>582</v>
-      </c>
-      <c r="C130" s="326" t="s">
-        <v>566</v>
+        <v>581</v>
+      </c>
+      <c r="C130" s="323" t="s">
+        <v>565</v>
       </c>
       <c r="D130" s="44" t="str">
         <f t="shared" si="2"/>
@@ -29343,10 +29550,10 @@
         <v>18</v>
       </c>
       <c r="B131" s="136" t="s">
-        <v>582</v>
-      </c>
-      <c r="C131" s="326" t="s">
-        <v>567</v>
+        <v>581</v>
+      </c>
+      <c r="C131" s="323" t="s">
+        <v>566</v>
       </c>
       <c r="D131" s="44" t="str">
         <f t="shared" si="2"/>
@@ -29475,10 +29682,10 @@
         <v>18</v>
       </c>
       <c r="B132" s="136" t="s">
-        <v>582</v>
-      </c>
-      <c r="C132" s="326" t="s">
-        <v>568</v>
+        <v>581</v>
+      </c>
+      <c r="C132" s="323" t="s">
+        <v>567</v>
       </c>
       <c r="D132" s="44" t="str">
         <f t="shared" si="2"/>
@@ -29607,10 +29814,10 @@
         <v>18</v>
       </c>
       <c r="B133" s="136" t="s">
-        <v>582</v>
-      </c>
-      <c r="C133" s="326" t="s">
-        <v>569</v>
+        <v>581</v>
+      </c>
+      <c r="C133" s="323" t="s">
+        <v>568</v>
       </c>
       <c r="D133" s="44" t="str">
         <f t="shared" si="2"/>
@@ -29739,10 +29946,10 @@
         <v>18</v>
       </c>
       <c r="B134" s="136" t="s">
-        <v>582</v>
-      </c>
-      <c r="C134" s="326" t="s">
-        <v>570</v>
+        <v>581</v>
+      </c>
+      <c r="C134" s="323" t="s">
+        <v>569</v>
       </c>
       <c r="D134" s="44" t="str">
         <f t="shared" si="2"/>
@@ -29871,10 +30078,10 @@
         <v>18</v>
       </c>
       <c r="B135" s="136" t="s">
-        <v>582</v>
-      </c>
-      <c r="C135" s="326" t="s">
-        <v>571</v>
+        <v>581</v>
+      </c>
+      <c r="C135" s="323" t="s">
+        <v>570</v>
       </c>
       <c r="D135" s="44" t="str">
         <f t="shared" si="2"/>
@@ -30003,10 +30210,10 @@
         <v>18</v>
       </c>
       <c r="B136" s="136" t="s">
-        <v>582</v>
-      </c>
-      <c r="C136" s="326" t="s">
-        <v>572</v>
+        <v>581</v>
+      </c>
+      <c r="C136" s="323" t="s">
+        <v>571</v>
       </c>
       <c r="D136" s="44" t="str">
         <f t="shared" si="2"/>
@@ -30135,10 +30342,10 @@
         <v>18</v>
       </c>
       <c r="B137" s="136" t="s">
-        <v>582</v>
-      </c>
-      <c r="C137" s="326" t="s">
-        <v>573</v>
+        <v>581</v>
+      </c>
+      <c r="C137" s="323" t="s">
+        <v>572</v>
       </c>
       <c r="D137" s="44" t="str">
         <f t="shared" si="2"/>
@@ -30267,10 +30474,10 @@
         <v>18</v>
       </c>
       <c r="B138" s="136" t="s">
-        <v>582</v>
-      </c>
-      <c r="C138" s="326" t="s">
-        <v>574</v>
+        <v>581</v>
+      </c>
+      <c r="C138" s="323" t="s">
+        <v>573</v>
       </c>
       <c r="D138" s="44" t="str">
         <f t="shared" si="2"/>
@@ -30399,10 +30606,10 @@
         <v>18</v>
       </c>
       <c r="B139" s="136" t="s">
-        <v>582</v>
-      </c>
-      <c r="C139" s="326" t="s">
-        <v>575</v>
+        <v>581</v>
+      </c>
+      <c r="C139" s="323" t="s">
+        <v>574</v>
       </c>
       <c r="D139" s="44" t="str">
         <f t="shared" si="2"/>
@@ -30531,10 +30738,10 @@
         <v>18</v>
       </c>
       <c r="B140" s="136" t="s">
-        <v>582</v>
-      </c>
-      <c r="C140" s="326" t="s">
-        <v>576</v>
+        <v>581</v>
+      </c>
+      <c r="C140" s="323" t="s">
+        <v>575</v>
       </c>
       <c r="D140" s="44" t="str">
         <f t="shared" si="2"/>
@@ -30663,10 +30870,10 @@
         <v>18</v>
       </c>
       <c r="B141" s="136" t="s">
-        <v>582</v>
-      </c>
-      <c r="C141" s="326" t="s">
-        <v>577</v>
+        <v>581</v>
+      </c>
+      <c r="C141" s="323" t="s">
+        <v>576</v>
       </c>
       <c r="D141" s="44" t="str">
         <f t="shared" si="2"/>
@@ -30795,10 +31002,10 @@
         <v>18</v>
       </c>
       <c r="B142" s="136" t="s">
-        <v>582</v>
-      </c>
-      <c r="C142" s="326" t="s">
-        <v>578</v>
+        <v>581</v>
+      </c>
+      <c r="C142" s="323" t="s">
+        <v>577</v>
       </c>
       <c r="D142" s="44" t="str">
         <f t="shared" si="2"/>
@@ -30927,10 +31134,10 @@
         <v>18</v>
       </c>
       <c r="B143" s="136" t="s">
-        <v>582</v>
-      </c>
-      <c r="C143" s="326" t="s">
-        <v>579</v>
+        <v>581</v>
+      </c>
+      <c r="C143" s="323" t="s">
+        <v>578</v>
       </c>
       <c r="D143" s="44" t="str">
         <f t="shared" si="2"/>
@@ -31059,10 +31266,10 @@
         <v>18</v>
       </c>
       <c r="B144" s="136" t="s">
-        <v>582</v>
-      </c>
-      <c r="C144" s="326" t="s">
-        <v>580</v>
+        <v>581</v>
+      </c>
+      <c r="C144" s="323" t="s">
+        <v>579</v>
       </c>
       <c r="D144" s="44" t="str">
         <f t="shared" si="2"/>
@@ -31191,10 +31398,10 @@
         <v>18</v>
       </c>
       <c r="B145" s="136" t="s">
-        <v>582</v>
-      </c>
-      <c r="C145" s="326" t="s">
         <v>581</v>
+      </c>
+      <c r="C145" s="323" t="s">
+        <v>580</v>
       </c>
       <c r="D145" s="44" t="str">
         <f t="shared" ref="D145" si="3">LEFT(C145,7)</f>
@@ -33603,24 +33810,24 @@
   <dimension ref="A1:AG193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.58203125" style="286" customWidth="1"/>
+    <col min="1" max="1" width="23.58203125" style="283" customWidth="1"/>
     <col min="2" max="2" width="28.33203125" style="37" customWidth="1"/>
     <col min="3" max="3" width="11.08203125" style="36" customWidth="1"/>
     <col min="4" max="4" width="16.58203125" style="36" customWidth="1"/>
-    <col min="5" max="5" width="47.75" style="311" customWidth="1"/>
+    <col min="5" max="5" width="47.75" style="308" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="39"/>
     <col min="7" max="33" width="10.83203125" style="40"/>
     <col min="34" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="6" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="266" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="64" t="s">
@@ -33632,7 +33839,7 @@
       <c r="D1" s="65" t="s">
         <v>288</v>
       </c>
-      <c r="E1" s="287" t="s">
+      <c r="E1" s="284" t="s">
         <v>148</v>
       </c>
       <c r="F1" s="38"/>
@@ -33664,7 +33871,7 @@
       <c r="AF1" s="38"/>
     </row>
     <row r="2" spans="1:33" s="7" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A2" s="269">
+      <c r="A2" s="267">
         <v>2</v>
       </c>
       <c r="B2" s="67" t="s">
@@ -33674,7 +33881,7 @@
         <v>48</v>
       </c>
       <c r="D2" s="66"/>
-      <c r="E2" s="288" t="s">
+      <c r="E2" s="285" t="s">
         <v>427</v>
       </c>
       <c r="F2" s="39"/>
@@ -33707,7 +33914,7 @@
       <c r="AG2" s="40"/>
     </row>
     <row r="3" spans="1:33" s="7" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A3" s="269">
+      <c r="A3" s="267">
         <v>2</v>
       </c>
       <c r="B3" s="67" t="s">
@@ -33717,7 +33924,7 @@
         <v>48</v>
       </c>
       <c r="D3" s="66"/>
-      <c r="E3" s="288" t="s">
+      <c r="E3" s="285" t="s">
         <v>428</v>
       </c>
       <c r="F3" s="39"/>
@@ -33750,7 +33957,7 @@
       <c r="AG3" s="40"/>
     </row>
     <row r="4" spans="1:33" s="7" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A4" s="269">
+      <c r="A4" s="267">
         <v>2</v>
       </c>
       <c r="B4" s="67" t="s">
@@ -33760,7 +33967,7 @@
         <v>48</v>
       </c>
       <c r="D4" s="66"/>
-      <c r="E4" s="289" t="s">
+      <c r="E4" s="286" t="s">
         <v>429</v>
       </c>
       <c r="F4" s="39"/>
@@ -33793,7 +34000,7 @@
       <c r="AG4" s="40"/>
     </row>
     <row r="5" spans="1:33" s="7" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A5" s="269">
+      <c r="A5" s="267">
         <v>2</v>
       </c>
       <c r="B5" s="67" t="s">
@@ -33803,7 +34010,7 @@
         <v>48</v>
       </c>
       <c r="D5" s="66"/>
-      <c r="E5" s="289" t="s">
+      <c r="E5" s="286" t="s">
         <v>430</v>
       </c>
       <c r="F5" s="39"/>
@@ -33836,7 +34043,7 @@
       <c r="AG5" s="40"/>
     </row>
     <row r="6" spans="1:33" s="7" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A6" s="269">
+      <c r="A6" s="267">
         <v>2</v>
       </c>
       <c r="B6" s="67" t="s">
@@ -33846,7 +34053,7 @@
         <v>48</v>
       </c>
       <c r="D6" s="66"/>
-      <c r="E6" s="289" t="s">
+      <c r="E6" s="286" t="s">
         <v>431</v>
       </c>
       <c r="F6" s="39"/>
@@ -33879,7 +34086,7 @@
       <c r="AG6" s="40"/>
     </row>
     <row r="7" spans="1:33" s="7" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A7" s="269">
+      <c r="A7" s="267">
         <v>2</v>
       </c>
       <c r="B7" s="67" t="s">
@@ -33889,7 +34096,7 @@
         <v>48</v>
       </c>
       <c r="D7" s="66"/>
-      <c r="E7" s="289" t="s">
+      <c r="E7" s="286" t="s">
         <v>432</v>
       </c>
       <c r="F7" s="39"/>
@@ -33922,7 +34129,7 @@
       <c r="AG7" s="40"/>
     </row>
     <row r="8" spans="1:33" s="7" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A8" s="269">
+      <c r="A8" s="267">
         <v>2</v>
       </c>
       <c r="B8" s="67" t="s">
@@ -33932,7 +34139,7 @@
         <v>48</v>
       </c>
       <c r="D8" s="66"/>
-      <c r="E8" s="289" t="s">
+      <c r="E8" s="286" t="s">
         <v>433</v>
       </c>
       <c r="F8" s="39"/>
@@ -33965,7 +34172,7 @@
       <c r="AG8" s="40"/>
     </row>
     <row r="9" spans="1:33" s="7" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A9" s="269">
+      <c r="A9" s="267">
         <v>2</v>
       </c>
       <c r="B9" s="67" t="s">
@@ -33975,7 +34182,7 @@
         <v>48</v>
       </c>
       <c r="D9" s="66"/>
-      <c r="E9" s="289" t="s">
+      <c r="E9" s="286" t="s">
         <v>434</v>
       </c>
       <c r="F9" s="39"/>
@@ -34008,7 +34215,7 @@
       <c r="AG9" s="40"/>
     </row>
     <row r="10" spans="1:33" s="7" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A10" s="269">
+      <c r="A10" s="267">
         <v>2</v>
       </c>
       <c r="B10" s="67" t="s">
@@ -34018,7 +34225,7 @@
         <v>48</v>
       </c>
       <c r="D10" s="66"/>
-      <c r="E10" s="289" t="s">
+      <c r="E10" s="286" t="s">
         <v>435</v>
       </c>
       <c r="F10" s="39"/>
@@ -34051,7 +34258,7 @@
       <c r="AG10" s="40"/>
     </row>
     <row r="11" spans="1:33" s="7" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A11" s="269">
+      <c r="A11" s="267">
         <v>2</v>
       </c>
       <c r="B11" s="67" t="s">
@@ -34061,7 +34268,7 @@
         <v>48</v>
       </c>
       <c r="D11" s="66"/>
-      <c r="E11" s="289" t="s">
+      <c r="E11" s="286" t="s">
         <v>436</v>
       </c>
       <c r="F11" s="39"/>
@@ -34094,7 +34301,7 @@
       <c r="AG11" s="40"/>
     </row>
     <row r="12" spans="1:33" s="7" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A12" s="269">
+      <c r="A12" s="267">
         <v>2</v>
       </c>
       <c r="B12" s="67" t="s">
@@ -34104,7 +34311,7 @@
         <v>48</v>
       </c>
       <c r="D12" s="66"/>
-      <c r="E12" s="289" t="s">
+      <c r="E12" s="286" t="s">
         <v>437</v>
       </c>
       <c r="F12" s="39"/>
@@ -34137,7 +34344,7 @@
       <c r="AG12" s="40"/>
     </row>
     <row r="13" spans="1:33" s="7" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A13" s="270">
+      <c r="A13" s="268">
         <v>3</v>
       </c>
       <c r="B13" s="68" t="s">
@@ -34147,7 +34354,7 @@
       <c r="D13" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="290" t="s">
+      <c r="E13" s="287" t="s">
         <v>160</v>
       </c>
       <c r="F13" s="39"/>
@@ -34180,7 +34387,7 @@
       <c r="AG13" s="40"/>
     </row>
     <row r="14" spans="1:33" s="7" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A14" s="270">
+      <c r="A14" s="268">
         <v>3</v>
       </c>
       <c r="B14" s="68" t="s">
@@ -34190,7 +34397,7 @@
       <c r="D14" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="290" t="s">
+      <c r="E14" s="287" t="s">
         <v>161</v>
       </c>
       <c r="F14" s="39"/>
@@ -34223,7 +34430,7 @@
       <c r="AG14" s="40"/>
     </row>
     <row r="15" spans="1:33" s="7" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A15" s="270">
+      <c r="A15" s="268">
         <v>3</v>
       </c>
       <c r="B15" s="68" t="s">
@@ -34233,7 +34440,7 @@
       <c r="D15" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="290" t="s">
+      <c r="E15" s="287" t="s">
         <v>162</v>
       </c>
       <c r="F15" s="39"/>
@@ -34266,7 +34473,7 @@
       <c r="AG15" s="40"/>
     </row>
     <row r="16" spans="1:33" s="8" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A16" s="270">
+      <c r="A16" s="268">
         <v>3</v>
       </c>
       <c r="B16" s="68" t="s">
@@ -34276,7 +34483,7 @@
       <c r="D16" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="290" t="s">
+      <c r="E16" s="287" t="s">
         <v>163</v>
       </c>
       <c r="F16" s="39"/>
@@ -34309,7 +34516,7 @@
       <c r="AG16" s="40"/>
     </row>
     <row r="17" spans="1:33" s="9" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A17" s="270">
+      <c r="A17" s="268">
         <v>3</v>
       </c>
       <c r="B17" s="68" t="s">
@@ -34319,7 +34526,7 @@
       <c r="D17" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="290" t="s">
+      <c r="E17" s="287" t="s">
         <v>164</v>
       </c>
       <c r="F17" s="39"/>
@@ -34352,7 +34559,7 @@
       <c r="AG17" s="40"/>
     </row>
     <row r="18" spans="1:33" s="9" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A18" s="270">
+      <c r="A18" s="268">
         <v>3</v>
       </c>
       <c r="B18" s="68" t="s">
@@ -34362,7 +34569,7 @@
       <c r="D18" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="290" t="s">
+      <c r="E18" s="287" t="s">
         <v>165</v>
       </c>
       <c r="F18" s="39"/>
@@ -34395,7 +34602,7 @@
       <c r="AG18" s="40"/>
     </row>
     <row r="19" spans="1:33" s="9" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A19" s="270">
+      <c r="A19" s="268">
         <v>3</v>
       </c>
       <c r="B19" s="68" t="s">
@@ -34405,7 +34612,7 @@
       <c r="D19" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="290" t="s">
+      <c r="E19" s="287" t="s">
         <v>166</v>
       </c>
       <c r="F19" s="39"/>
@@ -34438,7 +34645,7 @@
       <c r="AG19" s="40"/>
     </row>
     <row r="20" spans="1:33" s="9" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A20" s="270">
+      <c r="A20" s="268">
         <v>3</v>
       </c>
       <c r="B20" s="68" t="s">
@@ -34448,7 +34655,7 @@
       <c r="D20" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="290" t="s">
+      <c r="E20" s="287" t="s">
         <v>167</v>
       </c>
       <c r="F20" s="39"/>
@@ -34481,7 +34688,7 @@
       <c r="AG20" s="40"/>
     </row>
     <row r="21" spans="1:33" s="9" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A21" s="270">
+      <c r="A21" s="268">
         <v>3</v>
       </c>
       <c r="B21" s="68" t="s">
@@ -34491,7 +34698,7 @@
       <c r="D21" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="290" t="s">
+      <c r="E21" s="287" t="s">
         <v>168</v>
       </c>
       <c r="F21" s="39"/>
@@ -34523,53 +34730,26 @@
       <c r="AF21" s="40"/>
       <c r="AG21" s="40"/>
     </row>
-    <row r="22" spans="1:33" s="9" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A22" s="271">
+    <row r="22" spans="1:33" s="40" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A22" s="328">
         <v>3</v>
       </c>
-      <c r="B22" s="237" t="s">
+      <c r="B22" s="329" t="s">
         <v>386</v>
       </c>
-      <c r="C22" s="238" t="s">
+      <c r="C22" s="330" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="239"/>
-      <c r="E22" s="291" t="s">
+      <c r="D22" s="331"/>
+      <c r="E22" s="332" t="s">
         <v>514</v>
       </c>
       <c r="F22" s="39" t="s">
         <v>450</v>
       </c>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="40"/>
-      <c r="AA22" s="40"/>
-      <c r="AB22" s="40"/>
-      <c r="AC22" s="40"/>
-      <c r="AD22" s="40"/>
-      <c r="AE22" s="40"/>
-      <c r="AF22" s="40"/>
-      <c r="AG22" s="40"/>
     </row>
     <row r="23" spans="1:33" s="9" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A23" s="272">
+      <c r="A23" s="269">
         <v>4</v>
       </c>
       <c r="B23" s="72" t="s">
@@ -34579,7 +34759,7 @@
         <v>48</v>
       </c>
       <c r="D23" s="71"/>
-      <c r="E23" s="292" t="s">
+      <c r="E23" s="289" t="s">
         <v>157</v>
       </c>
       <c r="F23" s="39"/>
@@ -34612,7 +34792,7 @@
       <c r="AG23" s="40"/>
     </row>
     <row r="24" spans="1:33" s="9" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A24" s="272">
+      <c r="A24" s="269">
         <v>4</v>
       </c>
       <c r="B24" s="72" t="s">
@@ -34622,7 +34802,7 @@
       <c r="D24" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="292" t="s">
+      <c r="E24" s="289" t="s">
         <v>285</v>
       </c>
       <c r="F24" s="39"/>
@@ -34655,7 +34835,7 @@
       <c r="AG24" s="40"/>
     </row>
     <row r="25" spans="1:33" s="9" customFormat="1" ht="32.15" customHeight="1">
-      <c r="A25" s="273">
+      <c r="A25" s="270">
         <v>5</v>
       </c>
       <c r="B25" s="74" t="s">
@@ -34665,7 +34845,7 @@
         <v>521</v>
       </c>
       <c r="D25" s="75"/>
-      <c r="E25" s="293" t="s">
+      <c r="E25" s="290" t="s">
         <v>424</v>
       </c>
       <c r="F25" s="39"/>
@@ -34698,7 +34878,7 @@
       <c r="AG25" s="40"/>
     </row>
     <row r="26" spans="1:33" s="9" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A26" s="274">
+      <c r="A26" s="271">
         <v>6</v>
       </c>
       <c r="B26" s="76" t="s">
@@ -34708,7 +34888,7 @@
         <v>48</v>
       </c>
       <c r="D26" s="78"/>
-      <c r="E26" s="294" t="s">
+      <c r="E26" s="291" t="s">
         <v>152</v>
       </c>
       <c r="F26" s="39"/>
@@ -34741,17 +34921,17 @@
       <c r="AG26" s="40"/>
     </row>
     <row r="27" spans="1:33" s="40" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A27" s="275">
+      <c r="A27" s="272">
         <v>6</v>
       </c>
-      <c r="B27" s="241" t="s">
+      <c r="B27" s="239" t="s">
         <v>155</v>
       </c>
-      <c r="C27" s="238" t="s">
+      <c r="C27" s="237" t="s">
         <v>48</v>
       </c>
       <c r="D27" s="236"/>
-      <c r="E27" s="295" t="s">
+      <c r="E27" s="292" t="s">
         <v>150</v>
       </c>
       <c r="F27" s="39" t="s">
@@ -34759,17 +34939,17 @@
       </c>
     </row>
     <row r="28" spans="1:33" s="40" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A28" s="275">
+      <c r="A28" s="272">
         <v>6</v>
       </c>
-      <c r="B28" s="241" t="s">
+      <c r="B28" s="239" t="s">
         <v>155</v>
       </c>
-      <c r="C28" s="238" t="s">
+      <c r="C28" s="237" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="236"/>
-      <c r="E28" s="291" t="s">
+      <c r="E28" s="288" t="s">
         <v>151</v>
       </c>
       <c r="F28" s="41" t="s">
@@ -34777,7 +34957,7 @@
       </c>
     </row>
     <row r="29" spans="1:33" s="13" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A29" s="276" t="s">
+      <c r="A29" s="273" t="s">
         <v>284</v>
       </c>
       <c r="B29" s="68" t="s">
@@ -34787,7 +34967,7 @@
         <v>48</v>
       </c>
       <c r="D29" s="70"/>
-      <c r="E29" s="296" t="s">
+      <c r="E29" s="293" t="s">
         <v>19</v>
       </c>
       <c r="F29" s="41"/>
@@ -34820,7 +35000,7 @@
       <c r="AG29" s="40"/>
     </row>
     <row r="30" spans="1:33" s="11" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A30" s="276" t="s">
+      <c r="A30" s="273" t="s">
         <v>284</v>
       </c>
       <c r="B30" s="68" t="s">
@@ -34830,7 +35010,7 @@
         <v>48</v>
       </c>
       <c r="D30" s="70"/>
-      <c r="E30" s="296" t="s">
+      <c r="E30" s="293" t="s">
         <v>20</v>
       </c>
       <c r="F30" s="41"/>
@@ -34863,7 +35043,7 @@
       <c r="AG30" s="40"/>
     </row>
     <row r="31" spans="1:33" s="12" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A31" s="276" t="s">
+      <c r="A31" s="273" t="s">
         <v>284</v>
       </c>
       <c r="B31" s="68" t="s">
@@ -34873,7 +35053,7 @@
         <v>48</v>
       </c>
       <c r="D31" s="70"/>
-      <c r="E31" s="296" t="s">
+      <c r="E31" s="293" t="s">
         <v>21</v>
       </c>
       <c r="F31" s="41"/>
@@ -34906,7 +35086,7 @@
       <c r="AG31" s="40"/>
     </row>
     <row r="32" spans="1:33" s="12" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A32" s="276" t="s">
+      <c r="A32" s="273" t="s">
         <v>284</v>
       </c>
       <c r="B32" s="68" t="s">
@@ -34916,7 +35096,7 @@
         <v>48</v>
       </c>
       <c r="D32" s="70"/>
-      <c r="E32" s="296" t="s">
+      <c r="E32" s="293" t="s">
         <v>22</v>
       </c>
       <c r="F32" s="41"/>
@@ -34949,7 +35129,7 @@
       <c r="AG32" s="40"/>
     </row>
     <row r="33" spans="1:33" s="12" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A33" s="276" t="s">
+      <c r="A33" s="273" t="s">
         <v>284</v>
       </c>
       <c r="B33" s="68" t="s">
@@ -34959,7 +35139,7 @@
         <v>48</v>
       </c>
       <c r="D33" s="70"/>
-      <c r="E33" s="296" t="s">
+      <c r="E33" s="293" t="s">
         <v>23</v>
       </c>
       <c r="F33" s="41"/>
@@ -34992,7 +35172,7 @@
       <c r="AG33" s="40"/>
     </row>
     <row r="34" spans="1:33" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A34" s="276" t="s">
+      <c r="A34" s="273" t="s">
         <v>284</v>
       </c>
       <c r="B34" s="68" t="s">
@@ -35002,7 +35182,7 @@
         <v>48</v>
       </c>
       <c r="D34" s="70"/>
-      <c r="E34" s="296" t="s">
+      <c r="E34" s="293" t="s">
         <v>24</v>
       </c>
       <c r="F34" s="41"/>
@@ -35035,7 +35215,7 @@
       <c r="AG34" s="40"/>
     </row>
     <row r="35" spans="1:33" s="14" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A35" s="276" t="s">
+      <c r="A35" s="273" t="s">
         <v>284</v>
       </c>
       <c r="B35" s="68" t="s">
@@ -35045,7 +35225,7 @@
       <c r="D35" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="297" t="s">
+      <c r="E35" s="294" t="s">
         <v>25</v>
       </c>
       <c r="F35" s="41"/>
@@ -35078,7 +35258,7 @@
       <c r="AG35" s="40"/>
     </row>
     <row r="36" spans="1:33" s="7" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A36" s="276" t="s">
+      <c r="A36" s="273" t="s">
         <v>284</v>
       </c>
       <c r="B36" s="68" t="s">
@@ -35088,7 +35268,7 @@
       <c r="D36" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="297" t="s">
+      <c r="E36" s="294" t="s">
         <v>26</v>
       </c>
       <c r="F36" s="41"/>
@@ -35121,7 +35301,7 @@
       <c r="AG36" s="40"/>
     </row>
     <row r="37" spans="1:33" s="7" customFormat="1" ht="33" customHeight="1">
-      <c r="A37" s="276" t="s">
+      <c r="A37" s="273" t="s">
         <v>284</v>
       </c>
       <c r="B37" s="68" t="s">
@@ -35131,7 +35311,7 @@
       <c r="D37" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="297" t="s">
+      <c r="E37" s="294" t="s">
         <v>27</v>
       </c>
       <c r="F37" s="41"/>
@@ -35164,7 +35344,7 @@
       <c r="AG37" s="40"/>
     </row>
     <row r="38" spans="1:33" s="9" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A38" s="276" t="s">
+      <c r="A38" s="273" t="s">
         <v>284</v>
       </c>
       <c r="B38" s="68" t="s">
@@ -35174,7 +35354,7 @@
       <c r="D38" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="297" t="s">
+      <c r="E38" s="294" t="s">
         <v>28</v>
       </c>
       <c r="F38" s="41"/>
@@ -35207,7 +35387,7 @@
       <c r="AG38" s="40"/>
     </row>
     <row r="39" spans="1:33" s="9" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A39" s="276" t="s">
+      <c r="A39" s="273" t="s">
         <v>284</v>
       </c>
       <c r="B39" s="68" t="s">
@@ -35217,7 +35397,7 @@
       <c r="D39" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="297" t="s">
+      <c r="E39" s="294" t="s">
         <v>29</v>
       </c>
       <c r="F39" s="41"/>
@@ -35250,7 +35430,7 @@
       <c r="AG39" s="40"/>
     </row>
     <row r="40" spans="1:33" s="9" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A40" s="276" t="s">
+      <c r="A40" s="273" t="s">
         <v>284</v>
       </c>
       <c r="B40" s="68" t="s">
@@ -35260,7 +35440,7 @@
       <c r="D40" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="297" t="s">
+      <c r="E40" s="294" t="s">
         <v>30</v>
       </c>
       <c r="F40" s="41"/>
@@ -35293,7 +35473,7 @@
       <c r="AG40" s="40"/>
     </row>
     <row r="41" spans="1:33" s="9" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A41" s="276" t="s">
+      <c r="A41" s="273" t="s">
         <v>284</v>
       </c>
       <c r="B41" s="68" t="s">
@@ -35303,7 +35483,7 @@
       <c r="D41" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="297" t="s">
+      <c r="E41" s="294" t="s">
         <v>31</v>
       </c>
       <c r="F41" s="41"/>
@@ -35336,7 +35516,7 @@
       <c r="AG41" s="40"/>
     </row>
     <row r="42" spans="1:33" s="9" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A42" s="277">
+      <c r="A42" s="274">
         <v>10</v>
       </c>
       <c r="B42" s="80" t="s">
@@ -35346,7 +35526,7 @@
         <v>48</v>
       </c>
       <c r="D42" s="79"/>
-      <c r="E42" s="298" t="s">
+      <c r="E42" s="295" t="s">
         <v>169</v>
       </c>
       <c r="F42" s="41"/>
@@ -35379,7 +35559,7 @@
       <c r="AG42" s="40"/>
     </row>
     <row r="43" spans="1:33" s="9" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A43" s="278">
+      <c r="A43" s="275">
         <v>11</v>
       </c>
       <c r="B43" s="82" t="s">
@@ -35389,7 +35569,7 @@
       <c r="D43" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="E43" s="299" t="s">
+      <c r="E43" s="296" t="s">
         <v>159</v>
       </c>
       <c r="F43" s="41"/>
@@ -35422,7 +35602,7 @@
       <c r="AG43" s="40"/>
     </row>
     <row r="44" spans="1:33" s="9" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A44" s="279">
+      <c r="A44" s="276">
         <v>12</v>
       </c>
       <c r="B44" s="84" t="s">
@@ -35432,7 +35612,7 @@
         <v>48</v>
       </c>
       <c r="D44" s="86"/>
-      <c r="E44" s="300" t="s">
+      <c r="E44" s="297" t="s">
         <v>149</v>
       </c>
       <c r="F44" s="41"/>
@@ -35465,7 +35645,7 @@
       <c r="AG44" s="40"/>
     </row>
     <row r="45" spans="1:33" s="9" customFormat="1" ht="30" customHeight="1">
-      <c r="A45" s="280">
+      <c r="A45" s="277">
         <v>13</v>
       </c>
       <c r="B45" s="87" t="s">
@@ -35475,7 +35655,7 @@
       <c r="D45" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="E45" s="301" t="s">
+      <c r="E45" s="298" t="s">
         <v>158</v>
       </c>
       <c r="F45" s="41"/>
@@ -35508,7 +35688,7 @@
       <c r="AG45" s="40"/>
     </row>
     <row r="46" spans="1:33" s="9" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A46" s="280">
+      <c r="A46" s="277">
         <v>13</v>
       </c>
       <c r="B46" s="87" t="s">
@@ -35518,7 +35698,7 @@
       <c r="D46" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="E46" s="301" t="s">
+      <c r="E46" s="298" t="s">
         <v>42</v>
       </c>
       <c r="F46" s="41"/>
@@ -35551,17 +35731,17 @@
       <c r="AG46" s="40"/>
     </row>
     <row r="47" spans="1:33" s="9" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A47" s="318">
+      <c r="A47" s="315">
         <v>15</v>
       </c>
-      <c r="B47" s="319" t="s">
+      <c r="B47" s="316" t="s">
         <v>306</v>
       </c>
-      <c r="C47" s="320"/>
-      <c r="D47" s="320" t="s">
+      <c r="C47" s="317"/>
+      <c r="D47" s="317" t="s">
         <v>48</v>
       </c>
-      <c r="E47" s="321" t="s">
+      <c r="E47" s="318" t="s">
         <v>307</v>
       </c>
       <c r="F47" s="41"/>
@@ -35594,17 +35774,17 @@
       <c r="AG47" s="40"/>
     </row>
     <row r="48" spans="1:33" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A48" s="318">
+      <c r="A48" s="315">
         <v>15</v>
       </c>
-      <c r="B48" s="319" t="s">
+      <c r="B48" s="316" t="s">
         <v>306</v>
       </c>
-      <c r="C48" s="320"/>
-      <c r="D48" s="320" t="s">
+      <c r="C48" s="317"/>
+      <c r="D48" s="317" t="s">
         <v>48</v>
       </c>
-      <c r="E48" s="321" t="s">
+      <c r="E48" s="318" t="s">
         <v>308</v>
       </c>
       <c r="F48" s="41"/>
@@ -35637,8 +35817,8 @@
       <c r="AG48" s="40"/>
     </row>
     <row r="49" spans="1:33" s="10" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A49" s="281" t="s">
-        <v>545</v>
+      <c r="A49" s="278" t="s">
+        <v>544</v>
       </c>
       <c r="B49" s="90" t="s">
         <v>45</v>
@@ -35647,7 +35827,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="89"/>
-      <c r="E49" s="302" t="s">
+      <c r="E49" s="299" t="s">
         <v>44</v>
       </c>
       <c r="F49" s="41"/>
@@ -35680,7 +35860,7 @@
       <c r="AG49" s="40"/>
     </row>
     <row r="50" spans="1:33" s="14" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A50" s="281">
+      <c r="A50" s="278">
         <v>17</v>
       </c>
       <c r="B50" s="90" t="s">
@@ -35690,7 +35870,7 @@
       <c r="D50" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="E50" s="303" t="s">
+      <c r="E50" s="300" t="s">
         <v>170</v>
       </c>
       <c r="F50" s="41"/>
@@ -35723,7 +35903,7 @@
       <c r="AG50" s="40"/>
     </row>
     <row r="51" spans="1:33" s="14" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A51" s="281">
+      <c r="A51" s="278">
         <v>17</v>
       </c>
       <c r="B51" s="90" t="s">
@@ -35733,7 +35913,7 @@
       <c r="D51" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="E51" s="302" t="s">
+      <c r="E51" s="299" t="s">
         <v>171</v>
       </c>
       <c r="F51" s="41"/>
@@ -35766,7 +35946,7 @@
       <c r="AG51" s="40"/>
     </row>
     <row r="52" spans="1:33" s="14" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A52" s="281">
+      <c r="A52" s="278">
         <v>17</v>
       </c>
       <c r="B52" s="90" t="s">
@@ -35776,7 +35956,7 @@
       <c r="D52" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="E52" s="302" t="s">
+      <c r="E52" s="299" t="s">
         <v>172</v>
       </c>
       <c r="F52" s="41"/>
@@ -35809,7 +35989,7 @@
       <c r="AG52" s="40"/>
     </row>
     <row r="53" spans="1:33" s="7" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A53" s="282">
+      <c r="A53" s="279">
         <v>18</v>
       </c>
       <c r="B53" s="93" t="s">
@@ -35819,7 +35999,7 @@
         <v>48</v>
       </c>
       <c r="D53" s="92"/>
-      <c r="E53" s="304" t="s">
+      <c r="E53" s="301" t="s">
         <v>314</v>
       </c>
       <c r="F53" s="41"/>
@@ -35844,7 +36024,7 @@
       <c r="Y53" s="40"/>
     </row>
     <row r="54" spans="1:33" s="7" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A54" s="282">
+      <c r="A54" s="279">
         <v>18</v>
       </c>
       <c r="B54" s="93" t="s">
@@ -35854,7 +36034,7 @@
       <c r="D54" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="E54" s="304" t="s">
+      <c r="E54" s="301" t="s">
         <v>315</v>
       </c>
       <c r="F54" s="39"/>
@@ -35879,7 +36059,7 @@
       <c r="Y54" s="40"/>
     </row>
     <row r="55" spans="1:33" s="57" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A55" s="283">
+      <c r="A55" s="280">
         <v>19</v>
       </c>
       <c r="B55" s="95" t="s">
@@ -35889,7 +36069,7 @@
         <v>48</v>
       </c>
       <c r="D55" s="94"/>
-      <c r="E55" s="305" t="s">
+      <c r="E55" s="302" t="s">
         <v>336</v>
       </c>
       <c r="F55" s="41"/>
@@ -35914,7 +36094,7 @@
       <c r="Y55" s="40"/>
     </row>
     <row r="56" spans="1:33" s="57" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A56" s="283">
+      <c r="A56" s="280">
         <v>19</v>
       </c>
       <c r="B56" s="95" t="s">
@@ -35924,7 +36104,7 @@
         <v>48</v>
       </c>
       <c r="D56" s="94"/>
-      <c r="E56" s="305" t="s">
+      <c r="E56" s="302" t="s">
         <v>338</v>
       </c>
       <c r="F56" s="41"/>
@@ -35949,7 +36129,7 @@
       <c r="Y56" s="40"/>
     </row>
     <row r="57" spans="1:33" s="57" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A57" s="283">
+      <c r="A57" s="280">
         <v>19</v>
       </c>
       <c r="B57" s="95" t="s">
@@ -35959,7 +36139,7 @@
       <c r="D57" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="E57" s="306" t="s">
+      <c r="E57" s="303" t="s">
         <v>329</v>
       </c>
       <c r="F57" s="41"/>
@@ -35984,7 +36164,7 @@
       <c r="Y57" s="40"/>
     </row>
     <row r="58" spans="1:33" s="57" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A58" s="283">
+      <c r="A58" s="280">
         <v>19</v>
       </c>
       <c r="B58" s="95" t="s">
@@ -35994,7 +36174,7 @@
       <c r="D58" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="E58" s="306" t="s">
+      <c r="E58" s="303" t="s">
         <v>341</v>
       </c>
       <c r="F58" s="41"/>
@@ -36019,7 +36199,7 @@
       <c r="Y58" s="40"/>
     </row>
     <row r="59" spans="1:33" s="60" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A59" s="284">
+      <c r="A59" s="281">
         <v>20</v>
       </c>
       <c r="B59" s="97" t="s">
@@ -36029,7 +36209,7 @@
         <v>48</v>
       </c>
       <c r="D59" s="96"/>
-      <c r="E59" s="307" t="s">
+      <c r="E59" s="304" t="s">
         <v>345</v>
       </c>
       <c r="F59" s="41"/>
@@ -36054,7 +36234,7 @@
       <c r="Y59" s="40"/>
     </row>
     <row r="60" spans="1:33" s="60" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A60" s="272">
+      <c r="A60" s="269">
         <v>21</v>
       </c>
       <c r="B60" s="99" t="s">
@@ -36064,7 +36244,7 @@
         <v>48</v>
       </c>
       <c r="D60" s="71"/>
-      <c r="E60" s="308" t="s">
+      <c r="E60" s="305" t="s">
         <v>340</v>
       </c>
       <c r="F60" s="41"/>
@@ -36089,7 +36269,7 @@
       <c r="Y60" s="40"/>
     </row>
     <row r="61" spans="1:33" ht="20.25" customHeight="1">
-      <c r="A61" s="285">
+      <c r="A61" s="282">
         <v>2</v>
       </c>
       <c r="B61" s="34"/>
@@ -36097,7 +36277,7 @@
       <c r="D61" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="E61" s="309" t="s">
+      <c r="E61" s="306" t="s">
         <v>461</v>
       </c>
       <c r="F61" s="41" t="s">
@@ -36105,1058 +36285,1058 @@
       </c>
     </row>
     <row r="62" spans="1:33" ht="20.25" customHeight="1">
-      <c r="A62" s="285"/>
+      <c r="A62" s="282"/>
       <c r="C62" s="33"/>
       <c r="D62" s="33"/>
-      <c r="E62" s="309"/>
+      <c r="E62" s="306"/>
       <c r="F62" s="41"/>
     </row>
     <row r="63" spans="1:33" ht="20.25" customHeight="1">
-      <c r="A63" s="285"/>
+      <c r="A63" s="282"/>
       <c r="B63" s="34"/>
       <c r="C63" s="33"/>
       <c r="D63" s="33"/>
-      <c r="E63" s="309"/>
+      <c r="E63" s="306"/>
       <c r="F63" s="41"/>
     </row>
     <row r="64" spans="1:33" ht="20.25" customHeight="1">
-      <c r="A64" s="285"/>
+      <c r="A64" s="282"/>
       <c r="B64" s="34"/>
       <c r="C64" s="33"/>
       <c r="D64" s="33"/>
-      <c r="E64" s="309"/>
+      <c r="E64" s="306"/>
       <c r="F64" s="41"/>
     </row>
     <row r="65" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A65" s="285"/>
+      <c r="A65" s="282"/>
       <c r="B65" s="34"/>
       <c r="C65" s="33"/>
       <c r="D65" s="33"/>
-      <c r="E65" s="309"/>
+      <c r="E65" s="306"/>
       <c r="F65" s="41"/>
     </row>
     <row r="66" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A66" s="285"/>
+      <c r="A66" s="282"/>
       <c r="B66" s="34"/>
       <c r="C66" s="33"/>
       <c r="D66" s="33"/>
-      <c r="E66" s="309"/>
+      <c r="E66" s="306"/>
       <c r="F66" s="41"/>
     </row>
     <row r="67" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A67" s="285"/>
+      <c r="A67" s="282"/>
       <c r="B67" s="34"/>
       <c r="C67" s="33"/>
       <c r="D67" s="33"/>
-      <c r="E67" s="309"/>
+      <c r="E67" s="306"/>
       <c r="F67" s="41"/>
     </row>
     <row r="68" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A68" s="285"/>
+      <c r="A68" s="282"/>
       <c r="B68" s="34"/>
       <c r="C68" s="33"/>
       <c r="D68" s="33"/>
-      <c r="E68" s="310"/>
+      <c r="E68" s="307"/>
       <c r="F68" s="41"/>
     </row>
     <row r="69" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A69" s="285"/>
+      <c r="A69" s="282"/>
       <c r="B69" s="34"/>
       <c r="C69" s="33"/>
       <c r="D69" s="33"/>
-      <c r="E69" s="309"/>
+      <c r="E69" s="306"/>
       <c r="F69" s="41"/>
     </row>
     <row r="70" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A70" s="285"/>
+      <c r="A70" s="282"/>
       <c r="B70" s="34"/>
       <c r="C70" s="33"/>
       <c r="D70" s="33"/>
-      <c r="E70" s="309"/>
+      <c r="E70" s="306"/>
       <c r="F70" s="41"/>
     </row>
     <row r="71" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A71" s="285"/>
+      <c r="A71" s="282"/>
       <c r="B71" s="34"/>
       <c r="C71" s="33"/>
       <c r="D71" s="33"/>
-      <c r="E71" s="309"/>
+      <c r="E71" s="306"/>
       <c r="F71" s="41"/>
     </row>
     <row r="72" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A72" s="285"/>
+      <c r="A72" s="282"/>
       <c r="B72" s="34"/>
       <c r="C72" s="33"/>
       <c r="D72" s="33"/>
-      <c r="E72" s="309"/>
+      <c r="E72" s="306"/>
       <c r="F72" s="41"/>
     </row>
     <row r="73" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A73" s="285"/>
+      <c r="A73" s="282"/>
       <c r="B73" s="34"/>
       <c r="C73" s="33"/>
       <c r="D73" s="33"/>
-      <c r="E73" s="309"/>
+      <c r="E73" s="306"/>
       <c r="F73" s="41"/>
     </row>
     <row r="74" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A74" s="285"/>
+      <c r="A74" s="282"/>
       <c r="B74" s="34"/>
       <c r="C74" s="33"/>
       <c r="D74" s="33"/>
-      <c r="E74" s="309"/>
+      <c r="E74" s="306"/>
       <c r="F74" s="41"/>
     </row>
     <row r="75" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A75" s="285"/>
+      <c r="A75" s="282"/>
       <c r="B75" s="34"/>
       <c r="C75" s="33"/>
       <c r="D75" s="33"/>
-      <c r="E75" s="309"/>
+      <c r="E75" s="306"/>
       <c r="F75" s="41"/>
     </row>
     <row r="76" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A76" s="285"/>
+      <c r="A76" s="282"/>
       <c r="B76" s="34"/>
       <c r="C76" s="33"/>
       <c r="D76" s="33"/>
-      <c r="E76" s="309"/>
+      <c r="E76" s="306"/>
       <c r="F76" s="41"/>
     </row>
     <row r="77" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A77" s="285"/>
+      <c r="A77" s="282"/>
       <c r="B77" s="34"/>
       <c r="C77" s="33"/>
       <c r="D77" s="33"/>
-      <c r="E77" s="309"/>
+      <c r="E77" s="306"/>
       <c r="F77" s="41"/>
     </row>
     <row r="78" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A78" s="285"/>
+      <c r="A78" s="282"/>
       <c r="B78" s="34"/>
       <c r="C78" s="33"/>
       <c r="D78" s="33"/>
-      <c r="E78" s="309"/>
+      <c r="E78" s="306"/>
       <c r="F78" s="41"/>
     </row>
     <row r="79" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A79" s="285"/>
+      <c r="A79" s="282"/>
       <c r="B79" s="34"/>
       <c r="C79" s="33"/>
       <c r="D79" s="33"/>
-      <c r="E79" s="309"/>
+      <c r="E79" s="306"/>
       <c r="F79" s="41"/>
     </row>
     <row r="80" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A80" s="285"/>
+      <c r="A80" s="282"/>
       <c r="B80" s="34"/>
       <c r="C80" s="33"/>
       <c r="D80" s="33"/>
-      <c r="E80" s="309"/>
+      <c r="E80" s="306"/>
       <c r="F80" s="41"/>
     </row>
     <row r="81" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A81" s="285"/>
+      <c r="A81" s="282"/>
       <c r="B81" s="34"/>
       <c r="C81" s="33"/>
       <c r="D81" s="33"/>
-      <c r="E81" s="309"/>
+      <c r="E81" s="306"/>
       <c r="F81" s="41"/>
     </row>
     <row r="82" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A82" s="285"/>
+      <c r="A82" s="282"/>
       <c r="B82" s="34"/>
       <c r="C82" s="33"/>
       <c r="D82" s="33"/>
-      <c r="E82" s="309"/>
+      <c r="E82" s="306"/>
       <c r="F82" s="41"/>
     </row>
     <row r="83" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A83" s="285"/>
+      <c r="A83" s="282"/>
       <c r="B83" s="34"/>
       <c r="C83" s="33"/>
       <c r="D83" s="33"/>
-      <c r="E83" s="309"/>
+      <c r="E83" s="306"/>
       <c r="F83" s="41"/>
     </row>
     <row r="84" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A84" s="285"/>
+      <c r="A84" s="282"/>
       <c r="B84" s="34"/>
       <c r="C84" s="33"/>
       <c r="D84" s="33"/>
-      <c r="E84" s="309"/>
+      <c r="E84" s="306"/>
       <c r="F84" s="41"/>
     </row>
     <row r="85" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A85" s="285"/>
+      <c r="A85" s="282"/>
       <c r="B85" s="34"/>
       <c r="C85" s="33"/>
       <c r="D85" s="33"/>
-      <c r="E85" s="309"/>
+      <c r="E85" s="306"/>
       <c r="F85" s="41"/>
     </row>
     <row r="86" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A86" s="285"/>
+      <c r="A86" s="282"/>
       <c r="B86" s="34"/>
       <c r="C86" s="33"/>
       <c r="D86" s="33"/>
-      <c r="E86" s="309"/>
+      <c r="E86" s="306"/>
       <c r="F86" s="41"/>
     </row>
     <row r="87" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A87" s="285"/>
+      <c r="A87" s="282"/>
       <c r="B87" s="34"/>
       <c r="C87" s="33"/>
       <c r="D87" s="33"/>
-      <c r="E87" s="309"/>
+      <c r="E87" s="306"/>
       <c r="F87" s="41"/>
     </row>
     <row r="88" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A88" s="285"/>
+      <c r="A88" s="282"/>
       <c r="B88" s="34"/>
       <c r="C88" s="33"/>
       <c r="D88" s="33"/>
-      <c r="E88" s="309"/>
+      <c r="E88" s="306"/>
       <c r="F88" s="41"/>
     </row>
     <row r="89" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A89" s="285"/>
+      <c r="A89" s="282"/>
       <c r="B89" s="34"/>
       <c r="C89" s="33"/>
       <c r="D89" s="33"/>
-      <c r="E89" s="309"/>
+      <c r="E89" s="306"/>
       <c r="F89" s="41"/>
     </row>
     <row r="90" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A90" s="285"/>
+      <c r="A90" s="282"/>
       <c r="B90" s="34"/>
       <c r="C90" s="33"/>
       <c r="D90" s="33"/>
-      <c r="E90" s="309"/>
+      <c r="E90" s="306"/>
       <c r="F90" s="41"/>
     </row>
     <row r="91" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A91" s="285"/>
+      <c r="A91" s="282"/>
       <c r="B91" s="34"/>
       <c r="C91" s="33"/>
       <c r="D91" s="33"/>
-      <c r="E91" s="309"/>
+      <c r="E91" s="306"/>
       <c r="F91" s="41"/>
     </row>
     <row r="92" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A92" s="285"/>
+      <c r="A92" s="282"/>
       <c r="B92" s="34"/>
       <c r="C92" s="33"/>
       <c r="D92" s="33"/>
-      <c r="E92" s="309"/>
+      <c r="E92" s="306"/>
       <c r="F92" s="41"/>
     </row>
     <row r="93" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A93" s="285"/>
+      <c r="A93" s="282"/>
       <c r="B93" s="34"/>
       <c r="C93" s="33"/>
       <c r="D93" s="33"/>
-      <c r="E93" s="309"/>
+      <c r="E93" s="306"/>
       <c r="F93" s="41"/>
     </row>
     <row r="94" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A94" s="285"/>
+      <c r="A94" s="282"/>
       <c r="B94" s="34"/>
       <c r="C94" s="33"/>
       <c r="D94" s="33"/>
-      <c r="E94" s="309"/>
+      <c r="E94" s="306"/>
       <c r="F94" s="41"/>
     </row>
     <row r="95" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A95" s="285"/>
+      <c r="A95" s="282"/>
       <c r="B95" s="34"/>
       <c r="C95" s="33"/>
       <c r="D95" s="33"/>
-      <c r="E95" s="309"/>
+      <c r="E95" s="306"/>
       <c r="F95" s="41"/>
     </row>
     <row r="96" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A96" s="285"/>
+      <c r="A96" s="282"/>
       <c r="B96" s="34"/>
       <c r="C96" s="33"/>
       <c r="D96" s="33"/>
-      <c r="E96" s="309"/>
+      <c r="E96" s="306"/>
       <c r="F96" s="41"/>
     </row>
     <row r="97" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A97" s="285"/>
+      <c r="A97" s="282"/>
       <c r="B97" s="34"/>
       <c r="C97" s="33"/>
       <c r="D97" s="33"/>
-      <c r="E97" s="309"/>
+      <c r="E97" s="306"/>
       <c r="F97" s="41"/>
     </row>
     <row r="98" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A98" s="285"/>
+      <c r="A98" s="282"/>
       <c r="B98" s="34"/>
       <c r="C98" s="33"/>
       <c r="D98" s="33"/>
-      <c r="E98" s="309"/>
+      <c r="E98" s="306"/>
       <c r="F98" s="41"/>
     </row>
     <row r="99" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A99" s="285"/>
+      <c r="A99" s="282"/>
       <c r="B99" s="34"/>
       <c r="C99" s="33"/>
       <c r="D99" s="33"/>
-      <c r="E99" s="309"/>
+      <c r="E99" s="306"/>
       <c r="F99" s="41"/>
     </row>
     <row r="100" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A100" s="285"/>
+      <c r="A100" s="282"/>
       <c r="B100" s="34"/>
       <c r="C100" s="33"/>
       <c r="D100" s="33"/>
-      <c r="E100" s="309"/>
+      <c r="E100" s="306"/>
       <c r="F100" s="41"/>
     </row>
     <row r="101" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A101" s="285"/>
+      <c r="A101" s="282"/>
       <c r="B101" s="34"/>
       <c r="C101" s="33"/>
       <c r="D101" s="33"/>
-      <c r="E101" s="309"/>
+      <c r="E101" s="306"/>
       <c r="F101" s="41"/>
     </row>
     <row r="102" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A102" s="285"/>
+      <c r="A102" s="282"/>
       <c r="B102" s="34"/>
       <c r="C102" s="33"/>
       <c r="D102" s="33"/>
-      <c r="E102" s="309"/>
+      <c r="E102" s="306"/>
       <c r="F102" s="41"/>
     </row>
     <row r="103" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A103" s="285"/>
+      <c r="A103" s="282"/>
       <c r="B103" s="34"/>
       <c r="C103" s="33"/>
       <c r="D103" s="33"/>
-      <c r="E103" s="309"/>
+      <c r="E103" s="306"/>
       <c r="F103" s="41"/>
     </row>
     <row r="104" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A104" s="285"/>
+      <c r="A104" s="282"/>
       <c r="B104" s="34"/>
       <c r="C104" s="33"/>
       <c r="D104" s="33"/>
-      <c r="E104" s="309"/>
+      <c r="E104" s="306"/>
       <c r="F104" s="41"/>
     </row>
     <row r="105" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A105" s="285"/>
+      <c r="A105" s="282"/>
       <c r="B105" s="34"/>
       <c r="C105" s="33"/>
       <c r="D105" s="33"/>
-      <c r="E105" s="309"/>
+      <c r="E105" s="306"/>
       <c r="F105" s="41"/>
     </row>
     <row r="106" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A106" s="285"/>
+      <c r="A106" s="282"/>
       <c r="B106" s="34"/>
       <c r="C106" s="33"/>
       <c r="D106" s="33"/>
-      <c r="E106" s="309"/>
+      <c r="E106" s="306"/>
       <c r="F106" s="41"/>
     </row>
     <row r="107" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A107" s="285"/>
+      <c r="A107" s="282"/>
       <c r="B107" s="34"/>
       <c r="C107" s="33"/>
       <c r="D107" s="33"/>
-      <c r="E107" s="309"/>
+      <c r="E107" s="306"/>
       <c r="F107" s="41"/>
     </row>
     <row r="108" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A108" s="285"/>
+      <c r="A108" s="282"/>
       <c r="B108" s="34"/>
       <c r="C108" s="33"/>
       <c r="D108" s="33"/>
-      <c r="E108" s="309"/>
+      <c r="E108" s="306"/>
       <c r="F108" s="41"/>
     </row>
     <row r="109" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A109" s="285"/>
+      <c r="A109" s="282"/>
       <c r="B109" s="34"/>
       <c r="C109" s="33"/>
       <c r="D109" s="33"/>
-      <c r="E109" s="309"/>
+      <c r="E109" s="306"/>
       <c r="F109" s="41"/>
     </row>
     <row r="110" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A110" s="285"/>
+      <c r="A110" s="282"/>
       <c r="B110" s="34"/>
       <c r="C110" s="33"/>
       <c r="D110" s="33"/>
-      <c r="E110" s="309"/>
+      <c r="E110" s="306"/>
       <c r="F110" s="41"/>
     </row>
     <row r="111" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A111" s="285"/>
+      <c r="A111" s="282"/>
       <c r="B111" s="34"/>
       <c r="C111" s="33"/>
       <c r="D111" s="33"/>
-      <c r="E111" s="309"/>
+      <c r="E111" s="306"/>
       <c r="F111" s="41"/>
     </row>
     <row r="112" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A112" s="285"/>
+      <c r="A112" s="282"/>
       <c r="B112" s="34"/>
       <c r="C112" s="33"/>
       <c r="D112" s="33"/>
-      <c r="E112" s="309"/>
+      <c r="E112" s="306"/>
       <c r="F112" s="41"/>
     </row>
     <row r="113" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A113" s="285"/>
+      <c r="A113" s="282"/>
       <c r="B113" s="34"/>
       <c r="C113" s="33"/>
       <c r="D113" s="33"/>
-      <c r="E113" s="309"/>
+      <c r="E113" s="306"/>
       <c r="F113" s="41"/>
     </row>
     <row r="114" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A114" s="285"/>
+      <c r="A114" s="282"/>
       <c r="B114" s="34"/>
       <c r="C114" s="33"/>
       <c r="D114" s="33"/>
-      <c r="E114" s="309"/>
+      <c r="E114" s="306"/>
       <c r="F114" s="41"/>
     </row>
     <row r="115" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A115" s="285"/>
+      <c r="A115" s="282"/>
       <c r="B115" s="34"/>
       <c r="C115" s="33"/>
       <c r="D115" s="33"/>
-      <c r="E115" s="309"/>
+      <c r="E115" s="306"/>
       <c r="F115" s="41"/>
     </row>
     <row r="116" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A116" s="285"/>
+      <c r="A116" s="282"/>
       <c r="B116" s="34"/>
       <c r="C116" s="33"/>
       <c r="D116" s="33"/>
-      <c r="E116" s="309"/>
+      <c r="E116" s="306"/>
       <c r="F116" s="41"/>
     </row>
     <row r="117" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A117" s="285"/>
+      <c r="A117" s="282"/>
       <c r="B117" s="34"/>
       <c r="C117" s="33"/>
       <c r="D117" s="33"/>
-      <c r="E117" s="309"/>
+      <c r="E117" s="306"/>
       <c r="F117" s="41"/>
     </row>
     <row r="118" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A118" s="285"/>
+      <c r="A118" s="282"/>
       <c r="B118" s="34"/>
       <c r="C118" s="33"/>
       <c r="D118" s="33"/>
-      <c r="E118" s="309"/>
+      <c r="E118" s="306"/>
       <c r="F118" s="41"/>
     </row>
     <row r="119" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A119" s="285"/>
+      <c r="A119" s="282"/>
       <c r="B119" s="34"/>
       <c r="C119" s="33"/>
       <c r="D119" s="33"/>
-      <c r="E119" s="309"/>
+      <c r="E119" s="306"/>
       <c r="F119" s="41"/>
     </row>
     <row r="120" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A120" s="285"/>
+      <c r="A120" s="282"/>
       <c r="B120" s="34"/>
       <c r="C120" s="33"/>
       <c r="D120" s="33"/>
-      <c r="E120" s="309"/>
+      <c r="E120" s="306"/>
       <c r="F120" s="41"/>
     </row>
     <row r="121" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A121" s="285"/>
+      <c r="A121" s="282"/>
       <c r="B121" s="34"/>
       <c r="C121" s="33"/>
       <c r="D121" s="33"/>
-      <c r="E121" s="309"/>
+      <c r="E121" s="306"/>
       <c r="F121" s="41"/>
     </row>
     <row r="122" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A122" s="285"/>
+      <c r="A122" s="282"/>
       <c r="B122" s="34"/>
       <c r="C122" s="33"/>
       <c r="D122" s="33"/>
-      <c r="E122" s="309"/>
+      <c r="E122" s="306"/>
       <c r="F122" s="41"/>
     </row>
     <row r="123" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A123" s="285"/>
+      <c r="A123" s="282"/>
       <c r="B123" s="34"/>
       <c r="C123" s="33"/>
       <c r="D123" s="33"/>
-      <c r="E123" s="309"/>
+      <c r="E123" s="306"/>
       <c r="F123" s="41"/>
     </row>
     <row r="124" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A124" s="285"/>
+      <c r="A124" s="282"/>
       <c r="B124" s="34"/>
       <c r="C124" s="33"/>
       <c r="D124" s="33"/>
-      <c r="E124" s="309"/>
+      <c r="E124" s="306"/>
       <c r="F124" s="41"/>
     </row>
     <row r="125" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A125" s="285"/>
+      <c r="A125" s="282"/>
       <c r="B125" s="34"/>
       <c r="C125" s="33"/>
       <c r="D125" s="33"/>
-      <c r="E125" s="309"/>
+      <c r="E125" s="306"/>
       <c r="F125" s="41"/>
     </row>
     <row r="126" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A126" s="285"/>
+      <c r="A126" s="282"/>
       <c r="B126" s="34"/>
       <c r="C126" s="33"/>
       <c r="D126" s="33"/>
-      <c r="E126" s="309"/>
+      <c r="E126" s="306"/>
       <c r="F126" s="41"/>
     </row>
     <row r="127" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A127" s="285"/>
+      <c r="A127" s="282"/>
       <c r="B127" s="34"/>
       <c r="C127" s="33"/>
       <c r="D127" s="33"/>
-      <c r="E127" s="309"/>
+      <c r="E127" s="306"/>
       <c r="F127" s="41"/>
     </row>
     <row r="128" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A128" s="285"/>
+      <c r="A128" s="282"/>
       <c r="B128" s="34"/>
       <c r="C128" s="33"/>
       <c r="D128" s="33"/>
-      <c r="E128" s="309"/>
+      <c r="E128" s="306"/>
       <c r="F128" s="41"/>
     </row>
     <row r="129" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A129" s="285"/>
+      <c r="A129" s="282"/>
       <c r="B129" s="34"/>
       <c r="C129" s="33"/>
       <c r="D129" s="33"/>
-      <c r="E129" s="309"/>
+      <c r="E129" s="306"/>
       <c r="F129" s="41"/>
     </row>
     <row r="130" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A130" s="285"/>
+      <c r="A130" s="282"/>
       <c r="B130" s="34"/>
       <c r="C130" s="33"/>
       <c r="D130" s="33"/>
-      <c r="E130" s="309"/>
+      <c r="E130" s="306"/>
       <c r="F130" s="41"/>
     </row>
     <row r="131" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A131" s="285"/>
+      <c r="A131" s="282"/>
       <c r="B131" s="34"/>
       <c r="C131" s="33"/>
       <c r="D131" s="33"/>
-      <c r="E131" s="309"/>
+      <c r="E131" s="306"/>
       <c r="F131" s="41"/>
     </row>
     <row r="132" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A132" s="285"/>
+      <c r="A132" s="282"/>
       <c r="B132" s="34"/>
       <c r="C132" s="33"/>
       <c r="D132" s="33"/>
-      <c r="E132" s="309"/>
+      <c r="E132" s="306"/>
       <c r="F132" s="41"/>
     </row>
     <row r="133" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A133" s="285"/>
+      <c r="A133" s="282"/>
       <c r="B133" s="34"/>
       <c r="C133" s="33"/>
       <c r="D133" s="33"/>
-      <c r="E133" s="309"/>
+      <c r="E133" s="306"/>
       <c r="F133" s="41"/>
     </row>
     <row r="134" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A134" s="285"/>
+      <c r="A134" s="282"/>
       <c r="B134" s="34"/>
       <c r="C134" s="33"/>
       <c r="D134" s="33"/>
-      <c r="E134" s="309"/>
+      <c r="E134" s="306"/>
       <c r="F134" s="41"/>
     </row>
     <row r="135" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A135" s="285"/>
+      <c r="A135" s="282"/>
       <c r="B135" s="34"/>
       <c r="C135" s="33"/>
       <c r="D135" s="33"/>
-      <c r="E135" s="309"/>
+      <c r="E135" s="306"/>
       <c r="F135" s="41"/>
     </row>
     <row r="136" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A136" s="285"/>
+      <c r="A136" s="282"/>
       <c r="B136" s="34"/>
       <c r="C136" s="33"/>
       <c r="D136" s="33"/>
-      <c r="E136" s="309"/>
+      <c r="E136" s="306"/>
       <c r="F136" s="41"/>
     </row>
     <row r="137" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A137" s="285"/>
+      <c r="A137" s="282"/>
       <c r="B137" s="34"/>
       <c r="C137" s="33"/>
       <c r="D137" s="33"/>
-      <c r="E137" s="309"/>
+      <c r="E137" s="306"/>
       <c r="F137" s="41"/>
     </row>
     <row r="138" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A138" s="285"/>
+      <c r="A138" s="282"/>
       <c r="B138" s="34"/>
       <c r="C138" s="33"/>
       <c r="D138" s="33"/>
-      <c r="E138" s="309"/>
+      <c r="E138" s="306"/>
       <c r="F138" s="41"/>
     </row>
     <row r="139" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A139" s="285"/>
+      <c r="A139" s="282"/>
       <c r="B139" s="34"/>
       <c r="C139" s="33"/>
       <c r="D139" s="33"/>
-      <c r="E139" s="309"/>
+      <c r="E139" s="306"/>
       <c r="F139" s="41"/>
     </row>
     <row r="140" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A140" s="285"/>
+      <c r="A140" s="282"/>
       <c r="B140" s="34"/>
       <c r="C140" s="33"/>
       <c r="D140" s="33"/>
-      <c r="E140" s="309"/>
+      <c r="E140" s="306"/>
       <c r="F140" s="41"/>
     </row>
     <row r="141" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A141" s="285"/>
+      <c r="A141" s="282"/>
       <c r="B141" s="34"/>
       <c r="C141" s="33"/>
       <c r="D141" s="33"/>
-      <c r="E141" s="309"/>
+      <c r="E141" s="306"/>
       <c r="F141" s="41"/>
     </row>
     <row r="142" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A142" s="285"/>
+      <c r="A142" s="282"/>
       <c r="B142" s="34"/>
       <c r="C142" s="33"/>
       <c r="D142" s="33"/>
-      <c r="E142" s="309"/>
+      <c r="E142" s="306"/>
       <c r="F142" s="41"/>
     </row>
     <row r="143" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A143" s="285"/>
+      <c r="A143" s="282"/>
       <c r="B143" s="34"/>
       <c r="C143" s="33"/>
       <c r="D143" s="33"/>
-      <c r="E143" s="309"/>
+      <c r="E143" s="306"/>
       <c r="F143" s="41"/>
     </row>
     <row r="144" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A144" s="285"/>
+      <c r="A144" s="282"/>
       <c r="B144" s="34"/>
       <c r="C144" s="33"/>
       <c r="D144" s="33"/>
-      <c r="E144" s="309"/>
+      <c r="E144" s="306"/>
       <c r="F144" s="41"/>
     </row>
     <row r="145" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A145" s="285"/>
+      <c r="A145" s="282"/>
       <c r="B145" s="34"/>
       <c r="C145" s="33"/>
       <c r="D145" s="33"/>
-      <c r="E145" s="309"/>
+      <c r="E145" s="306"/>
       <c r="F145" s="41"/>
     </row>
     <row r="146" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A146" s="285"/>
+      <c r="A146" s="282"/>
       <c r="B146" s="34"/>
       <c r="C146" s="33"/>
       <c r="D146" s="33"/>
-      <c r="E146" s="309"/>
+      <c r="E146" s="306"/>
       <c r="F146" s="41"/>
     </row>
     <row r="147" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A147" s="285"/>
+      <c r="A147" s="282"/>
       <c r="B147" s="34"/>
       <c r="C147" s="33"/>
       <c r="D147" s="33"/>
-      <c r="E147" s="309"/>
+      <c r="E147" s="306"/>
       <c r="F147" s="41"/>
     </row>
     <row r="148" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A148" s="285"/>
+      <c r="A148" s="282"/>
       <c r="B148" s="34"/>
       <c r="C148" s="33"/>
       <c r="D148" s="33"/>
-      <c r="E148" s="309"/>
+      <c r="E148" s="306"/>
       <c r="F148" s="41"/>
     </row>
     <row r="149" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A149" s="285"/>
+      <c r="A149" s="282"/>
       <c r="B149" s="34"/>
       <c r="C149" s="33"/>
       <c r="D149" s="33"/>
-      <c r="E149" s="309"/>
+      <c r="E149" s="306"/>
       <c r="F149" s="41"/>
     </row>
     <row r="150" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A150" s="285"/>
+      <c r="A150" s="282"/>
       <c r="B150" s="34"/>
       <c r="C150" s="33"/>
       <c r="D150" s="33"/>
-      <c r="E150" s="309"/>
+      <c r="E150" s="306"/>
       <c r="F150" s="41"/>
     </row>
     <row r="151" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A151" s="285"/>
+      <c r="A151" s="282"/>
       <c r="B151" s="34"/>
       <c r="C151" s="33"/>
       <c r="D151" s="33"/>
-      <c r="E151" s="309"/>
+      <c r="E151" s="306"/>
       <c r="F151" s="41"/>
     </row>
     <row r="152" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A152" s="285"/>
+      <c r="A152" s="282"/>
       <c r="B152" s="34"/>
       <c r="C152" s="33"/>
       <c r="D152" s="33"/>
-      <c r="E152" s="309"/>
+      <c r="E152" s="306"/>
       <c r="F152" s="41"/>
     </row>
     <row r="153" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A153" s="285"/>
+      <c r="A153" s="282"/>
       <c r="B153" s="34"/>
       <c r="C153" s="33"/>
       <c r="D153" s="33"/>
-      <c r="E153" s="309"/>
+      <c r="E153" s="306"/>
       <c r="F153" s="41"/>
     </row>
     <row r="154" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A154" s="285"/>
+      <c r="A154" s="282"/>
       <c r="B154" s="34"/>
       <c r="C154" s="33"/>
       <c r="D154" s="33"/>
-      <c r="E154" s="309"/>
+      <c r="E154" s="306"/>
       <c r="F154" s="41"/>
     </row>
     <row r="155" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A155" s="285"/>
+      <c r="A155" s="282"/>
       <c r="B155" s="34"/>
       <c r="C155" s="33"/>
       <c r="D155" s="33"/>
-      <c r="E155" s="309"/>
+      <c r="E155" s="306"/>
       <c r="F155" s="41"/>
     </row>
     <row r="156" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A156" s="285"/>
+      <c r="A156" s="282"/>
       <c r="B156" s="34"/>
       <c r="C156" s="33"/>
       <c r="D156" s="33"/>
-      <c r="E156" s="309"/>
+      <c r="E156" s="306"/>
       <c r="F156" s="41"/>
     </row>
     <row r="157" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A157" s="285"/>
+      <c r="A157" s="282"/>
       <c r="B157" s="34"/>
       <c r="C157" s="33"/>
       <c r="D157" s="33"/>
-      <c r="E157" s="309"/>
+      <c r="E157" s="306"/>
       <c r="F157" s="41"/>
     </row>
     <row r="158" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A158" s="285"/>
+      <c r="A158" s="282"/>
       <c r="B158" s="34"/>
       <c r="C158" s="33"/>
       <c r="D158" s="33"/>
-      <c r="E158" s="309"/>
+      <c r="E158" s="306"/>
       <c r="F158" s="41"/>
     </row>
     <row r="159" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A159" s="285"/>
+      <c r="A159" s="282"/>
       <c r="B159" s="34"/>
       <c r="C159" s="33"/>
       <c r="D159" s="33"/>
-      <c r="E159" s="310"/>
+      <c r="E159" s="307"/>
       <c r="F159" s="41"/>
     </row>
     <row r="160" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A160" s="285"/>
+      <c r="A160" s="282"/>
       <c r="B160" s="34"/>
       <c r="C160" s="33"/>
       <c r="D160" s="33"/>
-      <c r="E160" s="309"/>
+      <c r="E160" s="306"/>
       <c r="F160" s="41"/>
     </row>
     <row r="161" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A161" s="285"/>
+      <c r="A161" s="282"/>
       <c r="B161" s="34"/>
       <c r="C161" s="33"/>
       <c r="D161" s="33"/>
-      <c r="E161" s="309"/>
+      <c r="E161" s="306"/>
       <c r="F161" s="41"/>
     </row>
     <row r="162" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A162" s="285"/>
+      <c r="A162" s="282"/>
       <c r="B162" s="34"/>
       <c r="C162" s="33"/>
       <c r="D162" s="33"/>
-      <c r="E162" s="309"/>
+      <c r="E162" s="306"/>
       <c r="F162" s="41"/>
     </row>
     <row r="163" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A163" s="285"/>
+      <c r="A163" s="282"/>
       <c r="B163" s="34"/>
       <c r="C163" s="33"/>
       <c r="D163" s="33"/>
-      <c r="E163" s="309"/>
+      <c r="E163" s="306"/>
       <c r="F163" s="41"/>
     </row>
     <row r="164" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A164" s="285"/>
+      <c r="A164" s="282"/>
       <c r="B164" s="34"/>
       <c r="C164" s="33"/>
       <c r="D164" s="33"/>
-      <c r="E164" s="309"/>
+      <c r="E164" s="306"/>
       <c r="F164" s="41"/>
     </row>
     <row r="165" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A165" s="285"/>
+      <c r="A165" s="282"/>
       <c r="B165" s="34"/>
       <c r="C165" s="33"/>
       <c r="D165" s="33"/>
-      <c r="E165" s="309"/>
+      <c r="E165" s="306"/>
       <c r="F165" s="41"/>
     </row>
     <row r="166" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A166" s="285"/>
+      <c r="A166" s="282"/>
       <c r="B166" s="34"/>
       <c r="C166" s="33"/>
       <c r="D166" s="33"/>
-      <c r="E166" s="310"/>
+      <c r="E166" s="307"/>
       <c r="F166" s="41"/>
     </row>
     <row r="167" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A167" s="285"/>
+      <c r="A167" s="282"/>
       <c r="B167" s="34"/>
       <c r="C167" s="33"/>
       <c r="D167" s="33"/>
-      <c r="E167" s="309"/>
+      <c r="E167" s="306"/>
       <c r="F167" s="41"/>
     </row>
     <row r="168" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A168" s="285"/>
+      <c r="A168" s="282"/>
       <c r="B168" s="34"/>
       <c r="C168" s="33"/>
       <c r="D168" s="33"/>
-      <c r="E168" s="309"/>
+      <c r="E168" s="306"/>
       <c r="F168" s="41"/>
     </row>
     <row r="169" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A169" s="285"/>
+      <c r="A169" s="282"/>
       <c r="B169" s="34"/>
       <c r="C169" s="33"/>
       <c r="D169" s="33"/>
-      <c r="E169" s="309"/>
+      <c r="E169" s="306"/>
       <c r="F169" s="41"/>
     </row>
     <row r="170" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A170" s="285"/>
+      <c r="A170" s="282"/>
       <c r="B170" s="34"/>
       <c r="C170" s="33"/>
       <c r="D170" s="33"/>
-      <c r="E170" s="309"/>
+      <c r="E170" s="306"/>
       <c r="F170" s="41"/>
     </row>
     <row r="171" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A171" s="285"/>
+      <c r="A171" s="282"/>
       <c r="B171" s="34"/>
       <c r="C171" s="33"/>
       <c r="D171" s="33"/>
-      <c r="E171" s="309"/>
+      <c r="E171" s="306"/>
       <c r="F171" s="41"/>
     </row>
     <row r="172" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A172" s="285"/>
+      <c r="A172" s="282"/>
       <c r="B172" s="34"/>
       <c r="C172" s="33"/>
       <c r="D172" s="33"/>
-      <c r="E172" s="309"/>
+      <c r="E172" s="306"/>
       <c r="F172" s="41"/>
     </row>
     <row r="173" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A173" s="285"/>
+      <c r="A173" s="282"/>
       <c r="B173" s="34"/>
       <c r="C173" s="33"/>
       <c r="D173" s="33"/>
-      <c r="E173" s="309"/>
+      <c r="E173" s="306"/>
       <c r="F173" s="41"/>
     </row>
     <row r="174" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A174" s="285"/>
+      <c r="A174" s="282"/>
       <c r="B174" s="34"/>
       <c r="C174" s="33"/>
       <c r="D174" s="33"/>
-      <c r="E174" s="309"/>
+      <c r="E174" s="306"/>
       <c r="F174" s="41"/>
     </row>
     <row r="175" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A175" s="285"/>
+      <c r="A175" s="282"/>
       <c r="B175" s="34"/>
       <c r="C175" s="33"/>
       <c r="D175" s="33"/>
-      <c r="E175" s="309"/>
+      <c r="E175" s="306"/>
       <c r="F175" s="41"/>
     </row>
     <row r="176" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A176" s="285"/>
+      <c r="A176" s="282"/>
       <c r="B176" s="34"/>
       <c r="C176" s="33"/>
       <c r="D176" s="33"/>
-      <c r="E176" s="309"/>
+      <c r="E176" s="306"/>
       <c r="F176" s="41"/>
     </row>
     <row r="177" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A177" s="285"/>
+      <c r="A177" s="282"/>
       <c r="B177" s="34"/>
       <c r="C177" s="33"/>
       <c r="D177" s="33"/>
-      <c r="E177" s="309"/>
+      <c r="E177" s="306"/>
       <c r="F177" s="41"/>
     </row>
     <row r="178" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A178" s="285"/>
+      <c r="A178" s="282"/>
       <c r="B178" s="34"/>
       <c r="C178" s="33"/>
       <c r="D178" s="33"/>
-      <c r="E178" s="309"/>
+      <c r="E178" s="306"/>
       <c r="F178" s="41"/>
     </row>
     <row r="179" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A179" s="285"/>
+      <c r="A179" s="282"/>
       <c r="B179" s="34"/>
       <c r="C179" s="33"/>
       <c r="D179" s="33"/>
-      <c r="E179" s="309"/>
+      <c r="E179" s="306"/>
       <c r="F179" s="41"/>
     </row>
     <row r="180" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A180" s="285"/>
+      <c r="A180" s="282"/>
       <c r="B180" s="34"/>
       <c r="C180" s="33"/>
       <c r="D180" s="33"/>
-      <c r="E180" s="309"/>
+      <c r="E180" s="306"/>
       <c r="F180" s="41"/>
     </row>
     <row r="181" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A181" s="285"/>
+      <c r="A181" s="282"/>
       <c r="B181" s="35"/>
       <c r="C181" s="33"/>
       <c r="D181" s="33"/>
-      <c r="E181" s="309"/>
+      <c r="E181" s="306"/>
       <c r="F181" s="41"/>
     </row>
     <row r="182" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A182" s="285"/>
+      <c r="A182" s="282"/>
       <c r="B182" s="35"/>
       <c r="C182" s="33"/>
       <c r="D182" s="33"/>
-      <c r="E182" s="309"/>
+      <c r="E182" s="306"/>
       <c r="F182" s="41"/>
     </row>
     <row r="183" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A183" s="285"/>
+      <c r="A183" s="282"/>
       <c r="B183" s="35"/>
       <c r="C183" s="33"/>
       <c r="D183" s="33"/>
-      <c r="E183" s="309"/>
+      <c r="E183" s="306"/>
       <c r="F183" s="41"/>
     </row>
     <row r="184" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A184" s="285"/>
+      <c r="A184" s="282"/>
       <c r="B184" s="35"/>
       <c r="C184" s="33"/>
       <c r="D184" s="33"/>
-      <c r="E184" s="309"/>
+      <c r="E184" s="306"/>
       <c r="F184" s="41"/>
     </row>
     <row r="185" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A185" s="285"/>
+      <c r="A185" s="282"/>
       <c r="B185" s="35"/>
       <c r="C185" s="33"/>
       <c r="D185" s="33"/>
-      <c r="E185" s="309"/>
+      <c r="E185" s="306"/>
       <c r="F185" s="41"/>
     </row>
     <row r="186" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A186" s="285"/>
+      <c r="A186" s="282"/>
       <c r="B186" s="35"/>
       <c r="C186" s="33"/>
       <c r="D186" s="33"/>
-      <c r="E186" s="309"/>
+      <c r="E186" s="306"/>
       <c r="F186" s="41"/>
     </row>
     <row r="187" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A187" s="285"/>
+      <c r="A187" s="282"/>
       <c r="B187" s="35"/>
       <c r="C187" s="33"/>
       <c r="D187" s="33"/>
-      <c r="E187" s="309"/>
+      <c r="E187" s="306"/>
       <c r="F187" s="41"/>
     </row>
     <row r="188" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A188" s="285"/>
+      <c r="A188" s="282"/>
       <c r="B188" s="35"/>
       <c r="C188" s="33"/>
       <c r="D188" s="33"/>
-      <c r="E188" s="309"/>
+      <c r="E188" s="306"/>
       <c r="F188" s="41"/>
     </row>
     <row r="189" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A189" s="285"/>
+      <c r="A189" s="282"/>
       <c r="B189" s="35"/>
       <c r="C189" s="33"/>
       <c r="D189" s="33"/>
-      <c r="E189" s="309"/>
+      <c r="E189" s="306"/>
       <c r="F189" s="41"/>
     </row>
     <row r="190" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A190" s="285"/>
+      <c r="A190" s="282"/>
       <c r="B190" s="35"/>
       <c r="C190" s="33"/>
       <c r="D190" s="33"/>
-      <c r="E190" s="309"/>
+      <c r="E190" s="306"/>
       <c r="F190" s="41"/>
     </row>
     <row r="191" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A191" s="285"/>
+      <c r="A191" s="282"/>
       <c r="B191" s="35"/>
       <c r="C191" s="33"/>
       <c r="D191" s="33"/>
-      <c r="E191" s="309"/>
+      <c r="E191" s="306"/>
       <c r="F191" s="41"/>
     </row>
     <row r="192" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A192" s="285"/>
+      <c r="A192" s="282"/>
       <c r="B192" s="35"/>
       <c r="C192" s="33"/>
       <c r="D192" s="33"/>
-      <c r="E192" s="309"/>
+      <c r="E192" s="306"/>
       <c r="F192" s="41"/>
     </row>
     <row r="193" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A193" s="285"/>
+      <c r="A193" s="282"/>
       <c r="B193" s="35"/>
       <c r="C193" s="33"/>
       <c r="D193" s="33"/>
-      <c r="E193" s="309"/>
+      <c r="E193" s="306"/>
       <c r="F193" s="41"/>
     </row>
   </sheetData>
@@ -37201,183 +37381,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1">
-      <c r="A1" s="324" t="s">
+      <c r="A1" s="321" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" customHeight="1">
+      <c r="A2" s="321" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15" customHeight="1">
+      <c r="A3" s="321" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" customHeight="1">
-      <c r="A2" s="324" t="s">
+    <row r="4" spans="1:1" ht="15" customHeight="1">
+      <c r="A4" s="321" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15" customHeight="1">
-      <c r="A3" s="324" t="s">
+    <row r="5" spans="1:1" ht="15" customHeight="1">
+      <c r="A5" s="321" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15" customHeight="1">
+      <c r="A6" s="321" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" customHeight="1">
+      <c r="A7" s="321" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" customHeight="1">
+      <c r="A8" s="321" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15" customHeight="1">
+      <c r="A9" s="321" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15" customHeight="1">
-      <c r="A4" s="324" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" customHeight="1">
-      <c r="A5" s="324" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" customHeight="1">
-      <c r="A6" s="324" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" customHeight="1">
-      <c r="A7" s="324" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" customHeight="1">
-      <c r="A8" s="324" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" customHeight="1">
-      <c r="A9" s="324" t="s">
+    <row r="10" spans="1:1" ht="15" customHeight="1">
+      <c r="A10" s="321" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15" customHeight="1">
-      <c r="A10" s="324" t="s">
+    <row r="11" spans="1:1" ht="15" customHeight="1">
+      <c r="A11" s="321" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15" customHeight="1">
-      <c r="A11" s="324" t="s">
+    <row r="12" spans="1:1" ht="15" customHeight="1">
+      <c r="A12" s="321" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15" customHeight="1">
-      <c r="A12" s="324" t="s">
+    <row r="13" spans="1:1" ht="15" customHeight="1">
+      <c r="A13" s="321" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15" customHeight="1">
-      <c r="A13" s="324" t="s">
+    <row r="14" spans="1:1" ht="15" customHeight="1">
+      <c r="A14" s="321" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15" customHeight="1">
-      <c r="A14" s="324" t="s">
+    <row r="15" spans="1:1" ht="15" customHeight="1">
+      <c r="A15" s="321" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15" customHeight="1">
-      <c r="A15" s="324" t="s">
+    <row r="16" spans="1:1" ht="15" customHeight="1">
+      <c r="A16" s="321" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15" customHeight="1">
-      <c r="A16" s="324" t="s">
+    <row r="17" spans="1:1" ht="15" customHeight="1">
+      <c r="A17" s="321" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15" customHeight="1">
-      <c r="A17" s="324" t="s">
+    <row r="18" spans="1:1" ht="15" customHeight="1">
+      <c r="A18" s="321" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" customHeight="1">
-      <c r="A18" s="324" t="s">
+    <row r="19" spans="1:1" ht="15" customHeight="1">
+      <c r="A19" s="321" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15" customHeight="1">
-      <c r="A19" s="324" t="s">
+    <row r="20" spans="1:1" ht="15" customHeight="1">
+      <c r="A20" s="321" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15" customHeight="1">
-      <c r="A20" s="324" t="s">
+    <row r="21" spans="1:1" ht="15" customHeight="1">
+      <c r="A21" s="321" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15" customHeight="1">
-      <c r="A21" s="324" t="s">
+    <row r="22" spans="1:1" ht="15" customHeight="1">
+      <c r="A22" s="321" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15" customHeight="1">
-      <c r="A22" s="324" t="s">
+    <row r="23" spans="1:1" ht="15" customHeight="1">
+      <c r="A23" s="321" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15" customHeight="1">
-      <c r="A23" s="324" t="s">
+    <row r="24" spans="1:1" ht="15" customHeight="1">
+      <c r="A24" s="321" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" customHeight="1">
-      <c r="A24" s="324" t="s">
+    <row r="25" spans="1:1" ht="15" customHeight="1">
+      <c r="A25" s="321" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15" customHeight="1">
-      <c r="A25" s="324" t="s">
+    <row r="26" spans="1:1" ht="15" customHeight="1">
+      <c r="A26" s="321" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15" customHeight="1">
-      <c r="A26" s="324" t="s">
+    <row r="27" spans="1:1" ht="15" customHeight="1">
+      <c r="A27" s="321" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15" customHeight="1">
-      <c r="A27" s="324" t="s">
+    <row r="28" spans="1:1" ht="15" customHeight="1">
+      <c r="A28" s="321" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15" customHeight="1">
-      <c r="A28" s="324" t="s">
+    <row r="29" spans="1:1" ht="15" customHeight="1">
+      <c r="A29" s="321" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15" customHeight="1">
-      <c r="A29" s="324" t="s">
+    <row r="30" spans="1:1" ht="15" customHeight="1">
+      <c r="A30" s="321" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15" customHeight="1">
-      <c r="A30" s="324" t="s">
+    <row r="31" spans="1:1" ht="15" customHeight="1">
+      <c r="A31" s="321" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15" customHeight="1">
-      <c r="A31" s="324" t="s">
+    <row r="32" spans="1:1" ht="15" customHeight="1">
+      <c r="A32" s="321" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15" customHeight="1">
-      <c r="A32" s="324" t="s">
+    <row r="33" spans="1:1" ht="15" customHeight="1">
+      <c r="A33" s="321" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15" customHeight="1">
-      <c r="A33" s="324" t="s">
+    <row r="34" spans="1:1" ht="15" customHeight="1">
+      <c r="A34" s="321" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15" customHeight="1">
-      <c r="A34" s="324" t="s">
+    <row r="35" spans="1:1" ht="15" customHeight="1">
+      <c r="A35" s="321" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15" customHeight="1">
-      <c r="A35" s="324" t="s">
+    <row r="36" spans="1:1" ht="15" customHeight="1">
+      <c r="A36" s="321" t="s">
         <v>580</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="15" customHeight="1">
-      <c r="A36" s="324" t="s">
-        <v>581</v>
       </c>
     </row>
   </sheetData>
